--- a/data/card.xlsx
+++ b/data/card.xlsx
@@ -13,12 +13,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data!#REF!</definedName>
     <definedName name="_xlnm.Extract" localSheetId="0">data!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="114210"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1102" uniqueCount="895">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1255" uniqueCount="991">
   <si>
     <t>card_code</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1165,9 +1165,6 @@
     <t>0432</t>
   </si>
   <si>
-    <t>1433</t>
-  </si>
-  <si>
     <t>0436</t>
   </si>
   <si>
@@ -1649,9 +1646,6 @@
     <t>0778</t>
   </si>
   <si>
-    <t>0775</t>
-  </si>
-  <si>
     <t>0777</t>
   </si>
   <si>
@@ -1681,431 +1675,1728 @@
     <t>0838</t>
   </si>
   <si>
+    <t>0839</t>
+  </si>
+  <si>
+    <t>0833</t>
+  </si>
+  <si>
+    <t>0830</t>
+  </si>
+  <si>
+    <t>0812</t>
+  </si>
+  <si>
+    <t>0825</t>
+  </si>
+  <si>
+    <t>0835</t>
+  </si>
+  <si>
+    <t>0813</t>
+  </si>
+  <si>
+    <t>0851</t>
+  </si>
+  <si>
+    <t>0853</t>
+  </si>
+  <si>
+    <t>0858</t>
+  </si>
+  <si>
+    <t>0857</t>
+  </si>
+  <si>
+    <t>0855</t>
+  </si>
+  <si>
+    <t>0859</t>
+  </si>
+  <si>
+    <t>0854</t>
+  </si>
+  <si>
+    <t>0856</t>
+  </si>
+  <si>
+    <t>0871</t>
+  </si>
+  <si>
+    <t>0877</t>
+  </si>
+  <si>
+    <t>0878</t>
+  </si>
+  <si>
+    <t>0872</t>
+  </si>
+  <si>
+    <t>0873</t>
+  </si>
+  <si>
+    <t>0874</t>
+  </si>
+  <si>
+    <t>0691</t>
+  </si>
+  <si>
+    <t>0870</t>
+  </si>
+  <si>
+    <t>0875</t>
+  </si>
+  <si>
+    <t>0692</t>
+  </si>
+  <si>
+    <t>0887</t>
+  </si>
+  <si>
+    <t>0888</t>
+  </si>
+  <si>
+    <t>0883</t>
+  </si>
+  <si>
+    <t>0886</t>
+  </si>
+  <si>
+    <t>0879</t>
+  </si>
+  <si>
+    <t>0876</t>
+  </si>
+  <si>
+    <t>0891</t>
+  </si>
+  <si>
+    <t>0892</t>
+  </si>
+  <si>
+    <t>0897</t>
+  </si>
+  <si>
+    <t>0895</t>
+  </si>
+  <si>
+    <t>0894</t>
+  </si>
+  <si>
+    <t>0896</t>
+  </si>
+  <si>
+    <t>0893</t>
+  </si>
+  <si>
+    <t>029</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0915</t>
+  </si>
+  <si>
+    <t>0917</t>
+  </si>
+  <si>
+    <t>0916</t>
+  </si>
+  <si>
+    <t>0914</t>
+  </si>
+  <si>
+    <t>0919</t>
+  </si>
+  <si>
+    <t>0913</t>
+  </si>
+  <si>
+    <t>0910</t>
+  </si>
+  <si>
+    <t>0911</t>
+  </si>
+  <si>
+    <t>0912</t>
+  </si>
+  <si>
+    <t>0931</t>
+  </si>
+  <si>
+    <t>0943</t>
+  </si>
+  <si>
+    <t>0932</t>
+  </si>
+  <si>
+    <t>0937</t>
+  </si>
+  <si>
+    <t>0933</t>
+  </si>
+  <si>
+    <t>0934</t>
+  </si>
+  <si>
+    <t>0938</t>
+  </si>
+  <si>
+    <t>0936</t>
+  </si>
+  <si>
+    <t>0941</t>
+  </si>
+  <si>
+    <t>0930</t>
+  </si>
+  <si>
+    <t>0971</t>
+  </si>
+  <si>
+    <t>0973</t>
+  </si>
+  <si>
+    <t>0976</t>
+  </si>
+  <si>
+    <t>0975</t>
+  </si>
+  <si>
+    <t>0977</t>
+  </si>
+  <si>
+    <t>0974</t>
+  </si>
+  <si>
+    <t>0951</t>
+  </si>
+  <si>
+    <t>0952</t>
+  </si>
+  <si>
+    <t>0954</t>
+  </si>
+  <si>
+    <t>0953</t>
+  </si>
+  <si>
+    <t>0991</t>
+  </si>
+  <si>
+    <t>0993</t>
+  </si>
+  <si>
+    <t>0995</t>
+  </si>
+  <si>
+    <t>0999</t>
+  </si>
+  <si>
+    <t>0997</t>
+  </si>
+  <si>
+    <t>0906</t>
+  </si>
+  <si>
+    <t>0909</t>
+  </si>
+  <si>
+    <t>0994</t>
+  </si>
+  <si>
+    <t>0902</t>
+  </si>
+  <si>
+    <t>0903</t>
+  </si>
+  <si>
+    <t>0998</t>
+  </si>
+  <si>
+    <t>0908</t>
+  </si>
+  <si>
+    <t>1100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1506</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2206</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3305</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3325</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4308</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4511</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1102</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1201</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>022</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1202</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0311</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1309</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1311</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1306</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0318</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1407</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0354</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1408</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0359</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1409</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0350</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1410</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0357</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1411</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0358</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1522</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1505</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0475</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1507</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0470</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1508</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0478</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1509</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0474</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1527</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0477</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1400</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0351</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0471</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>024</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0431</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0451</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0514</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3212</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0523</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3213</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0527</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0571</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3307</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3308</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0570</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3310</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0576</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3311</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0578</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3412</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3413</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0557</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3414</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0565</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3415</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0564</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3416</t>
+  </si>
+  <si>
+    <t>3417</t>
+  </si>
+  <si>
+    <t>3418</t>
+  </si>
+  <si>
+    <t>0566</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0563</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3400</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0551</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3102</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>021</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>021</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>025</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0591</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3506</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3507</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0599</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3508</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0597</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3509</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0593</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3600</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0791</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3606</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3607</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0797</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3608</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0796</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3609</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0795</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3610</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0794</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3611</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0793</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3701</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3700</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3713</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0539</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3714</t>
+  </si>
+  <si>
+    <t>3715</t>
+  </si>
+  <si>
+    <t>3716</t>
+  </si>
+  <si>
+    <t>3717</t>
+  </si>
+  <si>
+    <t>0534</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0635</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0543</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0530</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4113</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0377</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4114</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0370</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4115</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0376</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4116</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0394</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4117</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0396</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4190</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0391</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4209</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0712</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4210</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0716</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4211</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0713</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4212</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0715</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4213</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0722</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4290</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4309</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0737</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4310</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0735</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4311</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0746</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4312</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0745</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4313</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0738</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4400</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4405</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0754</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4453</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0766</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4502</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4503</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0773</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4504</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4507</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0777</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4508</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4509</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4510</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0776</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4512</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0778</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4513</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0772</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4514</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0771</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4600</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0898</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4690</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0899</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>023</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5113</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0817</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5114</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>028</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5115</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0831</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5116</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>0826</t>
-  </si>
-  <si>
-    <t>0839</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5117</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0818</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5118</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0835</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5119</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0827</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5120</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5132</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0837</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5133</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0836</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5134</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0834</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5203</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5204</t>
+  </si>
+  <si>
+    <t>0852</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0853</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5303</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0874</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5304</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0877</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5305</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0875</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5306</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0870</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5307</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0888</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0879</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5308</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0883</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5309</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5400</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6105</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0913</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6106</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0911</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6107</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0916</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6108</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0912</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6109</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0915</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6110</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0914</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6202</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0937</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6203</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0935</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6206</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6207</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0936</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0933</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6208</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6209</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6210</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0934</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6211</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0932</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0939</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6212</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6321</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0972</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6322</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0970</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6400</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6403</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0953</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6404</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0954</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6405</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0955</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6502</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0990</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6521</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6528</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6529</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6530</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6532</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6542</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0901</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0852</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0853</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0551</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0551</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0771</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0772</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0771</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0771</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>028</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0851</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0935</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0939</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3423</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0551</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1325</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0313</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0556</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3428</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5130</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0818</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6541</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0991</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1322</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2321</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0451</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0433</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5139</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>028</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1326</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0311</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5122</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1328</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0316</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0771</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5102</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5138</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>0833</t>
-  </si>
-  <si>
-    <t>0830</t>
-  </si>
-  <si>
-    <t>0812</t>
-  </si>
-  <si>
-    <t>0825</t>
-  </si>
-  <si>
-    <t>0835</t>
-  </si>
-  <si>
-    <t>0813</t>
-  </si>
-  <si>
-    <t>0851</t>
-  </si>
-  <si>
-    <t>0853</t>
-  </si>
-  <si>
-    <t>0858</t>
-  </si>
-  <si>
-    <t>0857</t>
-  </si>
-  <si>
-    <t>0855</t>
-  </si>
-  <si>
-    <t>0859</t>
-  </si>
-  <si>
-    <t>0854</t>
-  </si>
-  <si>
-    <t>0856</t>
-  </si>
-  <si>
-    <t>0871</t>
-  </si>
-  <si>
-    <t>0877</t>
-  </si>
-  <si>
-    <t>0878</t>
-  </si>
-  <si>
-    <t>0872</t>
-  </si>
-  <si>
-    <t>0873</t>
-  </si>
-  <si>
-    <t>0874</t>
-  </si>
-  <si>
-    <t>0691</t>
-  </si>
-  <si>
-    <t>0870</t>
-  </si>
-  <si>
-    <t>0875</t>
-  </si>
-  <si>
-    <t>0692</t>
-  </si>
-  <si>
-    <t>0887</t>
-  </si>
-  <si>
-    <t>0888</t>
-  </si>
-  <si>
-    <t>0883</t>
-  </si>
-  <si>
-    <t>0886</t>
-  </si>
-  <si>
-    <t>0879</t>
-  </si>
-  <si>
-    <t>0876</t>
-  </si>
-  <si>
-    <t>0891</t>
-  </si>
-  <si>
-    <t>0892</t>
-  </si>
-  <si>
-    <t>0897</t>
-  </si>
-  <si>
-    <t>0895</t>
-  </si>
-  <si>
-    <t>0894</t>
-  </si>
-  <si>
-    <t>0896</t>
-  </si>
-  <si>
-    <t>0893</t>
-  </si>
-  <si>
-    <t>029</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0915</t>
-  </si>
-  <si>
-    <t>0917</t>
-  </si>
-  <si>
-    <t>0916</t>
-  </si>
-  <si>
-    <t>0914</t>
-  </si>
-  <si>
-    <t>0919</t>
-  </si>
-  <si>
-    <t>0913</t>
-  </si>
-  <si>
-    <t>0910</t>
-  </si>
-  <si>
-    <t>0911</t>
-  </si>
-  <si>
-    <t>0912</t>
-  </si>
-  <si>
-    <t>0931</t>
-  </si>
-  <si>
-    <t>0943</t>
-  </si>
-  <si>
-    <t>0932</t>
-  </si>
-  <si>
-    <t>0937</t>
-  </si>
-  <si>
-    <t>0933</t>
-  </si>
-  <si>
-    <t>0934</t>
-  </si>
-  <si>
-    <t>0938</t>
-  </si>
-  <si>
-    <t>0936</t>
-  </si>
-  <si>
-    <t>0941</t>
-  </si>
-  <si>
-    <t>0930</t>
-  </si>
-  <si>
-    <t>0971</t>
-  </si>
-  <si>
-    <t>0973</t>
-  </si>
-  <si>
-    <t>0976</t>
-  </si>
-  <si>
-    <t>0975</t>
-  </si>
-  <si>
-    <t>0977</t>
-  </si>
-  <si>
-    <t>0974</t>
-  </si>
-  <si>
-    <t>0951</t>
-  </si>
-  <si>
-    <t>0952</t>
-  </si>
-  <si>
-    <t>0954</t>
-  </si>
-  <si>
-    <t>0953</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4222</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>027</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>028</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3427</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0551</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5129</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0817</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4425</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>020</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1329</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0317</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1330</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0318</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1323</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1324</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0311</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0312</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1321</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2312</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0455</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2326</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0451</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2390</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>023</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5112</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3390</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0571</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6503</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>0991</t>
-  </si>
-  <si>
-    <t>0993</t>
-  </si>
-  <si>
-    <t>0995</t>
-  </si>
-  <si>
-    <t>0999</t>
-  </si>
-  <si>
-    <t>0997</t>
-  </si>
-  <si>
-    <t>0906</t>
-  </si>
-  <si>
-    <t>0909</t>
-  </si>
-  <si>
-    <t>0994</t>
-  </si>
-  <si>
-    <t>0902</t>
-  </si>
-  <si>
-    <t>0903</t>
-  </si>
-  <si>
-    <t>0998</t>
-  </si>
-  <si>
-    <t>0908</t>
-  </si>
-  <si>
-    <t>1100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1506</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2206</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3305</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3325</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4308</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4511</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1101</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>010</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1102</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1201</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>022</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1202</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1300</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0311</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1309</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1311</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1306</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0318</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1407</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0354</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1408</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0359</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1409</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0350</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1410</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0357</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1411</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0358</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1522</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1505</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0475</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1507</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0470</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1508</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0478</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1509</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0474</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1527</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0477</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1400</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4226</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4227</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4228</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4229</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>027</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0717</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0718</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4204</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4251</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4326</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0739</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4324</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0736</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5135</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0826</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1490</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2113,23 +3404,67 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1500</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0471</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>024</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2200</t>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6525</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0991</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6524</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6526</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6510</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2223</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0433</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4428</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0766</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3409</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0551</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3590</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0591</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2290</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2137,7 +3472,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2300</t>
+    <t>3690</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0791</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2313</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2145,975 +3488,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0514</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3212</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0523</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3213</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0527</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3300</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0571</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3307</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3308</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0570</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3310</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0576</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3311</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0578</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3412</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3413</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0557</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3414</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0565</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3415</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0564</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3416</t>
-  </si>
-  <si>
-    <t>3417</t>
-  </si>
-  <si>
-    <t>3418</t>
-  </si>
-  <si>
-    <t>0566</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0563</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3400</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0551</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3101</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3102</t>
+    <t>3727</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0537</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3109</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>021</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>021</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>025</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3500</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0591</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3506</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3507</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0599</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3508</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0597</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3509</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0593</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3600</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0791</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3606</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3607</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0797</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3608</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0796</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3609</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0795</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3610</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0794</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3611</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0793</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3701</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3700</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3713</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0539</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3714</t>
-  </si>
-  <si>
-    <t>3715</t>
-  </si>
-  <si>
-    <t>3716</t>
-  </si>
-  <si>
-    <t>3717</t>
-  </si>
-  <si>
-    <t>0534</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0635</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0543</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0530</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4113</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0377</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4114</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0370</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4115</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0376</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4116</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0394</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4117</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0396</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4190</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0391</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4209</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0712</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4210</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0716</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4211</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0713</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4212</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0715</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4213</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0722</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4290</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4300</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4309</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0737</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4310</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0735</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4311</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0746</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4312</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0745</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4313</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0738</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4400</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4405</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0754</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4453</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0766</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4500</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4502</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4503</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0773</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4504</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0774</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4507</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0777</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4508</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0775</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4509</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4510</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0776</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4512</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0778</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4513</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0772</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4514</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0771</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4600</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0898</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4690</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0899</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>023</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5113</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0817</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5114</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>028</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5115</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0831</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5116</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0826</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5117</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0818</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5118</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0835</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5119</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0827</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5120</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5132</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0837</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5133</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0836</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5134</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0834</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5203</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5204</t>
-  </si>
-  <si>
-    <t>0852</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0853</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5300</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5303</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0874</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5304</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0877</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5305</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0875</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5306</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0870</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5307</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0888</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0879</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5308</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0883</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5309</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5400</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6105</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0913</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6106</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0911</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6107</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0916</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6108</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0912</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6109</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0915</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6110</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0914</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6202</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0937</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6203</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0935</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6206</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6207</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0936</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0933</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6208</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6209</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6210</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0934</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6211</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0932</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0939</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6212</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6300</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6321</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0972</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6322</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0970</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6400</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6403</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0953</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6404</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0954</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6405</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0955</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6500</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6502</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0990</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6521</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6528</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0996</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6529</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6530</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6532</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6542</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0901</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0852</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0853</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0551</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0551</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0771</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0772</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0771</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0771</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>028</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0851</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0935</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0939</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3126,15 +3513,13 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -3146,7 +3531,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor indexed="57"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3171,46 +3556,13 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3494,10 +3846,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C459"/>
+  <dimension ref="A1:C512"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A414" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D456" sqref="D456"/>
+    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H109" sqref="H109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3516,7 +3868,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>293</v>
@@ -3524,23 +3876,23 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>294</v>
@@ -3548,32 +3900,32 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>884</v>
+        <v>878</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>884</v>
+        <v>878</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3600,7 +3952,7 @@
         <v>300</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>884</v>
+        <v>878</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3611,7 +3963,7 @@
         <v>298</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>884</v>
+        <v>878</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3622,18 +3974,18 @@
         <v>303</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>884</v>
+        <v>878</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>296</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>884</v>
+        <v>878</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -3644,7 +3996,7 @@
         <v>304</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>884</v>
+        <v>878</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -3657,7 +4009,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>301</v>
@@ -3673,4061 +4025,4626 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
-        <v>640</v>
+        <v>936</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>641</v>
+        <v>934</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>917</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
-        <v>9</v>
+        <v>901</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
-        <v>11</v>
+        <v>932</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>307</v>
+        <v>934</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>917</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
-        <v>19</v>
+        <v>933</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>315</v>
+        <v>935</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>884</v>
+        <v>917</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
-        <v>10</v>
+        <v>892</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>884</v>
+        <v>893</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
-        <v>12</v>
+        <v>908</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>884</v>
+        <v>909</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
-        <v>16</v>
+        <v>911</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>312</v>
+        <v>912</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>884</v>
+        <v>904</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
-        <v>619</v>
+        <v>928</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>620</v>
+        <v>929</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>884</v>
+        <v>917</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1" t="s">
-        <v>621</v>
+        <v>930</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>622</v>
+        <v>931</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>884</v>
+        <v>917</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1" t="s">
-        <v>623</v>
+        <v>637</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>624</v>
+        <v>638</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1" t="s">
-        <v>625</v>
+        <v>9</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>626</v>
+        <v>305</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1" t="s">
-        <v>627</v>
+        <v>11</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>628</v>
+        <v>307</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>313</v>
+        <v>315</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>878</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>311</v>
+        <v>306</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>878</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>878</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>310</v>
+        <v>312</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>878</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>314</v>
+        <v>616</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>878</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="1" t="s">
-        <v>642</v>
+        <v>618</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>643</v>
+        <v>619</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>878</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="1" t="s">
-        <v>20</v>
+        <v>620</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>316</v>
+        <v>621</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="1" t="s">
-        <v>21</v>
+        <v>622</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>317</v>
+        <v>623</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="1" t="s">
-        <v>24</v>
+        <v>624</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>321</v>
+        <v>625</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="1" t="s">
-        <v>630</v>
+        <v>15</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>631</v>
+        <v>311</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="1" t="s">
-        <v>597</v>
+        <v>13</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>884</v>
+        <v>309</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="1" t="s">
-        <v>632</v>
+        <v>14</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>633</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>884</v>
+        <v>310</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="1" t="s">
-        <v>634</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>635</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>884</v>
+        <v>18</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="1" t="s">
-        <v>636</v>
+        <v>964</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>637</v>
+        <v>965</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>884</v>
+        <v>966</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="1" t="s">
-        <v>25</v>
+        <v>639</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>323</v>
+        <v>640</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="1" t="s">
-        <v>629</v>
+        <v>20</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="1" t="s">
-        <v>638</v>
+        <v>627</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>639</v>
+        <v>628</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="1" t="s">
-        <v>28</v>
+        <v>594</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>326</v>
+        <v>319</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>878</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="1" t="s">
-        <v>27</v>
+        <v>629</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>325</v>
+        <v>630</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>878</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="1" t="s">
-        <v>644</v>
+        <v>631</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>645</v>
+        <v>632</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>878</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="1" t="s">
-        <v>30</v>
+        <v>633</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>328</v>
+        <v>634</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>878</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="1" t="s">
-        <v>32</v>
+        <v>626</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>884</v>
+        <v>324</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>884</v>
+        <v>327</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="1" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>884</v>
+        <v>320</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="1" t="s">
-        <v>35</v>
+        <v>635</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>884</v>
+        <v>636</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>884</v>
+        <v>326</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="1" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>884</v>
+        <v>325</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="1" t="s">
-        <v>41</v>
+        <v>641</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>884</v>
+        <v>642</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="1" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>884</v>
+        <v>328</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="1" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>884</v>
+        <v>329</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>878</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="1" t="s">
-        <v>646</v>
+        <v>37</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>647</v>
+        <v>335</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>878</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="1" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>342</v>
+        <v>331</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>878</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="1" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>343</v>
+        <v>333</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>878</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="1" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>348</v>
+        <v>334</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>884</v>
+        <v>878</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="1" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>884</v>
+        <v>878</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>884</v>
+        <v>878</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="1" t="s">
-        <v>598</v>
+        <v>42</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>884</v>
+        <v>878</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>884</v>
+        <v>878</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="1" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>884</v>
+        <v>336</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="1" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="1" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="1" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>358</v>
+        <v>347</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>878</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="1" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>357</v>
+        <v>346</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>878</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="1" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>362</v>
+        <v>349</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>884</v>
+        <v>878</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="1" t="s">
-        <v>53</v>
+        <v>595</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>884</v>
+        <v>878</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="1" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>363</v>
+        <v>348</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>884</v>
+        <v>878</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>884</v>
+        <v>878</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="1" t="s">
-        <v>61</v>
+        <v>972</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>360</v>
+        <v>973</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>884</v>
+        <v>966</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="1" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>884</v>
+        <v>905</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="1" t="s">
-        <v>57</v>
+        <v>981</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>356</v>
+        <v>982</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>980</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="1" t="s">
-        <v>62</v>
+        <v>645</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>361</v>
+        <v>646</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="1" t="s">
-        <v>599</v>
+        <v>54</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="1" t="s">
-        <v>678</v>
+        <v>59</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>680</v>
+        <v>357</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="1" t="s">
-        <v>679</v>
+        <v>58</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>681</v>
+        <v>356</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="1" t="s">
-        <v>682</v>
+        <v>63</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>683</v>
+        <v>361</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>878</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="1" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>365</v>
+        <v>351</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>878</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>369</v>
+        <v>362</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>878</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="1" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>370</v>
+        <v>353</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>878</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>884</v>
+        <v>878</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>884</v>
+        <v>878</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="1" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>884</v>
+        <v>355</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="1" t="s">
-        <v>68</v>
+        <v>937</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>368</v>
+        <v>938</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>884</v>
+        <v>917</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="1" t="s">
-        <v>73</v>
+        <v>985</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>372</v>
+        <v>986</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>884</v>
+        <v>980</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="1" t="s">
-        <v>75</v>
+        <v>902</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>374</v>
+        <v>903</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>884</v>
+        <v>904</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="1" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>650</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>884</v>
+        <v>360</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="1" t="s">
-        <v>72</v>
+        <v>939</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>371</v>
+        <v>940</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>884</v>
+        <v>917</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="1" t="s">
-        <v>651</v>
+        <v>56</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>652</v>
+        <v>354</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="1" t="s">
-        <v>653</v>
+        <v>941</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>654</v>
+        <v>940</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>917</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="1" t="s">
-        <v>655</v>
+        <v>596</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>656</v>
+        <v>363</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="1" t="s">
-        <v>76</v>
+        <v>675</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>375</v>
+        <v>677</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="1" t="s">
-        <v>77</v>
+        <v>676</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>376</v>
+        <v>678</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="1" t="s">
-        <v>80</v>
+        <v>989</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>379</v>
+        <v>990</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>966</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="1" t="s">
-        <v>78</v>
+        <v>679</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>377</v>
+        <v>680</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="1" t="s">
-        <v>600</v>
+        <v>65</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="C116" s="1" t="s">
-        <v>884</v>
+        <v>364</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="1" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="C117" s="1" t="s">
-        <v>884</v>
+        <v>368</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="1" t="s">
-        <v>657</v>
+        <v>71</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="C118" s="1" t="s">
-        <v>884</v>
+        <v>369</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="1" t="s">
-        <v>658</v>
+        <v>67</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>659</v>
+        <v>366</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>884</v>
+        <v>878</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="1" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>380</v>
+        <v>365</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>884</v>
+        <v>878</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="1" t="s">
-        <v>660</v>
+        <v>74</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>661</v>
+        <v>372</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>878</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="1" t="s">
-        <v>662</v>
+        <v>68</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>663</v>
+        <v>367</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>878</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="1" t="s">
-        <v>601</v>
+        <v>73</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>383</v>
+        <v>371</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>878</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>384</v>
+        <v>373</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>878</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="1" t="s">
-        <v>676</v>
+        <v>69</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>677</v>
+        <v>647</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>878</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="1" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>385</v>
+        <v>370</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>878</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="1" t="s">
-        <v>84</v>
+        <v>648</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>386</v>
+        <v>649</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="1" t="s">
-        <v>86</v>
+        <v>650</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>388</v>
+        <v>651</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="1" t="s">
-        <v>93</v>
+        <v>652</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>394</v>
+        <v>653</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="1" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="C130" s="1" t="s">
-        <v>884</v>
+        <v>374</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="1" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="C131" s="1" t="s">
-        <v>884</v>
+        <v>375</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="1" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="C132" s="1" t="s">
-        <v>884</v>
+        <v>378</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" s="1" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="C133" s="1" t="s">
-        <v>884</v>
+        <v>376</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" s="1" t="s">
-        <v>91</v>
+        <v>597</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>392</v>
+        <v>380</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>884</v>
+        <v>878</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="1" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>391</v>
+        <v>377</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>878</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="1" t="s">
-        <v>664</v>
+        <v>654</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>677</v>
+        <v>381</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>878</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="1" t="s">
-        <v>665</v>
+        <v>655</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>666</v>
+        <v>656</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>878</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" s="1" t="s">
-        <v>667</v>
+        <v>81</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>668</v>
+        <v>379</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>878</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" s="1" t="s">
-        <v>669</v>
+        <v>657</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>670</v>
+        <v>658</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="1" t="s">
-        <v>671</v>
+        <v>659</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>885</v>
+        <v>660</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="1" t="s">
-        <v>672</v>
+        <v>598</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>674</v>
+        <v>382</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="1" t="s">
-        <v>673</v>
+        <v>82</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>675</v>
+        <v>383</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="1" t="s">
-        <v>87</v>
+        <v>945</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>886</v>
+        <v>946</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>917</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="1" t="s">
-        <v>96</v>
+        <v>673</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>397</v>
+        <v>674</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" s="1" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" s="1" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>399</v>
+        <v>385</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" s="1" t="s">
-        <v>684</v>
+        <v>95</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>685</v>
+        <v>395</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>878</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" s="1" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>400</v>
+        <v>392</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>878</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>884</v>
+        <v>878</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" s="1" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>406</v>
+        <v>386</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>884</v>
+        <v>878</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" s="1" t="s">
-        <v>106</v>
+        <v>976</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>407</v>
+        <v>977</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>884</v>
+        <v>966</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" s="1" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>884</v>
+        <v>878</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" s="1" t="s">
-        <v>686</v>
+        <v>90</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="C155" s="1" t="s">
-        <v>884</v>
+        <v>390</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" s="1" t="s">
-        <v>687</v>
+        <v>661</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>688</v>
-      </c>
-      <c r="C156" s="1" t="s">
-        <v>884</v>
+        <v>674</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" s="1" t="s">
-        <v>689</v>
+        <v>662</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>690</v>
-      </c>
-      <c r="C157" s="1" t="s">
-        <v>884</v>
+        <v>663</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" s="1" t="s">
-        <v>691</v>
+        <v>664</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>692</v>
+        <v>665</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" s="1" t="s">
-        <v>104</v>
+        <v>666</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>405</v>
+        <v>667</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" s="1" t="s">
-        <v>103</v>
+        <v>668</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>404</v>
+        <v>879</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" s="1" t="s">
-        <v>102</v>
+        <v>669</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>403</v>
+        <v>671</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" s="1" t="s">
-        <v>693</v>
+        <v>670</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>694</v>
+        <v>672</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" s="1" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>409</v>
+        <v>880</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" s="1" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>412</v>
+        <v>396</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" s="1" t="s">
-        <v>112</v>
+        <v>889</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>414</v>
+        <v>890</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>891</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" s="1" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="C166" s="1" t="s">
-        <v>884</v>
+        <v>394</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" s="1" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="C167" s="1" t="s">
-        <v>884</v>
+        <v>398</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" s="1" t="s">
-        <v>695</v>
+        <v>88</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="C168" s="1" t="s">
-        <v>884</v>
+        <v>388</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169" s="1" t="s">
-        <v>696</v>
+        <v>922</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>697</v>
+        <v>923</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>884</v>
+        <v>917</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170" s="1" t="s">
-        <v>698</v>
+        <v>895</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>699</v>
+        <v>894</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>884</v>
+        <v>896</v>
       </c>
     </row>
     <row r="171" spans="1:3">
       <c r="A171" s="1" t="s">
-        <v>700</v>
+        <v>89</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>701</v>
-      </c>
-      <c r="C171" s="1" t="s">
-        <v>884</v>
+        <v>389</v>
       </c>
     </row>
     <row r="172" spans="1:3">
       <c r="A172" s="1" t="s">
-        <v>702</v>
+        <v>681</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>703</v>
-      </c>
-      <c r="C172" s="1" t="s">
-        <v>884</v>
+        <v>682</v>
       </c>
     </row>
     <row r="173" spans="1:3">
       <c r="A173" s="1" t="s">
-        <v>704</v>
+        <v>99</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>705</v>
+        <v>399</v>
       </c>
     </row>
     <row r="174" spans="1:3">
       <c r="A174" s="1" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>410</v>
+        <v>400</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>878</v>
       </c>
     </row>
     <row r="175" spans="1:3">
       <c r="A175" s="1" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>417</v>
+        <v>405</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>878</v>
       </c>
     </row>
     <row r="176" spans="1:3">
       <c r="A176" s="1" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>415</v>
+        <v>406</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>878</v>
       </c>
     </row>
     <row r="177" spans="1:3">
       <c r="A177" s="1" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>413</v>
+        <v>401</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>878</v>
       </c>
     </row>
     <row r="178" spans="1:3">
       <c r="A178" s="1" t="s">
-        <v>116</v>
+        <v>683</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>419</v>
+        <v>407</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>878</v>
       </c>
     </row>
     <row r="179" spans="1:3">
       <c r="A179" s="1" t="s">
-        <v>707</v>
+        <v>684</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>420</v>
+        <v>685</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>878</v>
       </c>
     </row>
     <row r="180" spans="1:3">
       <c r="A180" s="1" t="s">
-        <v>706</v>
+        <v>686</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>420</v>
+        <v>687</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>878</v>
       </c>
     </row>
     <row r="181" spans="1:3">
       <c r="A181" s="1" t="s">
-        <v>117</v>
+        <v>688</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>421</v>
+        <v>689</v>
       </c>
     </row>
     <row r="182" spans="1:3">
       <c r="A182" s="1" t="s">
-        <v>131</v>
+        <v>104</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>435</v>
+        <v>404</v>
       </c>
     </row>
     <row r="183" spans="1:3">
       <c r="A183" s="1" t="s">
-        <v>132</v>
+        <v>103</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="C183" s="1" t="s">
-        <v>884</v>
+        <v>403</v>
       </c>
     </row>
     <row r="184" spans="1:3">
       <c r="A184" s="1" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="C184" s="1" t="s">
-        <v>884</v>
+        <v>402</v>
       </c>
     </row>
     <row r="185" spans="1:3">
       <c r="A185" s="1" t="s">
-        <v>119</v>
+        <v>978</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>423</v>
+        <v>979</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>884</v>
+        <v>980</v>
       </c>
     </row>
     <row r="186" spans="1:3">
       <c r="A186" s="1" t="s">
-        <v>120</v>
+        <v>690</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="C186" s="1" t="s">
-        <v>884</v>
+        <v>691</v>
       </c>
     </row>
     <row r="187" spans="1:3">
       <c r="A187" s="1" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="C187" s="1" t="s">
-        <v>884</v>
+        <v>408</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="A188" s="1" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>425</v>
+        <v>411</v>
       </c>
     </row>
     <row r="189" spans="1:3">
       <c r="A189" s="1" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="C189" s="1" t="s">
-        <v>884</v>
+        <v>413</v>
       </c>
     </row>
     <row r="190" spans="1:3">
       <c r="A190" s="1" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>434</v>
+        <v>410</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>884</v>
+        <v>878</v>
       </c>
     </row>
     <row r="191" spans="1:3">
       <c r="A191" s="1" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>433</v>
+        <v>415</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>884</v>
+        <v>878</v>
       </c>
     </row>
     <row r="192" spans="1:3">
       <c r="A192" s="1" t="s">
-        <v>708</v>
+        <v>692</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>709</v>
+        <v>417</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>884</v>
+        <v>878</v>
       </c>
     </row>
     <row r="193" spans="1:3">
       <c r="A193" s="1" t="s">
-        <v>710</v>
+        <v>693</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>714</v>
+        <v>694</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>884</v>
+        <v>878</v>
       </c>
     </row>
     <row r="194" spans="1:3">
       <c r="A194" s="1" t="s">
-        <v>711</v>
+        <v>695</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>715</v>
+        <v>696</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>884</v>
+        <v>878</v>
       </c>
     </row>
     <row r="195" spans="1:3">
       <c r="A195" s="1" t="s">
-        <v>712</v>
+        <v>697</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>716</v>
+        <v>698</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>884</v>
+        <v>878</v>
       </c>
     </row>
     <row r="196" spans="1:3">
       <c r="A196" s="1" t="s">
-        <v>713</v>
+        <v>699</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>717</v>
+        <v>700</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>884</v>
+        <v>878</v>
       </c>
     </row>
     <row r="197" spans="1:3">
       <c r="A197" s="1" t="s">
-        <v>122</v>
+        <v>701</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>426</v>
+        <v>702</v>
       </c>
     </row>
     <row r="198" spans="1:3">
       <c r="A198" s="1" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>427</v>
+        <v>409</v>
       </c>
     </row>
     <row r="199" spans="1:3">
       <c r="A199" s="1" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
     </row>
     <row r="200" spans="1:3">
       <c r="A200" s="1" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>432</v>
+        <v>414</v>
       </c>
     </row>
     <row r="201" spans="1:3">
       <c r="A201" s="1" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>429</v>
+        <v>412</v>
       </c>
     </row>
     <row r="202" spans="1:3">
       <c r="A202" s="1" t="s">
-        <v>718</v>
+        <v>116</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>437</v>
+        <v>418</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>980</v>
       </c>
     </row>
     <row r="203" spans="1:3">
       <c r="A203" s="1" t="s">
-        <v>133</v>
+        <v>983</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>437</v>
+        <v>984</v>
       </c>
     </row>
     <row r="204" spans="1:3">
       <c r="A204" s="1" t="s">
-        <v>135</v>
+        <v>704</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>439</v>
+        <v>419</v>
       </c>
     </row>
     <row r="205" spans="1:3">
       <c r="A205" s="1" t="s">
-        <v>134</v>
+        <v>703</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>438</v>
+        <v>419</v>
       </c>
     </row>
     <row r="206" spans="1:3">
       <c r="A206" s="1" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="C206" s="1" t="s">
-        <v>884</v>
+        <v>420</v>
       </c>
     </row>
     <row r="207" spans="1:3">
       <c r="A207" s="1" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="C207" s="1" t="s">
-        <v>884</v>
+        <v>434</v>
       </c>
     </row>
     <row r="208" spans="1:3">
       <c r="A208" s="1" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>884</v>
+        <v>878</v>
       </c>
     </row>
     <row r="209" spans="1:3">
       <c r="A209" s="1" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>450</v>
+        <v>427</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>884</v>
+        <v>878</v>
       </c>
     </row>
     <row r="210" spans="1:3">
       <c r="A210" s="1" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>444</v>
+        <v>422</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>884</v>
+        <v>878</v>
       </c>
     </row>
     <row r="211" spans="1:3">
       <c r="A211" s="1" t="s">
-        <v>143</v>
+        <v>120</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>447</v>
+        <v>423</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>884</v>
+        <v>878</v>
       </c>
     </row>
     <row r="212" spans="1:3">
       <c r="A212" s="1" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>440</v>
+        <v>429</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>884</v>
+        <v>878</v>
       </c>
     </row>
     <row r="213" spans="1:3">
       <c r="A213" s="1" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="C213" s="1" t="s">
-        <v>884</v>
+        <v>424</v>
       </c>
     </row>
     <row r="214" spans="1:3">
       <c r="A214" s="1" t="s">
-        <v>144</v>
+        <v>118</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>448</v>
+        <v>421</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>884</v>
+        <v>878</v>
       </c>
     </row>
     <row r="215" spans="1:3">
       <c r="A215" s="1" t="s">
-        <v>719</v>
+        <v>130</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>720</v>
+        <v>433</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>884</v>
+        <v>878</v>
       </c>
     </row>
     <row r="216" spans="1:3">
       <c r="A216" s="1" t="s">
-        <v>721</v>
+        <v>129</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>722</v>
+        <v>432</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>884</v>
+        <v>878</v>
       </c>
     </row>
     <row r="217" spans="1:3">
       <c r="A217" s="1" t="s">
-        <v>723</v>
+        <v>705</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>724</v>
+        <v>706</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>884</v>
+        <v>878</v>
       </c>
     </row>
     <row r="218" spans="1:3">
       <c r="A218" s="1" t="s">
-        <v>725</v>
+        <v>707</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>726</v>
+        <v>711</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>884</v>
+        <v>878</v>
       </c>
     </row>
     <row r="219" spans="1:3">
       <c r="A219" s="1" t="s">
-        <v>727</v>
+        <v>708</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>728</v>
+        <v>712</v>
+      </c>
+      <c r="C219" s="1" t="s">
+        <v>878</v>
       </c>
     </row>
     <row r="220" spans="1:3">
       <c r="A220" s="1" t="s">
-        <v>729</v>
+        <v>709</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>730</v>
+        <v>713</v>
+      </c>
+      <c r="C220" s="1" t="s">
+        <v>878</v>
       </c>
     </row>
     <row r="221" spans="1:3">
       <c r="A221" s="1" t="s">
-        <v>145</v>
+        <v>710</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>449</v>
+        <v>714</v>
+      </c>
+      <c r="C221" s="1" t="s">
+        <v>878</v>
       </c>
     </row>
     <row r="222" spans="1:3">
       <c r="A222" s="1" t="s">
-        <v>149</v>
+        <v>122</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>453</v>
+        <v>425</v>
       </c>
     </row>
     <row r="223" spans="1:3">
       <c r="A223" s="1" t="s">
-        <v>148</v>
+        <v>123</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>452</v>
+        <v>426</v>
       </c>
     </row>
     <row r="224" spans="1:3">
       <c r="A224" s="1" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
     </row>
     <row r="225" spans="1:3">
       <c r="A225" s="1" t="s">
-        <v>147</v>
+        <v>987</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>451</v>
+        <v>988</v>
+      </c>
+      <c r="C225" s="1" t="s">
+        <v>980</v>
       </c>
     </row>
     <row r="226" spans="1:3">
       <c r="A226" s="1" t="s">
-        <v>731</v>
+        <v>128</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>454</v>
+        <v>431</v>
       </c>
     </row>
     <row r="227" spans="1:3">
       <c r="A227" s="1" t="s">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>454</v>
+        <v>428</v>
       </c>
     </row>
     <row r="228" spans="1:3">
       <c r="A228" s="1" t="s">
-        <v>153</v>
+        <v>715</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>457</v>
+        <v>436</v>
       </c>
     </row>
     <row r="229" spans="1:3">
       <c r="A229" s="1" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>456</v>
+        <v>436</v>
       </c>
     </row>
     <row r="230" spans="1:3">
       <c r="A230" s="1" t="s">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="C230" s="1" t="s">
-        <v>884</v>
+        <v>438</v>
       </c>
     </row>
     <row r="231" spans="1:3">
       <c r="A231" s="1" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="C231" s="1" t="s">
-        <v>884</v>
+        <v>437</v>
       </c>
     </row>
     <row r="232" spans="1:3">
       <c r="A232" s="1" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>458</v>
+        <v>441</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>884</v>
+        <v>878</v>
       </c>
     </row>
     <row r="233" spans="1:3">
       <c r="A233" s="1" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>462</v>
+        <v>440</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>884</v>
+        <v>878</v>
       </c>
     </row>
     <row r="234" spans="1:3">
       <c r="A234" s="1" t="s">
-        <v>732</v>
+        <v>139</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>733</v>
+        <v>442</v>
+      </c>
+      <c r="C234" s="1" t="s">
+        <v>878</v>
       </c>
     </row>
     <row r="235" spans="1:3">
       <c r="A235" s="1" t="s">
-        <v>734</v>
+        <v>146</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>735</v>
+        <v>449</v>
+      </c>
+      <c r="C235" s="1" t="s">
+        <v>878</v>
       </c>
     </row>
     <row r="236" spans="1:3">
       <c r="A236" s="1" t="s">
-        <v>736</v>
+        <v>140</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>737</v>
+        <v>443</v>
+      </c>
+      <c r="C236" s="1" t="s">
+        <v>878</v>
       </c>
     </row>
     <row r="237" spans="1:3">
       <c r="A237" s="1" t="s">
-        <v>738</v>
+        <v>143</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>739</v>
+        <v>446</v>
+      </c>
+      <c r="C237" s="1" t="s">
+        <v>878</v>
       </c>
     </row>
     <row r="238" spans="1:3">
       <c r="A238" s="1" t="s">
-        <v>740</v>
+        <v>136</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>741</v>
+        <v>439</v>
+      </c>
+      <c r="C238" s="1" t="s">
+        <v>878</v>
       </c>
     </row>
     <row r="239" spans="1:3">
       <c r="A239" s="1" t="s">
-        <v>742</v>
+        <v>141</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>454</v>
+        <v>444</v>
+      </c>
+      <c r="C239" s="1" t="s">
+        <v>878</v>
       </c>
     </row>
     <row r="240" spans="1:3">
       <c r="A240" s="1" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>459</v>
+        <v>447</v>
+      </c>
+      <c r="C240" s="1" t="s">
+        <v>878</v>
       </c>
     </row>
     <row r="241" spans="1:3">
       <c r="A241" s="1" t="s">
-        <v>156</v>
+        <v>716</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>460</v>
+        <v>717</v>
+      </c>
+      <c r="C241" s="1" t="s">
+        <v>878</v>
       </c>
     </row>
     <row r="242" spans="1:3">
       <c r="A242" s="1" t="s">
-        <v>160</v>
+        <v>718</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>464</v>
+        <v>719</v>
+      </c>
+      <c r="C242" s="1" t="s">
+        <v>878</v>
       </c>
     </row>
     <row r="243" spans="1:3">
       <c r="A243" s="1" t="s">
-        <v>157</v>
+        <v>720</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>461</v>
+        <v>721</v>
+      </c>
+      <c r="C243" s="1" t="s">
+        <v>878</v>
       </c>
     </row>
     <row r="244" spans="1:3">
       <c r="A244" s="1" t="s">
-        <v>743</v>
+        <v>722</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>465</v>
+        <v>723</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>744</v>
+        <v>878</v>
       </c>
     </row>
     <row r="245" spans="1:3">
       <c r="A245" s="1" t="s">
-        <v>161</v>
+        <v>724</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>465</v>
+        <v>725</v>
       </c>
     </row>
     <row r="246" spans="1:3">
       <c r="A246" s="1" t="s">
-        <v>172</v>
+        <v>726</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>476</v>
+        <v>727</v>
       </c>
     </row>
     <row r="247" spans="1:3">
       <c r="A247" s="1" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>467</v>
+        <v>448</v>
       </c>
     </row>
     <row r="248" spans="1:3">
       <c r="A248" s="1" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>470</v>
+        <v>452</v>
       </c>
     </row>
     <row r="249" spans="1:3">
       <c r="A249" s="1" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>473</v>
+        <v>451</v>
       </c>
     </row>
     <row r="250" spans="1:3">
       <c r="A250" s="1" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>466</v>
+        <v>445</v>
       </c>
     </row>
     <row r="251" spans="1:3">
       <c r="A251" s="1" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>468</v>
+        <v>450</v>
       </c>
     </row>
     <row r="252" spans="1:3">
       <c r="A252" s="1" t="s">
-        <v>602</v>
+        <v>728</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>477</v>
+        <v>453</v>
       </c>
     </row>
     <row r="253" spans="1:3">
       <c r="A253" s="1" t="s">
-        <v>745</v>
+        <v>150</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>746</v>
-      </c>
-      <c r="C253" s="1" t="s">
-        <v>744</v>
+        <v>453</v>
       </c>
     </row>
     <row r="254" spans="1:3">
       <c r="A254" s="1" t="s">
-        <v>747</v>
+        <v>153</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>748</v>
-      </c>
-      <c r="C254" s="1" t="s">
-        <v>744</v>
+        <v>456</v>
       </c>
     </row>
     <row r="255" spans="1:3">
       <c r="A255" s="1" t="s">
-        <v>749</v>
+        <v>152</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>750</v>
-      </c>
-      <c r="C255" s="1" t="s">
-        <v>744</v>
+        <v>455</v>
       </c>
     </row>
     <row r="256" spans="1:3">
       <c r="A256" s="1" t="s">
-        <v>751</v>
+        <v>956</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>752</v>
+        <v>953</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>744</v>
+        <v>917</v>
       </c>
     </row>
     <row r="257" spans="1:3">
       <c r="A257" s="1" t="s">
-        <v>753</v>
+        <v>159</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>754</v>
+        <v>462</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>744</v>
+        <v>878</v>
       </c>
     </row>
     <row r="258" spans="1:3">
       <c r="A258" s="1" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>474</v>
+        <v>454</v>
+      </c>
+      <c r="C258" s="1" t="s">
+        <v>878</v>
       </c>
     </row>
     <row r="259" spans="1:3">
       <c r="A259" s="1" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>472</v>
+        <v>457</v>
+      </c>
+      <c r="C259" s="1" t="s">
+        <v>878</v>
       </c>
     </row>
     <row r="260" spans="1:3">
       <c r="A260" s="1" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>469</v>
+        <v>461</v>
+      </c>
+      <c r="C260" s="1" t="s">
+        <v>878</v>
       </c>
     </row>
     <row r="261" spans="1:3">
       <c r="A261" s="1" t="s">
-        <v>171</v>
+        <v>729</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>475</v>
+        <v>730</v>
       </c>
     </row>
     <row r="262" spans="1:3">
       <c r="A262" s="1" t="s">
-        <v>167</v>
+        <v>731</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>471</v>
+        <v>732</v>
       </c>
     </row>
     <row r="263" spans="1:3">
       <c r="A263" s="1" t="s">
-        <v>173</v>
+        <v>733</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>478</v>
+        <v>734</v>
       </c>
     </row>
     <row r="264" spans="1:3">
       <c r="A264" s="1" t="s">
-        <v>755</v>
+        <v>735</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>479</v>
+        <v>736</v>
       </c>
     </row>
     <row r="265" spans="1:3">
       <c r="A265" s="1" t="s">
-        <v>174</v>
+        <v>737</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>479</v>
+        <v>738</v>
       </c>
     </row>
     <row r="266" spans="1:3">
       <c r="A266" s="1" t="s">
-        <v>189</v>
+        <v>739</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>494</v>
+        <v>453</v>
       </c>
     </row>
     <row r="267" spans="1:3">
       <c r="A267" s="1" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>480</v>
+        <v>458</v>
       </c>
     </row>
     <row r="268" spans="1:3">
       <c r="A268" s="1" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>481</v>
+        <v>459</v>
       </c>
     </row>
     <row r="269" spans="1:3">
       <c r="A269" s="1" t="s">
-        <v>756</v>
+        <v>918</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>757</v>
+        <v>919</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>744</v>
+        <v>917</v>
       </c>
     </row>
     <row r="270" spans="1:3">
       <c r="A270" s="1" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>483</v>
+        <v>463</v>
       </c>
     </row>
     <row r="271" spans="1:3">
       <c r="A271" s="1" t="s">
-        <v>180</v>
+        <v>157</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>485</v>
+        <v>460</v>
       </c>
     </row>
     <row r="272" spans="1:3">
       <c r="A272" s="1" t="s">
-        <v>182</v>
+        <v>949</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>487</v>
+        <v>953</v>
+      </c>
+      <c r="C272" s="1" t="s">
+        <v>917</v>
       </c>
     </row>
     <row r="273" spans="1:3">
       <c r="A273" s="1" t="s">
-        <v>186</v>
+        <v>950</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>491</v>
+        <v>954</v>
+      </c>
+      <c r="C273" s="1" t="s">
+        <v>917</v>
       </c>
     </row>
     <row r="274" spans="1:3">
       <c r="A274" s="1" t="s">
-        <v>192</v>
+        <v>951</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>497</v>
+        <v>955</v>
+      </c>
+      <c r="C274" s="1" t="s">
+        <v>917</v>
       </c>
     </row>
     <row r="275" spans="1:3">
       <c r="A275" s="1" t="s">
-        <v>179</v>
+        <v>952</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>484</v>
+        <v>953</v>
+      </c>
+      <c r="C275" s="1" t="s">
+        <v>917</v>
       </c>
     </row>
     <row r="276" spans="1:3">
       <c r="A276" s="1" t="s">
-        <v>187</v>
+        <v>957</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>492</v>
+        <v>953</v>
+      </c>
+      <c r="C276" s="1" t="s">
+        <v>917</v>
       </c>
     </row>
     <row r="277" spans="1:3">
       <c r="A277" s="1" t="s">
-        <v>190</v>
+        <v>740</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>495</v>
+        <v>464</v>
+      </c>
+      <c r="C277" s="1" t="s">
+        <v>741</v>
       </c>
     </row>
     <row r="278" spans="1:3">
       <c r="A278" s="1" t="s">
-        <v>184</v>
+        <v>161</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>489</v>
+        <v>464</v>
       </c>
     </row>
     <row r="279" spans="1:3">
       <c r="A279" s="1" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>496</v>
+        <v>475</v>
       </c>
     </row>
     <row r="280" spans="1:3">
       <c r="A280" s="1" t="s">
-        <v>188</v>
+        <v>163</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>493</v>
+        <v>466</v>
       </c>
     </row>
     <row r="281" spans="1:3">
       <c r="A281" s="1" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>482</v>
+        <v>469</v>
       </c>
     </row>
     <row r="282" spans="1:3">
       <c r="A282" s="1" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>486</v>
+        <v>472</v>
       </c>
     </row>
     <row r="283" spans="1:3">
       <c r="A283" s="1" t="s">
-        <v>183</v>
+        <v>162</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>488</v>
+        <v>465</v>
       </c>
     </row>
     <row r="284" spans="1:3">
       <c r="A284" s="1" t="s">
-        <v>185</v>
+        <v>164</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>490</v>
+        <v>467</v>
       </c>
     </row>
     <row r="285" spans="1:3">
       <c r="A285" s="1" t="s">
-        <v>758</v>
+        <v>599</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>759</v>
-      </c>
-      <c r="C285" s="1" t="s">
-        <v>744</v>
+        <v>476</v>
       </c>
     </row>
     <row r="286" spans="1:3">
       <c r="A286" s="1" t="s">
-        <v>760</v>
+        <v>742</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>498</v>
+        <v>743</v>
+      </c>
+      <c r="C286" s="1" t="s">
+        <v>741</v>
       </c>
     </row>
     <row r="287" spans="1:3">
       <c r="A287" s="1" t="s">
-        <v>193</v>
+        <v>744</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>498</v>
+        <v>745</v>
+      </c>
+      <c r="C287" s="1" t="s">
+        <v>741</v>
       </c>
     </row>
     <row r="288" spans="1:3">
       <c r="A288" s="1" t="s">
-        <v>761</v>
+        <v>746</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>502</v>
+        <v>747</v>
+      </c>
+      <c r="C288" s="1" t="s">
+        <v>741</v>
       </c>
     </row>
     <row r="289" spans="1:3">
       <c r="A289" s="1" t="s">
-        <v>762</v>
+        <v>748</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>763</v>
+        <v>749</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
     </row>
     <row r="290" spans="1:3">
       <c r="A290" s="1" t="s">
-        <v>764</v>
+        <v>750</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>765</v>
+        <v>751</v>
+      </c>
+      <c r="C290" s="1" t="s">
+        <v>741</v>
       </c>
     </row>
     <row r="291" spans="1:3">
       <c r="A291" s="1" t="s">
-        <v>194</v>
+        <v>170</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>499</v>
+        <v>473</v>
       </c>
     </row>
     <row r="292" spans="1:3">
       <c r="A292" s="1" t="s">
-        <v>195</v>
+        <v>960</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>500</v>
+        <v>961</v>
+      </c>
+      <c r="C292" s="1" t="s">
+        <v>917</v>
       </c>
     </row>
     <row r="293" spans="1:3">
       <c r="A293" s="1" t="s">
-        <v>766</v>
+        <v>168</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>767</v>
-      </c>
-      <c r="C293" s="1" t="s">
-        <v>744</v>
+        <v>471</v>
       </c>
     </row>
     <row r="294" spans="1:3">
       <c r="A294" s="1" t="s">
-        <v>768</v>
+        <v>958</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>769</v>
-      </c>
-      <c r="C294" s="1" t="s">
-        <v>744</v>
+        <v>959</v>
       </c>
     </row>
     <row r="295" spans="1:3">
       <c r="A295" s="1" t="s">
-        <v>770</v>
+        <v>165</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>769</v>
-      </c>
-      <c r="C295" s="1" t="s">
-        <v>744</v>
+        <v>468</v>
       </c>
     </row>
     <row r="296" spans="1:3">
       <c r="A296" s="1" t="s">
-        <v>771</v>
+        <v>171</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>772</v>
-      </c>
-      <c r="C296" s="1" t="s">
-        <v>744</v>
+        <v>474</v>
       </c>
     </row>
     <row r="297" spans="1:3">
       <c r="A297" s="1" t="s">
-        <v>603</v>
+        <v>167</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>890</v>
-      </c>
-      <c r="C297" s="1" t="s">
-        <v>744</v>
+        <v>470</v>
       </c>
     </row>
     <row r="298" spans="1:3">
       <c r="A298" s="1" t="s">
-        <v>773</v>
+        <v>173</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>774</v>
-      </c>
-      <c r="C298" s="1" t="s">
-        <v>744</v>
+        <v>477</v>
       </c>
     </row>
     <row r="299" spans="1:3">
       <c r="A299" s="1" t="s">
-        <v>775</v>
+        <v>752</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>776</v>
-      </c>
-      <c r="C299" s="1" t="s">
-        <v>744</v>
+        <v>478</v>
       </c>
     </row>
     <row r="300" spans="1:3">
       <c r="A300" s="1" t="s">
-        <v>777</v>
+        <v>174</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>778</v>
-      </c>
-      <c r="C300" s="1" t="s">
-        <v>744</v>
+        <v>478</v>
       </c>
     </row>
     <row r="301" spans="1:3">
       <c r="A301" s="1" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>887</v>
+        <v>493</v>
       </c>
     </row>
     <row r="302" spans="1:3">
       <c r="A302" s="1" t="s">
-        <v>198</v>
+        <v>175</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>888</v>
+        <v>479</v>
       </c>
     </row>
     <row r="303" spans="1:3">
       <c r="A303" s="1" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>501</v>
+        <v>480</v>
       </c>
     </row>
     <row r="304" spans="1:3">
       <c r="A304" s="1" t="s">
-        <v>199</v>
+        <v>753</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>889</v>
+        <v>754</v>
+      </c>
+      <c r="C304" s="1" t="s">
+        <v>741</v>
       </c>
     </row>
     <row r="305" spans="1:3">
       <c r="A305" s="1" t="s">
-        <v>200</v>
+        <v>178</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>503</v>
+        <v>482</v>
       </c>
     </row>
     <row r="306" spans="1:3">
       <c r="A306" s="1" t="s">
-        <v>201</v>
+        <v>180</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>504</v>
+        <v>484</v>
       </c>
     </row>
     <row r="307" spans="1:3">
       <c r="A307" s="1" t="s">
-        <v>203</v>
+        <v>182</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>506</v>
+        <v>486</v>
       </c>
     </row>
     <row r="308" spans="1:3">
       <c r="A308" s="1" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>505</v>
+        <v>490</v>
       </c>
     </row>
     <row r="309" spans="1:3">
       <c r="A309" s="1" t="s">
-        <v>779</v>
+        <v>192</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>780</v>
+        <v>496</v>
       </c>
     </row>
     <row r="310" spans="1:3">
       <c r="A310" s="1" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>507</v>
+        <v>483</v>
       </c>
     </row>
     <row r="311" spans="1:3">
       <c r="A311" s="1" t="s">
-        <v>205</v>
+        <v>187</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>508</v>
+        <v>491</v>
       </c>
     </row>
     <row r="312" spans="1:3">
       <c r="A312" s="1" t="s">
-        <v>781</v>
+        <v>190</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>782</v>
+        <v>494</v>
       </c>
     </row>
     <row r="313" spans="1:3">
       <c r="A313" s="1" t="s">
-        <v>604</v>
+        <v>184</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="C313" s="1" t="s">
-        <v>744</v>
+        <v>488</v>
       </c>
     </row>
     <row r="314" spans="1:3">
       <c r="A314" s="1" t="s">
-        <v>783</v>
+        <v>191</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>784</v>
-      </c>
-      <c r="C314" s="1" t="s">
-        <v>744</v>
+        <v>495</v>
       </c>
     </row>
     <row r="315" spans="1:3">
       <c r="A315" s="1" t="s">
-        <v>785</v>
+        <v>188</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>784</v>
-      </c>
-      <c r="C315" s="1" t="s">
-        <v>744</v>
+        <v>492</v>
       </c>
     </row>
     <row r="316" spans="1:3">
       <c r="A316" s="1" t="s">
-        <v>786</v>
+        <v>177</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="C316" s="1" t="s">
-        <v>744</v>
+        <v>481</v>
       </c>
     </row>
     <row r="317" spans="1:3">
       <c r="A317" s="1" t="s">
-        <v>206</v>
+        <v>181</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>510</v>
+        <v>485</v>
       </c>
     </row>
     <row r="318" spans="1:3">
       <c r="A318" s="1" t="s">
-        <v>219</v>
+        <v>926</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>521</v>
+        <v>927</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>744</v>
+        <v>917</v>
       </c>
     </row>
     <row r="319" spans="1:3">
       <c r="A319" s="1" t="s">
-        <v>215</v>
+        <v>974</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>518</v>
+        <v>975</v>
       </c>
       <c r="C319" s="1" t="s">
-        <v>744</v>
+        <v>966</v>
       </c>
     </row>
     <row r="320" spans="1:3">
       <c r="A320" s="1" t="s">
-        <v>214</v>
+        <v>183</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="C320" s="1" t="s">
-        <v>744</v>
+        <v>487</v>
       </c>
     </row>
     <row r="321" spans="1:3">
       <c r="A321" s="1" t="s">
-        <v>210</v>
+        <v>185</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="C321" s="1" t="s">
-        <v>744</v>
+        <v>489</v>
       </c>
     </row>
     <row r="322" spans="1:3">
       <c r="A322" s="1" t="s">
-        <v>207</v>
+        <v>755</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>511</v>
+        <v>756</v>
       </c>
       <c r="C322" s="1" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
     </row>
     <row r="323" spans="1:3">
       <c r="A323" s="1" t="s">
-        <v>212</v>
+        <v>757</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>515</v>
-      </c>
-      <c r="C323" s="1" t="s">
-        <v>744</v>
+        <v>497</v>
       </c>
     </row>
     <row r="324" spans="1:3">
       <c r="A324" s="1" t="s">
-        <v>216</v>
+        <v>193</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>519</v>
+        <v>497</v>
       </c>
     </row>
     <row r="325" spans="1:3">
       <c r="A325" s="1" t="s">
-        <v>208</v>
+        <v>758</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>891</v>
+        <v>501</v>
       </c>
     </row>
     <row r="326" spans="1:3">
       <c r="A326" s="1" t="s">
-        <v>213</v>
+        <v>759</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>516</v>
+        <v>760</v>
+      </c>
+      <c r="C326" s="1" t="s">
+        <v>741</v>
       </c>
     </row>
     <row r="327" spans="1:3">
       <c r="A327" s="1" t="s">
-        <v>787</v>
+        <v>761</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>788</v>
+        <v>773</v>
       </c>
     </row>
     <row r="328" spans="1:3">
       <c r="A328" s="1" t="s">
-        <v>789</v>
+        <v>194</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>790</v>
-      </c>
-      <c r="C328" s="1" t="s">
-        <v>744</v>
+        <v>498</v>
       </c>
     </row>
     <row r="329" spans="1:3">
       <c r="A329" s="1" t="s">
-        <v>791</v>
+        <v>195</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="C329" s="1" t="s">
-        <v>744</v>
+        <v>499</v>
       </c>
     </row>
     <row r="330" spans="1:3">
       <c r="A330" s="1" t="s">
-        <v>793</v>
+        <v>762</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>794</v>
+        <v>763</v>
       </c>
       <c r="C330" s="1" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
     </row>
     <row r="331" spans="1:3">
       <c r="A331" s="1" t="s">
-        <v>795</v>
+        <v>764</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>796</v>
+        <v>773</v>
       </c>
       <c r="C331" s="1" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
     </row>
     <row r="332" spans="1:3">
       <c r="A332" s="1" t="s">
-        <v>797</v>
+        <v>765</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>798</v>
+        <v>773</v>
       </c>
       <c r="C332" s="1" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
     </row>
     <row r="333" spans="1:3">
       <c r="A333" s="1" t="s">
-        <v>799</v>
+        <v>766</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>800</v>
+        <v>767</v>
       </c>
       <c r="C333" s="1" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
     </row>
     <row r="334" spans="1:3">
       <c r="A334" s="1" t="s">
-        <v>801</v>
+        <v>600</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>790</v>
+        <v>884</v>
       </c>
       <c r="C334" s="1" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
     </row>
     <row r="335" spans="1:3">
       <c r="A335" s="1" t="s">
-        <v>802</v>
+        <v>768</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>803</v>
+        <v>769</v>
       </c>
       <c r="C335" s="1" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
     </row>
     <row r="336" spans="1:3">
       <c r="A336" s="1" t="s">
-        <v>804</v>
+        <v>770</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>805</v>
+        <v>771</v>
       </c>
       <c r="C336" s="1" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
     </row>
     <row r="337" spans="1:3">
       <c r="A337" s="1" t="s">
-        <v>806</v>
+        <v>772</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>807</v>
+        <v>773</v>
       </c>
       <c r="C337" s="1" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
     </row>
     <row r="338" spans="1:3">
       <c r="A338" s="1" t="s">
-        <v>217</v>
+        <v>197</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>792</v>
+        <v>881</v>
       </c>
     </row>
     <row r="339" spans="1:3">
       <c r="A339" s="1" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>520</v>
+        <v>882</v>
       </c>
     </row>
     <row r="340" spans="1:3">
       <c r="A340" s="1" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>514</v>
+        <v>500</v>
       </c>
     </row>
     <row r="341" spans="1:3">
       <c r="A341" s="1" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>512</v>
+        <v>883</v>
       </c>
     </row>
     <row r="342" spans="1:3">
       <c r="A342" s="1" t="s">
-        <v>808</v>
+        <v>200</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="C342" s="1" t="s">
-        <v>744</v>
+        <v>502</v>
       </c>
     </row>
     <row r="343" spans="1:3">
       <c r="A343" s="1" t="s">
-        <v>220</v>
+        <v>201</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="C343" s="1" t="s">
-        <v>744</v>
+        <v>913</v>
       </c>
     </row>
     <row r="344" spans="1:3">
       <c r="A344" s="1" t="s">
-        <v>223</v>
+        <v>203</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="C344" s="1" t="s">
-        <v>744</v>
+        <v>504</v>
       </c>
     </row>
     <row r="345" spans="1:3">
       <c r="A345" s="1" t="s">
-        <v>809</v>
+        <v>202</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>811</v>
-      </c>
-      <c r="C345" s="1" t="s">
-        <v>744</v>
+        <v>503</v>
       </c>
     </row>
     <row r="346" spans="1:3">
       <c r="A346" s="1" t="s">
-        <v>810</v>
+        <v>774</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>812</v>
-      </c>
-      <c r="C346" s="1" t="s">
-        <v>744</v>
+        <v>775</v>
       </c>
     </row>
     <row r="347" spans="1:3">
       <c r="A347" s="1" t="s">
-        <v>222</v>
+        <v>204</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>892</v>
+        <v>505</v>
       </c>
     </row>
     <row r="348" spans="1:3">
       <c r="A348" s="1" t="s">
-        <v>228</v>
+        <v>205</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>529</v>
+        <v>506</v>
       </c>
     </row>
     <row r="349" spans="1:3">
       <c r="A349" s="1" t="s">
-        <v>226</v>
+        <v>776</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>527</v>
+        <v>777</v>
       </c>
     </row>
     <row r="350" spans="1:3">
       <c r="A350" s="1" t="s">
-        <v>224</v>
+        <v>601</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>525</v>
+        <v>507</v>
+      </c>
+      <c r="C350" s="1" t="s">
+        <v>741</v>
       </c>
     </row>
     <row r="351" spans="1:3">
       <c r="A351" s="1" t="s">
-        <v>221</v>
+        <v>778</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>523</v>
+        <v>779</v>
+      </c>
+      <c r="C351" s="1" t="s">
+        <v>741</v>
       </c>
     </row>
     <row r="352" spans="1:3">
       <c r="A352" s="1" t="s">
-        <v>225</v>
+        <v>780</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>526</v>
+        <v>779</v>
+      </c>
+      <c r="C352" s="1" t="s">
+        <v>741</v>
       </c>
     </row>
     <row r="353" spans="1:3">
       <c r="A353" s="1" t="s">
-        <v>227</v>
+        <v>942</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>528</v>
+        <v>943</v>
+      </c>
+      <c r="C353" s="1" t="s">
+        <v>917</v>
       </c>
     </row>
     <row r="354" spans="1:3">
       <c r="A354" s="1" t="s">
-        <v>813</v>
+        <v>781</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>530</v>
+        <v>508</v>
       </c>
       <c r="C354" s="1" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
     </row>
     <row r="355" spans="1:3">
       <c r="A355" s="1" t="s">
-        <v>229</v>
+        <v>206</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>530</v>
+        <v>508</v>
       </c>
     </row>
     <row r="356" spans="1:3">
       <c r="A356" s="1" t="s">
-        <v>814</v>
+        <v>914</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>815</v>
+        <v>907</v>
       </c>
       <c r="C356" s="1" t="s">
-        <v>744</v>
+        <v>904</v>
       </c>
     </row>
     <row r="357" spans="1:3">
       <c r="A357" s="1" t="s">
-        <v>816</v>
+        <v>219</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>817</v>
+        <v>518</v>
       </c>
       <c r="C357" s="1" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
     </row>
     <row r="358" spans="1:3">
       <c r="A358" s="1" t="s">
-        <v>818</v>
+        <v>215</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>819</v>
+        <v>515</v>
       </c>
       <c r="C358" s="1" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
     </row>
     <row r="359" spans="1:3">
       <c r="A359" s="1" t="s">
-        <v>820</v>
+        <v>214</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>821</v>
+        <v>514</v>
       </c>
       <c r="C359" s="1" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
     </row>
     <row r="360" spans="1:3">
       <c r="A360" s="1" t="s">
-        <v>822</v>
+        <v>210</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>823</v>
+        <v>511</v>
       </c>
       <c r="C360" s="1" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
     </row>
     <row r="361" spans="1:3">
       <c r="A361" s="1" t="s">
-        <v>825</v>
+        <v>207</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>824</v>
+        <v>509</v>
       </c>
       <c r="C361" s="1" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
     </row>
     <row r="362" spans="1:3">
       <c r="A362" s="1" t="s">
-        <v>827</v>
+        <v>212</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>826</v>
+        <v>512</v>
       </c>
       <c r="C362" s="1" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
     </row>
     <row r="363" spans="1:3">
       <c r="A363" s="1" t="s">
-        <v>236</v>
+        <v>216</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>537</v>
+        <v>516</v>
       </c>
     </row>
     <row r="364" spans="1:3">
       <c r="A364" s="1" t="s">
-        <v>234</v>
+        <v>208</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>535</v>
+        <v>885</v>
       </c>
     </row>
     <row r="365" spans="1:3">
       <c r="A365" s="1" t="s">
-        <v>231</v>
+        <v>213</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>532</v>
+        <v>513</v>
       </c>
     </row>
     <row r="366" spans="1:3">
       <c r="A366" s="1" t="s">
-        <v>230</v>
+        <v>944</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>531</v>
+        <v>943</v>
+      </c>
+      <c r="C366" s="1" t="s">
+        <v>917</v>
       </c>
     </row>
     <row r="367" spans="1:3">
       <c r="A367" s="1" t="s">
-        <v>233</v>
+        <v>782</v>
       </c>
       <c r="B367" s="1" t="s">
-        <v>534</v>
+        <v>783</v>
       </c>
     </row>
     <row r="368" spans="1:3">
       <c r="A368" s="1" t="s">
-        <v>244</v>
+        <v>784</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>545</v>
+        <v>785</v>
+      </c>
+      <c r="C368" s="1" t="s">
+        <v>741</v>
       </c>
     </row>
     <row r="369" spans="1:3">
       <c r="A369" s="1" t="s">
-        <v>243</v>
+        <v>786</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>544</v>
+        <v>787</v>
+      </c>
+      <c r="C369" s="1" t="s">
+        <v>741</v>
       </c>
     </row>
     <row r="370" spans="1:3">
       <c r="A370" s="1" t="s">
-        <v>235</v>
+        <v>788</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>536</v>
+        <v>789</v>
+      </c>
+      <c r="C370" s="1" t="s">
+        <v>741</v>
       </c>
     </row>
     <row r="371" spans="1:3">
       <c r="A371" s="1" t="s">
-        <v>232</v>
+        <v>790</v>
       </c>
       <c r="B371" s="1" t="s">
-        <v>533</v>
+        <v>791</v>
+      </c>
+      <c r="C371" s="1" t="s">
+        <v>741</v>
       </c>
     </row>
     <row r="372" spans="1:3">
       <c r="A372" s="1" t="s">
-        <v>237</v>
+        <v>792</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>538</v>
+        <v>793</v>
+      </c>
+      <c r="C372" s="1" t="s">
+        <v>741</v>
       </c>
     </row>
     <row r="373" spans="1:3">
       <c r="A373" s="1" t="s">
-        <v>238</v>
+        <v>794</v>
       </c>
       <c r="B373" s="1" t="s">
-        <v>539</v>
+        <v>795</v>
+      </c>
+      <c r="C373" s="1" t="s">
+        <v>741</v>
       </c>
     </row>
     <row r="374" spans="1:3">
       <c r="A374" s="1" t="s">
-        <v>240</v>
+        <v>796</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>541</v>
+        <v>785</v>
+      </c>
+      <c r="C374" s="1" t="s">
+        <v>741</v>
       </c>
     </row>
     <row r="375" spans="1:3">
       <c r="A375" s="1" t="s">
-        <v>242</v>
+        <v>910</v>
       </c>
       <c r="B375" s="1" t="s">
-        <v>543</v>
+        <v>907</v>
+      </c>
+      <c r="C375" s="1" t="s">
+        <v>904</v>
       </c>
     </row>
     <row r="376" spans="1:3">
       <c r="A376" s="1" t="s">
-        <v>239</v>
+        <v>920</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>540</v>
+        <v>921</v>
+      </c>
+      <c r="C376" s="1" t="s">
+        <v>917</v>
       </c>
     </row>
     <row r="377" spans="1:3">
       <c r="A377" s="1" t="s">
-        <v>241</v>
+        <v>924</v>
       </c>
       <c r="B377" s="1" t="s">
-        <v>542</v>
+        <v>925</v>
+      </c>
+      <c r="C377" s="1" t="s">
+        <v>917</v>
       </c>
     </row>
     <row r="378" spans="1:3">
       <c r="A378" s="1" t="s">
-        <v>828</v>
+        <v>897</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>546</v>
+        <v>898</v>
       </c>
       <c r="C378" s="1" t="s">
-        <v>744</v>
+        <v>896</v>
       </c>
     </row>
     <row r="379" spans="1:3">
       <c r="A379" s="1" t="s">
-        <v>245</v>
+        <v>797</v>
       </c>
       <c r="B379" s="1" t="s">
-        <v>546</v>
+        <v>798</v>
+      </c>
+      <c r="C379" s="1" t="s">
+        <v>741</v>
       </c>
     </row>
     <row r="380" spans="1:3">
       <c r="A380" s="1" t="s">
-        <v>248</v>
+        <v>799</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>549</v>
+        <v>800</v>
+      </c>
+      <c r="C380" s="1" t="s">
+        <v>741</v>
       </c>
     </row>
     <row r="381" spans="1:3">
       <c r="A381" s="1" t="s">
-        <v>251</v>
+        <v>801</v>
       </c>
       <c r="B381" s="1" t="s">
-        <v>552</v>
+        <v>802</v>
+      </c>
+      <c r="C381" s="1" t="s">
+        <v>741</v>
       </c>
     </row>
     <row r="382" spans="1:3">
       <c r="A382" s="1" t="s">
-        <v>246</v>
+        <v>217</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>547</v>
+        <v>787</v>
       </c>
     </row>
     <row r="383" spans="1:3">
       <c r="A383" s="1" t="s">
-        <v>250</v>
+        <v>218</v>
       </c>
       <c r="B383" s="1" t="s">
-        <v>551</v>
+        <v>517</v>
       </c>
     </row>
     <row r="384" spans="1:3">
       <c r="A384" s="1" t="s">
-        <v>247</v>
+        <v>962</v>
       </c>
       <c r="B384" s="1" t="s">
-        <v>548</v>
+        <v>921</v>
+      </c>
+      <c r="C384" s="1" t="s">
+        <v>917</v>
       </c>
     </row>
     <row r="385" spans="1:3">
       <c r="A385" s="1" t="s">
-        <v>249</v>
+        <v>211</v>
       </c>
       <c r="B385" s="1" t="s">
-        <v>550</v>
+        <v>963</v>
       </c>
     </row>
     <row r="386" spans="1:3">
       <c r="A386" s="1" t="s">
-        <v>829</v>
+        <v>209</v>
       </c>
       <c r="B386" s="1" t="s">
-        <v>553</v>
+        <v>510</v>
       </c>
     </row>
     <row r="387" spans="1:3">
       <c r="A387" s="1" t="s">
-        <v>252</v>
+        <v>915</v>
       </c>
       <c r="B387" s="1" t="s">
-        <v>553</v>
+        <v>916</v>
+      </c>
+      <c r="C387" s="1" t="s">
+        <v>917</v>
       </c>
     </row>
     <row r="388" spans="1:3">
       <c r="A388" s="1" t="s">
-        <v>257</v>
+        <v>906</v>
       </c>
       <c r="B388" s="1" t="s">
-        <v>558</v>
+        <v>907</v>
       </c>
     </row>
     <row r="389" spans="1:3">
       <c r="A389" s="1" t="s">
-        <v>254</v>
+        <v>803</v>
       </c>
       <c r="B389" s="1" t="s">
-        <v>555</v>
+        <v>519</v>
+      </c>
+      <c r="C389" s="1" t="s">
+        <v>741</v>
       </c>
     </row>
     <row r="390" spans="1:3">
       <c r="A390" s="1" t="s">
-        <v>259</v>
+        <v>220</v>
       </c>
       <c r="B390" s="1" t="s">
-        <v>560</v>
+        <v>519</v>
+      </c>
+      <c r="C390" s="1" t="s">
+        <v>741</v>
       </c>
     </row>
     <row r="391" spans="1:3">
       <c r="A391" s="1" t="s">
-        <v>830</v>
+        <v>223</v>
       </c>
       <c r="B391" s="1" t="s">
-        <v>831</v>
+        <v>521</v>
       </c>
       <c r="C391" s="1" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
     </row>
     <row r="392" spans="1:3">
       <c r="A392" s="1" t="s">
-        <v>832</v>
+        <v>804</v>
       </c>
       <c r="B392" s="1" t="s">
-        <v>833</v>
+        <v>806</v>
       </c>
       <c r="C392" s="1" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
     </row>
     <row r="393" spans="1:3">
       <c r="A393" s="1" t="s">
-        <v>834</v>
+        <v>805</v>
       </c>
       <c r="B393" s="1" t="s">
-        <v>835</v>
+        <v>807</v>
       </c>
       <c r="C393" s="1" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
     </row>
     <row r="394" spans="1:3">
       <c r="A394" s="1" t="s">
-        <v>836</v>
+        <v>222</v>
       </c>
       <c r="B394" s="1" t="s">
-        <v>837</v>
-      </c>
-      <c r="C394" s="1" t="s">
-        <v>744</v>
+        <v>886</v>
       </c>
     </row>
     <row r="395" spans="1:3">
       <c r="A395" s="1" t="s">
-        <v>838</v>
+        <v>228</v>
       </c>
       <c r="B395" s="1" t="s">
-        <v>839</v>
-      </c>
-      <c r="C395" s="1" t="s">
-        <v>744</v>
+        <v>526</v>
       </c>
     </row>
     <row r="396" spans="1:3">
       <c r="A396" s="1" t="s">
-        <v>840</v>
+        <v>226</v>
       </c>
       <c r="B396" s="1" t="s">
-        <v>841</v>
-      </c>
-      <c r="C396" s="1" t="s">
-        <v>744</v>
+        <v>524</v>
       </c>
     </row>
     <row r="397" spans="1:3">
       <c r="A397" s="1" t="s">
-        <v>258</v>
+        <v>224</v>
       </c>
       <c r="B397" s="1" t="s">
-        <v>559</v>
+        <v>522</v>
       </c>
     </row>
     <row r="398" spans="1:3">
       <c r="A398" s="1" t="s">
-        <v>255</v>
+        <v>221</v>
       </c>
       <c r="B398" s="1" t="s">
-        <v>556</v>
+        <v>520</v>
       </c>
     </row>
     <row r="399" spans="1:3">
       <c r="A399" s="1" t="s">
-        <v>253</v>
+        <v>225</v>
       </c>
       <c r="B399" s="1" t="s">
-        <v>554</v>
+        <v>523</v>
       </c>
     </row>
     <row r="400" spans="1:3">
       <c r="A400" s="1" t="s">
-        <v>256</v>
+        <v>227</v>
       </c>
       <c r="B400" s="1" t="s">
-        <v>557</v>
+        <v>525</v>
       </c>
     </row>
     <row r="401" spans="1:3">
       <c r="A401" s="1" t="s">
-        <v>260</v>
+        <v>808</v>
       </c>
       <c r="B401" s="1" t="s">
-        <v>561</v>
+        <v>527</v>
+      </c>
+      <c r="C401" s="1" t="s">
+        <v>741</v>
       </c>
     </row>
     <row r="402" spans="1:3">
       <c r="A402" s="1" t="s">
-        <v>261</v>
+        <v>229</v>
       </c>
       <c r="B402" s="1" t="s">
-        <v>562</v>
+        <v>527</v>
       </c>
     </row>
     <row r="403" spans="1:3">
       <c r="A403" s="1" t="s">
-        <v>842</v>
+        <v>809</v>
       </c>
       <c r="B403" s="1" t="s">
-        <v>563</v>
+        <v>810</v>
       </c>
       <c r="C403" s="1" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
     </row>
     <row r="404" spans="1:3">
       <c r="A404" s="1" t="s">
-        <v>262</v>
+        <v>811</v>
       </c>
       <c r="B404" s="1" t="s">
-        <v>563</v>
+        <v>812</v>
+      </c>
+      <c r="C404" s="1" t="s">
+        <v>741</v>
       </c>
     </row>
     <row r="405" spans="1:3">
       <c r="A405" s="1" t="s">
-        <v>843</v>
+        <v>813</v>
       </c>
       <c r="B405" s="1" t="s">
-        <v>844</v>
+        <v>814</v>
       </c>
       <c r="C405" s="1" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
     </row>
     <row r="406" spans="1:3">
       <c r="A406" s="1" t="s">
-        <v>845</v>
+        <v>815</v>
       </c>
       <c r="B406" s="1" t="s">
-        <v>846</v>
+        <v>816</v>
       </c>
       <c r="C406" s="1" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
     </row>
     <row r="407" spans="1:3">
       <c r="A407" s="1" t="s">
-        <v>263</v>
+        <v>817</v>
       </c>
       <c r="B407" s="1" t="s">
-        <v>564</v>
+        <v>818</v>
       </c>
       <c r="C407" s="1" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
     </row>
     <row r="408" spans="1:3">
       <c r="A408" s="1" t="s">
-        <v>269</v>
+        <v>820</v>
       </c>
       <c r="B408" s="1" t="s">
-        <v>569</v>
+        <v>819</v>
       </c>
       <c r="C408" s="1" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
     </row>
     <row r="409" spans="1:3">
       <c r="A409" s="1" t="s">
-        <v>847</v>
+        <v>822</v>
       </c>
       <c r="B409" s="1" t="s">
-        <v>846</v>
+        <v>821</v>
       </c>
       <c r="C409" s="1" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
     </row>
     <row r="410" spans="1:3">
       <c r="A410" s="1" t="s">
-        <v>848</v>
+        <v>236</v>
       </c>
       <c r="B410" s="1" t="s">
-        <v>849</v>
-      </c>
-      <c r="C410" s="1" t="s">
-        <v>744</v>
+        <v>534</v>
       </c>
     </row>
     <row r="411" spans="1:3">
       <c r="A411" s="1" t="s">
-        <v>851</v>
+        <v>234</v>
       </c>
       <c r="B411" s="1" t="s">
-        <v>850</v>
-      </c>
-      <c r="C411" s="1" t="s">
-        <v>744</v>
+        <v>532</v>
       </c>
     </row>
     <row r="412" spans="1:3">
       <c r="A412" s="1" t="s">
-        <v>852</v>
+        <v>231</v>
       </c>
       <c r="B412" s="1" t="s">
-        <v>844</v>
-      </c>
-      <c r="C412" s="1" t="s">
-        <v>744</v>
+        <v>529</v>
       </c>
     </row>
     <row r="413" spans="1:3">
       <c r="A413" s="1" t="s">
-        <v>853</v>
+        <v>230</v>
       </c>
       <c r="B413" s="1" t="s">
-        <v>854</v>
-      </c>
-      <c r="C413" s="1" t="s">
-        <v>744</v>
+        <v>528</v>
       </c>
     </row>
     <row r="414" spans="1:3">
       <c r="A414" s="1" t="s">
-        <v>855</v>
+        <v>233</v>
       </c>
       <c r="B414" s="1" t="s">
-        <v>856</v>
-      </c>
-      <c r="C414" s="1" t="s">
-        <v>744</v>
+        <v>531</v>
       </c>
     </row>
     <row r="415" spans="1:3">
       <c r="A415" s="1" t="s">
-        <v>858</v>
+        <v>244</v>
       </c>
       <c r="B415" s="1" t="s">
-        <v>857</v>
+        <v>542</v>
       </c>
     </row>
     <row r="416" spans="1:3">
       <c r="A416" s="1" t="s">
-        <v>272</v>
+        <v>243</v>
       </c>
       <c r="B416" s="1" t="s">
-        <v>572</v>
+        <v>541</v>
       </c>
     </row>
     <row r="417" spans="1:3">
       <c r="A417" s="1" t="s">
-        <v>271</v>
+        <v>235</v>
       </c>
       <c r="B417" s="1" t="s">
-        <v>571</v>
+        <v>533</v>
       </c>
     </row>
     <row r="418" spans="1:3">
       <c r="A418" s="1" t="s">
-        <v>265</v>
+        <v>232</v>
       </c>
       <c r="B418" s="1" t="s">
-        <v>566</v>
+        <v>530</v>
       </c>
     </row>
     <row r="419" spans="1:3">
       <c r="A419" s="1" t="s">
-        <v>264</v>
+        <v>237</v>
       </c>
       <c r="B419" s="1" t="s">
-        <v>565</v>
+        <v>535</v>
       </c>
     </row>
     <row r="420" spans="1:3">
       <c r="A420" s="1" t="s">
-        <v>270</v>
+        <v>238</v>
       </c>
       <c r="B420" s="1" t="s">
-        <v>570</v>
+        <v>536</v>
       </c>
     </row>
     <row r="421" spans="1:3">
       <c r="A421" s="1" t="s">
-        <v>266</v>
+        <v>240</v>
       </c>
       <c r="B421" s="1" t="s">
-        <v>567</v>
+        <v>538</v>
       </c>
     </row>
     <row r="422" spans="1:3">
       <c r="A422" s="1" t="s">
-        <v>267</v>
+        <v>242</v>
       </c>
       <c r="B422" s="1" t="s">
-        <v>568</v>
+        <v>540</v>
       </c>
     </row>
     <row r="423" spans="1:3">
       <c r="A423" s="1" t="s">
-        <v>268</v>
+        <v>239</v>
       </c>
       <c r="B423" s="1" t="s">
-        <v>893</v>
+        <v>537</v>
       </c>
     </row>
     <row r="424" spans="1:3">
       <c r="A424" s="1" t="s">
-        <v>273</v>
+        <v>241</v>
       </c>
       <c r="B424" s="1" t="s">
-        <v>894</v>
+        <v>539</v>
       </c>
     </row>
     <row r="425" spans="1:3">
       <c r="A425" s="1" t="s">
-        <v>859</v>
+        <v>823</v>
       </c>
       <c r="B425" s="1" t="s">
-        <v>573</v>
+        <v>543</v>
+      </c>
+      <c r="C425" s="1" t="s">
+        <v>741</v>
       </c>
     </row>
     <row r="426" spans="1:3">
       <c r="A426" s="1" t="s">
-        <v>274</v>
+        <v>245</v>
       </c>
       <c r="B426" s="1" t="s">
-        <v>573</v>
+        <v>543</v>
       </c>
     </row>
     <row r="427" spans="1:3">
       <c r="A427" s="1" t="s">
-        <v>860</v>
+        <v>248</v>
       </c>
       <c r="B427" s="1" t="s">
-        <v>861</v>
-      </c>
-      <c r="C427" s="1" t="s">
-        <v>884</v>
+        <v>546</v>
       </c>
     </row>
     <row r="428" spans="1:3">
       <c r="A428" s="1" t="s">
-        <v>862</v>
+        <v>251</v>
       </c>
       <c r="B428" s="1" t="s">
-        <v>863</v>
-      </c>
-      <c r="C428" s="1" t="s">
-        <v>884</v>
+        <v>549</v>
       </c>
     </row>
     <row r="429" spans="1:3">
       <c r="A429" s="1" t="s">
-        <v>275</v>
+        <v>246</v>
       </c>
       <c r="B429" s="1" t="s">
-        <v>574</v>
-      </c>
-      <c r="C429" s="1" t="s">
-        <v>884</v>
+        <v>544</v>
       </c>
     </row>
     <row r="430" spans="1:3">
       <c r="A430" s="1" t="s">
-        <v>279</v>
+        <v>250</v>
       </c>
       <c r="B430" s="1" t="s">
-        <v>578</v>
+        <v>548</v>
       </c>
     </row>
     <row r="431" spans="1:3">
       <c r="A431" s="1" t="s">
-        <v>277</v>
+        <v>247</v>
       </c>
       <c r="B431" s="1" t="s">
-        <v>576</v>
+        <v>545</v>
       </c>
     </row>
     <row r="432" spans="1:3">
       <c r="A432" s="1" t="s">
-        <v>276</v>
+        <v>249</v>
       </c>
       <c r="B432" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="C432" s="1" t="s">
-        <v>884</v>
+        <v>547</v>
       </c>
     </row>
     <row r="433" spans="1:3">
       <c r="A433" s="1" t="s">
-        <v>278</v>
+        <v>824</v>
       </c>
       <c r="B433" s="1" t="s">
-        <v>577</v>
+        <v>550</v>
       </c>
     </row>
     <row r="434" spans="1:3">
       <c r="A434" s="1" t="s">
-        <v>864</v>
+        <v>252</v>
       </c>
       <c r="B434" s="1" t="s">
-        <v>579</v>
+        <v>550</v>
       </c>
     </row>
     <row r="435" spans="1:3">
       <c r="A435" s="1" t="s">
-        <v>280</v>
+        <v>257</v>
       </c>
       <c r="B435" s="1" t="s">
-        <v>579</v>
+        <v>555</v>
       </c>
     </row>
     <row r="436" spans="1:3">
       <c r="A436" s="1" t="s">
-        <v>281</v>
+        <v>254</v>
       </c>
       <c r="B436" s="1" t="s">
-        <v>580</v>
-      </c>
-      <c r="C436" s="1" t="s">
-        <v>884</v>
+        <v>552</v>
       </c>
     </row>
     <row r="437" spans="1:3">
       <c r="A437" s="1" t="s">
-        <v>865</v>
+        <v>259</v>
       </c>
       <c r="B437" s="1" t="s">
-        <v>866</v>
-      </c>
-      <c r="C437" s="1" t="s">
-        <v>884</v>
+        <v>557</v>
       </c>
     </row>
     <row r="438" spans="1:3">
       <c r="A438" s="1" t="s">
-        <v>867</v>
+        <v>825</v>
       </c>
       <c r="B438" s="1" t="s">
-        <v>868</v>
+        <v>826</v>
       </c>
       <c r="C438" s="1" t="s">
-        <v>884</v>
+        <v>741</v>
       </c>
     </row>
     <row r="439" spans="1:3">
       <c r="A439" s="1" t="s">
-        <v>869</v>
+        <v>827</v>
       </c>
       <c r="B439" s="1" t="s">
-        <v>870</v>
+        <v>828</v>
       </c>
       <c r="C439" s="1" t="s">
-        <v>884</v>
+        <v>741</v>
       </c>
     </row>
     <row r="440" spans="1:3">
       <c r="A440" s="1" t="s">
-        <v>283</v>
+        <v>829</v>
       </c>
       <c r="B440" s="1" t="s">
-        <v>582</v>
+        <v>830</v>
+      </c>
+      <c r="C440" s="1" t="s">
+        <v>741</v>
       </c>
     </row>
     <row r="441" spans="1:3">
       <c r="A441" s="1" t="s">
-        <v>282</v>
+        <v>831</v>
       </c>
       <c r="B441" s="1" t="s">
-        <v>581</v>
+        <v>832</v>
+      </c>
+      <c r="C441" s="1" t="s">
+        <v>741</v>
       </c>
     </row>
     <row r="442" spans="1:3">
       <c r="A442" s="1" t="s">
-        <v>871</v>
+        <v>833</v>
       </c>
       <c r="B442" s="1" t="s">
-        <v>583</v>
+        <v>834</v>
+      </c>
+      <c r="C442" s="1" t="s">
+        <v>741</v>
       </c>
     </row>
     <row r="443" spans="1:3">
       <c r="A443" s="1" t="s">
-        <v>284</v>
+        <v>835</v>
       </c>
       <c r="B443" s="1" t="s">
-        <v>583</v>
+        <v>836</v>
+      </c>
+      <c r="C443" s="1" t="s">
+        <v>741</v>
       </c>
     </row>
     <row r="444" spans="1:3">
       <c r="A444" s="1" t="s">
-        <v>872</v>
+        <v>258</v>
       </c>
       <c r="B444" s="1" t="s">
-        <v>873</v>
+        <v>556</v>
       </c>
     </row>
     <row r="445" spans="1:3">
       <c r="A445" s="1" t="s">
-        <v>874</v>
+        <v>255</v>
       </c>
       <c r="B445" s="1" t="s">
-        <v>585</v>
-      </c>
-      <c r="C445" s="1" t="s">
-        <v>884</v>
+        <v>553</v>
       </c>
     </row>
     <row r="446" spans="1:3">
       <c r="A446" s="1" t="s">
-        <v>290</v>
+        <v>253</v>
       </c>
       <c r="B446" s="1" t="s">
-        <v>591</v>
-      </c>
-      <c r="C446" s="1" t="s">
-        <v>884</v>
+        <v>551</v>
       </c>
     </row>
     <row r="447" spans="1:3">
       <c r="A447" s="1" t="s">
-        <v>289</v>
+        <v>256</v>
       </c>
       <c r="B447" s="1" t="s">
-        <v>590</v>
-      </c>
-      <c r="C447" s="1" t="s">
-        <v>884</v>
+        <v>554</v>
       </c>
     </row>
     <row r="448" spans="1:3">
       <c r="A448" s="1" t="s">
-        <v>288</v>
+        <v>260</v>
       </c>
       <c r="B448" s="1" t="s">
-        <v>589</v>
-      </c>
-      <c r="C448" s="1" t="s">
-        <v>884</v>
+        <v>558</v>
       </c>
     </row>
     <row r="449" spans="1:3">
       <c r="A449" s="1" t="s">
-        <v>875</v>
+        <v>261</v>
       </c>
       <c r="B449" s="1" t="s">
-        <v>876</v>
+        <v>559</v>
       </c>
     </row>
     <row r="450" spans="1:3">
       <c r="A450" s="1" t="s">
-        <v>877</v>
+        <v>837</v>
       </c>
       <c r="B450" s="1" t="s">
-        <v>587</v>
+        <v>560</v>
+      </c>
+      <c r="C450" s="1" t="s">
+        <v>741</v>
       </c>
     </row>
     <row r="451" spans="1:3">
       <c r="A451" s="1" t="s">
-        <v>878</v>
+        <v>262</v>
       </c>
       <c r="B451" s="1" t="s">
-        <v>594</v>
+        <v>560</v>
       </c>
     </row>
     <row r="452" spans="1:3">
       <c r="A452" s="1" t="s">
-        <v>291</v>
+        <v>838</v>
       </c>
       <c r="B452" s="1" t="s">
-        <v>593</v>
+        <v>839</v>
+      </c>
+      <c r="C452" s="1" t="s">
+        <v>741</v>
       </c>
     </row>
     <row r="453" spans="1:3">
       <c r="A453" s="1" t="s">
-        <v>879</v>
+        <v>840</v>
       </c>
       <c r="B453" s="1" t="s">
-        <v>592</v>
+        <v>841</v>
+      </c>
+      <c r="C453" s="1" t="s">
+        <v>741</v>
       </c>
     </row>
     <row r="454" spans="1:3">
       <c r="A454" s="1" t="s">
-        <v>286</v>
+        <v>263</v>
       </c>
       <c r="B454" s="1" t="s">
-        <v>586</v>
+        <v>561</v>
+      </c>
+      <c r="C454" s="1" t="s">
+        <v>741</v>
       </c>
     </row>
     <row r="455" spans="1:3">
       <c r="A455" s="1" t="s">
-        <v>880</v>
+        <v>269</v>
       </c>
       <c r="B455" s="1" t="s">
-        <v>881</v>
+        <v>566</v>
       </c>
       <c r="C455" s="1" t="s">
-        <v>884</v>
+        <v>741</v>
       </c>
     </row>
     <row r="456" spans="1:3">
       <c r="A456" s="1" t="s">
-        <v>287</v>
+        <v>842</v>
       </c>
       <c r="B456" s="1" t="s">
-        <v>588</v>
+        <v>841</v>
       </c>
       <c r="C456" s="1" t="s">
-        <v>884</v>
+        <v>741</v>
       </c>
     </row>
     <row r="457" spans="1:3">
       <c r="A457" s="1" t="s">
-        <v>285</v>
+        <v>843</v>
       </c>
       <c r="B457" s="1" t="s">
-        <v>584</v>
+        <v>844</v>
+      </c>
+      <c r="C457" s="1" t="s">
+        <v>741</v>
       </c>
     </row>
     <row r="458" spans="1:3">
       <c r="A458" s="1" t="s">
-        <v>605</v>
+        <v>846</v>
       </c>
       <c r="B458" s="1" t="s">
-        <v>882</v>
+        <v>845</v>
       </c>
       <c r="C458" s="1" t="s">
-        <v>884</v>
+        <v>741</v>
       </c>
     </row>
     <row r="459" spans="1:3">
       <c r="A459" s="1" t="s">
-        <v>606</v>
+        <v>847</v>
       </c>
       <c r="B459" s="1" t="s">
-        <v>883</v>
+        <v>839</v>
       </c>
       <c r="C459" s="1" t="s">
-        <v>884</v>
+        <v>741</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3">
+      <c r="A460" s="1" t="s">
+        <v>848</v>
+      </c>
+      <c r="B460" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="C460" s="1" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3">
+      <c r="A461" s="1" t="s">
+        <v>850</v>
+      </c>
+      <c r="B461" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="C461" s="1" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3">
+      <c r="A462" s="1" t="s">
+        <v>853</v>
+      </c>
+      <c r="B462" s="1" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3">
+      <c r="A463" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B463" s="1" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3">
+      <c r="A464" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B464" s="1" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3">
+      <c r="A465" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B465" s="1" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3">
+      <c r="A466" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B466" s="1" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3">
+      <c r="A467" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B467" s="1" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3">
+      <c r="A468" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B468" s="1" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3">
+      <c r="A469" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B469" s="1" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3">
+      <c r="A470" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B470" s="1" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3">
+      <c r="A471" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B471" s="1" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3">
+      <c r="A472" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="B472" s="1" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3">
+      <c r="A473" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B473" s="1" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3">
+      <c r="A474" s="1" t="s">
+        <v>855</v>
+      </c>
+      <c r="B474" s="1" t="s">
+        <v>856</v>
+      </c>
+      <c r="C474" s="1" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3">
+      <c r="A475" s="1" t="s">
+        <v>857</v>
+      </c>
+      <c r="B475" s="1" t="s">
+        <v>858</v>
+      </c>
+      <c r="C475" s="1" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3">
+      <c r="A476" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B476" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="C476" s="1" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3">
+      <c r="A477" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B477" s="1" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="478" spans="1:3">
+      <c r="A478" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B478" s="1" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="479" spans="1:3">
+      <c r="A479" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B479" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="C479" s="1" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="480" spans="1:3">
+      <c r="A480" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B480" s="1" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="481" spans="1:3">
+      <c r="A481" s="1" t="s">
+        <v>859</v>
+      </c>
+      <c r="B481" s="1" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="482" spans="1:3">
+      <c r="A482" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B482" s="1" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="483" spans="1:3">
+      <c r="A483" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B483" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="C483" s="1" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="484" spans="1:3">
+      <c r="A484" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="B484" s="1" t="s">
+        <v>861</v>
+      </c>
+      <c r="C484" s="1" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="485" spans="1:3">
+      <c r="A485" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="B485" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="C485" s="1" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="486" spans="1:3">
+      <c r="A486" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="B486" s="1" t="s">
+        <v>865</v>
+      </c>
+      <c r="C486" s="1" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="487" spans="1:3">
+      <c r="A487" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B487" s="1" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="488" spans="1:3">
+      <c r="A488" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B488" s="1" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="489" spans="1:3">
+      <c r="A489" s="1" t="s">
+        <v>866</v>
+      </c>
+      <c r="B489" s="1" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="490" spans="1:3">
+      <c r="A490" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B490" s="1" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="491" spans="1:3">
+      <c r="A491" s="1" t="s">
+        <v>867</v>
+      </c>
+      <c r="B491" s="1" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="492" spans="1:3">
+      <c r="A492" s="1" t="s">
+        <v>947</v>
+      </c>
+      <c r="B492" s="1" t="s">
+        <v>948</v>
+      </c>
+      <c r="C492" s="1" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="493" spans="1:3">
+      <c r="A493" s="1" t="s">
+        <v>971</v>
+      </c>
+      <c r="B493" s="1" t="s">
+        <v>968</v>
+      </c>
+      <c r="C493" s="1" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="494" spans="1:3">
+      <c r="A494" s="1" t="s">
+        <v>869</v>
+      </c>
+      <c r="B494" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="C494" s="1" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="495" spans="1:3">
+      <c r="A495" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B495" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="C495" s="1" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="496" spans="1:3">
+      <c r="A496" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B496" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="C496" s="1" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="497" spans="1:3">
+      <c r="A497" s="1" t="s">
+        <v>969</v>
+      </c>
+      <c r="B497" s="1" t="s">
+        <v>968</v>
+      </c>
+      <c r="C497" s="1" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="498" spans="1:3">
+      <c r="A498" s="1" t="s">
+        <v>967</v>
+      </c>
+      <c r="B498" s="1" t="s">
+        <v>968</v>
+      </c>
+      <c r="C498" s="1" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="499" spans="1:3">
+      <c r="A499" s="1" t="s">
+        <v>970</v>
+      </c>
+      <c r="B499" s="1" t="s">
+        <v>968</v>
+      </c>
+      <c r="C499" s="1" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="500" spans="1:3">
+      <c r="A500" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B500" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="C500" s="1" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="501" spans="1:3">
+      <c r="A501" s="1" t="s">
+        <v>870</v>
+      </c>
+      <c r="B501" s="1" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="502" spans="1:3">
+      <c r="A502" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="B502" s="1" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="503" spans="1:3">
+      <c r="A503" s="1" t="s">
+        <v>872</v>
+      </c>
+      <c r="B503" s="1" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="504" spans="1:3">
+      <c r="A504" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B504" s="1" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="505" spans="1:3">
+      <c r="A505" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="B505" s="1" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="506" spans="1:3">
+      <c r="A506" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B506" s="1" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="507" spans="1:3">
+      <c r="A507" s="1" t="s">
+        <v>899</v>
+      </c>
+      <c r="B507" s="1" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="508" spans="1:3">
+      <c r="A508" s="1" t="s">
+        <v>874</v>
+      </c>
+      <c r="B508" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="C508" s="1" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="509" spans="1:3">
+      <c r="A509" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B509" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="C509" s="1" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="510" spans="1:3">
+      <c r="A510" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B510" s="1" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="511" spans="1:3">
+      <c r="A511" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="B511" s="1" t="s">
+        <v>876</v>
+      </c>
+      <c r="C511" s="1" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="512" spans="1:3">
+      <c r="A512" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="B512" s="1" t="s">
+        <v>877</v>
+      </c>
+      <c r="C512" s="1" t="s">
+        <v>878</v>
       </c>
     </row>
   </sheetData>

--- a/data/card.xlsx
+++ b/data/card.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1255" uniqueCount="991">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1259" uniqueCount="994">
   <si>
     <t>card_code</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1759,9 +1759,6 @@
     <t>0883</t>
   </si>
   <si>
-    <t>0886</t>
-  </si>
-  <si>
     <t>0879</t>
   </si>
   <si>
@@ -3501,6 +3498,22 @@
   </si>
   <si>
     <t>021</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4390</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0731</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0871</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3846,10 +3859,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C512"/>
+  <dimension ref="A1:C513"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H109" sqref="H109"/>
+    <sheetView tabSelected="1" topLeftCell="A401" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C425" sqref="C425"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3868,7 +3881,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>293</v>
@@ -3876,23 +3889,23 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>604</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>294</v>
@@ -3900,32 +3913,32 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>608</v>
-      </c>
       <c r="C6" s="1" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>610</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3952,7 +3965,7 @@
         <v>300</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3963,7 +3976,7 @@
         <v>298</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3974,18 +3987,18 @@
         <v>303</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>296</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -3996,7 +4009,7 @@
         <v>304</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -4009,7 +4022,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>301</v>
@@ -4025,26 +4038,26 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>303</v>
@@ -4052,81 +4065,81 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
+        <v>891</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>892</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>893</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
+        <v>907</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>908</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>909</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
+        <v>910</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>911</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>912</v>
-      </c>
       <c r="C26" s="1" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>928</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>929</v>
-      </c>
       <c r="C27" s="1" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1" t="s">
+        <v>929</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>930</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>931</v>
-      </c>
       <c r="C28" s="1" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>637</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>638</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -4153,7 +4166,7 @@
         <v>315</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -4164,7 +4177,7 @@
         <v>306</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -4175,7 +4188,7 @@
         <v>308</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -4186,53 +4199,53 @@
         <v>312</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>616</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>617</v>
-      </c>
       <c r="C36" s="1" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>618</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>619</v>
-      </c>
       <c r="C37" s="1" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>620</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>621</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>622</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>623</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>624</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>625</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -4277,21 +4290,21 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="1" t="s">
+        <v>963</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>964</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="C46" s="1" t="s">
         <v>965</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>966</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>639</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>640</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -4328,54 +4341,54 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>627</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>628</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>319</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>629</v>
       </c>
-      <c r="B54" s="1" t="s">
-        <v>630</v>
-      </c>
       <c r="C54" s="1" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="B55" s="1" t="s">
         <v>631</v>
       </c>
-      <c r="B55" s="1" t="s">
-        <v>632</v>
-      </c>
       <c r="C55" s="1" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="B56" s="1" t="s">
         <v>633</v>
       </c>
-      <c r="B56" s="1" t="s">
-        <v>634</v>
-      </c>
       <c r="C56" s="1" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -4388,7 +4401,7 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>322</v>
@@ -4420,10 +4433,10 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="B62" s="1" t="s">
         <v>635</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>636</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -4444,10 +4457,10 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="B65" s="1" t="s">
         <v>641</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>642</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -4482,7 +4495,7 @@
         <v>332</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -4493,7 +4506,7 @@
         <v>335</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -4504,7 +4517,7 @@
         <v>331</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -4515,7 +4528,7 @@
         <v>333</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -4526,7 +4539,7 @@
         <v>334</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -4537,7 +4550,7 @@
         <v>337</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -4548,7 +4561,7 @@
         <v>339</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -4559,7 +4572,7 @@
         <v>340</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -4570,7 +4583,7 @@
         <v>341</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -4591,10 +4604,10 @@
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="B80" s="1" t="s">
         <v>643</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>644</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -4621,7 +4634,7 @@
         <v>347</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -4632,7 +4645,7 @@
         <v>346</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -4643,18 +4656,18 @@
         <v>349</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>345</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -4665,7 +4678,7 @@
         <v>348</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -4676,18 +4689,18 @@
         <v>344</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="1" t="s">
+        <v>971</v>
+      </c>
+      <c r="B89" s="1" t="s">
         <v>972</v>
       </c>
-      <c r="B89" s="1" t="s">
-        <v>973</v>
-      </c>
       <c r="C89" s="1" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -4695,26 +4708,26 @@
         <v>46</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="1" t="s">
+        <v>980</v>
+      </c>
+      <c r="B91" s="1" t="s">
         <v>981</v>
       </c>
-      <c r="B91" s="1" t="s">
-        <v>982</v>
-      </c>
       <c r="C91" s="1" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="B92" s="1" t="s">
         <v>645</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>646</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -4757,7 +4770,7 @@
         <v>361</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -4768,7 +4781,7 @@
         <v>351</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -4779,7 +4792,7 @@
         <v>362</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -4790,7 +4803,7 @@
         <v>353</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -4801,7 +4814,7 @@
         <v>359</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -4812,7 +4825,7 @@
         <v>358</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -4825,35 +4838,35 @@
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="1" t="s">
+        <v>936</v>
+      </c>
+      <c r="B104" s="1" t="s">
         <v>937</v>
       </c>
-      <c r="B104" s="1" t="s">
-        <v>938</v>
-      </c>
       <c r="C104" s="1" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="1" t="s">
+        <v>984</v>
+      </c>
+      <c r="B105" s="1" t="s">
         <v>985</v>
       </c>
-      <c r="B105" s="1" t="s">
-        <v>986</v>
-      </c>
       <c r="C105" s="1" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="1" t="s">
+        <v>901</v>
+      </c>
+      <c r="B106" s="1" t="s">
         <v>902</v>
       </c>
-      <c r="B106" s="1" t="s">
+      <c r="C106" s="1" t="s">
         <v>903</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>904</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -4866,13 +4879,13 @@
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="1" t="s">
+        <v>938</v>
+      </c>
+      <c r="B108" s="1" t="s">
         <v>939</v>
       </c>
-      <c r="B108" s="1" t="s">
-        <v>940</v>
-      </c>
       <c r="C108" s="1" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -4885,18 +4898,18 @@
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="1" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="1" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>363</v>
@@ -4904,37 +4917,37 @@
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="1" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="1" t="s">
+        <v>988</v>
+      </c>
+      <c r="B114" s="1" t="s">
         <v>989</v>
       </c>
-      <c r="B114" s="1" t="s">
-        <v>990</v>
-      </c>
       <c r="C114" s="1" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="B115" s="1" t="s">
         <v>679</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>680</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -4969,7 +4982,7 @@
         <v>366</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -4980,7 +4993,7 @@
         <v>365</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -4991,7 +5004,7 @@
         <v>372</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -5002,7 +5015,7 @@
         <v>367</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -5013,7 +5026,7 @@
         <v>371</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -5024,7 +5037,7 @@
         <v>373</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -5032,10 +5045,10 @@
         <v>69</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -5046,31 +5059,31 @@
         <v>370</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="B127" s="1" t="s">
         <v>648</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>649</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="B128" s="1" t="s">
         <v>650</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>651</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="B129" s="1" t="s">
         <v>652</v>
-      </c>
-      <c r="B129" s="1" t="s">
-        <v>653</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -5107,13 +5120,13 @@
     </row>
     <row r="134" spans="1:3">
       <c r="A134" s="1" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>380</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -5124,29 +5137,29 @@
         <v>377</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>381</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="B137" s="1" t="s">
         <v>655</v>
       </c>
-      <c r="B137" s="1" t="s">
-        <v>656</v>
-      </c>
       <c r="C137" s="1" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -5157,28 +5170,28 @@
         <v>379</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="B139" s="1" t="s">
         <v>657</v>
-      </c>
-      <c r="B139" s="1" t="s">
-        <v>658</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="B140" s="1" t="s">
         <v>659</v>
-      </c>
-      <c r="B140" s="1" t="s">
-        <v>660</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="1" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>382</v>
@@ -5194,21 +5207,21 @@
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="1" t="s">
+        <v>944</v>
+      </c>
+      <c r="B143" s="1" t="s">
         <v>945</v>
       </c>
-      <c r="B143" s="1" t="s">
-        <v>946</v>
-      </c>
       <c r="C143" s="1" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="B144" s="1" t="s">
         <v>673</v>
-      </c>
-      <c r="B144" s="1" t="s">
-        <v>674</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -5251,7 +5264,7 @@
         <v>395</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -5262,7 +5275,7 @@
         <v>392</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -5273,7 +5286,7 @@
         <v>397</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -5284,18 +5297,18 @@
         <v>386</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" s="1" t="s">
+        <v>975</v>
+      </c>
+      <c r="B153" s="1" t="s">
         <v>976</v>
       </c>
-      <c r="B153" s="1" t="s">
-        <v>977</v>
-      </c>
       <c r="C153" s="1" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -5306,7 +5319,7 @@
         <v>391</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -5319,58 +5332,58 @@
     </row>
     <row r="156" spans="1:3">
       <c r="A156" s="1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="B157" s="1" t="s">
         <v>662</v>
-      </c>
-      <c r="B157" s="1" t="s">
-        <v>663</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="B158" s="1" t="s">
         <v>664</v>
-      </c>
-      <c r="B158" s="1" t="s">
-        <v>665</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="B159" s="1" t="s">
         <v>666</v>
-      </c>
-      <c r="B159" s="1" t="s">
-        <v>667</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" s="1" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" s="1" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" s="1" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -5378,7 +5391,7 @@
         <v>87</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -5391,13 +5404,13 @@
     </row>
     <row r="165" spans="1:3">
       <c r="A165" s="1" t="s">
+        <v>888</v>
+      </c>
+      <c r="B165" s="1" t="s">
         <v>889</v>
       </c>
-      <c r="B165" s="1" t="s">
+      <c r="C165" s="1" t="s">
         <v>890</v>
-      </c>
-      <c r="C165" s="1" t="s">
-        <v>891</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -5426,24 +5439,24 @@
     </row>
     <row r="169" spans="1:3">
       <c r="A169" s="1" t="s">
+        <v>921</v>
+      </c>
+      <c r="B169" s="1" t="s">
         <v>922</v>
       </c>
-      <c r="B169" s="1" t="s">
-        <v>923</v>
-      </c>
       <c r="C169" s="1" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170" s="1" t="s">
+        <v>894</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>893</v>
+      </c>
+      <c r="C170" s="1" t="s">
         <v>895</v>
-      </c>
-      <c r="B170" s="1" t="s">
-        <v>894</v>
-      </c>
-      <c r="C170" s="1" t="s">
-        <v>896</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -5456,10 +5469,10 @@
     </row>
     <row r="172" spans="1:3">
       <c r="A172" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="B172" s="1" t="s">
         <v>681</v>
-      </c>
-      <c r="B172" s="1" t="s">
-        <v>682</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -5478,7 +5491,7 @@
         <v>400</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -5489,7 +5502,7 @@
         <v>405</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -5500,7 +5513,7 @@
         <v>406</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -5511,48 +5524,48 @@
         <v>401</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="178" spans="1:3">
       <c r="A178" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B178" s="1" t="s">
         <v>407</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="179" spans="1:3">
       <c r="A179" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="B179" s="1" t="s">
         <v>684</v>
       </c>
-      <c r="B179" s="1" t="s">
-        <v>685</v>
-      </c>
       <c r="C179" s="1" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="180" spans="1:3">
       <c r="A180" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="B180" s="1" t="s">
         <v>686</v>
       </c>
-      <c r="B180" s="1" t="s">
-        <v>687</v>
-      </c>
       <c r="C180" s="1" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="181" spans="1:3">
       <c r="A181" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="B181" s="1" t="s">
         <v>688</v>
-      </c>
-      <c r="B181" s="1" t="s">
-        <v>689</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -5581,21 +5594,21 @@
     </row>
     <row r="185" spans="1:3">
       <c r="A185" s="1" t="s">
+        <v>977</v>
+      </c>
+      <c r="B185" s="1" t="s">
         <v>978</v>
       </c>
-      <c r="B185" s="1" t="s">
+      <c r="C185" s="1" t="s">
         <v>979</v>
-      </c>
-      <c r="C185" s="1" t="s">
-        <v>980</v>
       </c>
     </row>
     <row r="186" spans="1:3">
       <c r="A186" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="B186" s="1" t="s">
         <v>690</v>
-      </c>
-      <c r="B186" s="1" t="s">
-        <v>691</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -5630,7 +5643,7 @@
         <v>410</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -5641,70 +5654,70 @@
         <v>415</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="192" spans="1:3">
       <c r="A192" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B192" s="1" t="s">
         <v>417</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="193" spans="1:3">
       <c r="A193" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="B193" s="1" t="s">
         <v>693</v>
       </c>
-      <c r="B193" s="1" t="s">
-        <v>694</v>
-      </c>
       <c r="C193" s="1" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="194" spans="1:3">
       <c r="A194" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="B194" s="1" t="s">
         <v>695</v>
       </c>
-      <c r="B194" s="1" t="s">
-        <v>696</v>
-      </c>
       <c r="C194" s="1" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="195" spans="1:3">
       <c r="A195" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="B195" s="1" t="s">
         <v>697</v>
       </c>
-      <c r="B195" s="1" t="s">
-        <v>698</v>
-      </c>
       <c r="C195" s="1" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="196" spans="1:3">
       <c r="A196" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="B196" s="1" t="s">
         <v>699</v>
       </c>
-      <c r="B196" s="1" t="s">
-        <v>700</v>
-      </c>
       <c r="C196" s="1" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="197" spans="1:3">
       <c r="A197" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="B197" s="1" t="s">
         <v>701</v>
-      </c>
-      <c r="B197" s="1" t="s">
-        <v>702</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -5747,20 +5760,20 @@
         <v>418</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="203" spans="1:3">
       <c r="A203" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="B203" s="1" t="s">
         <v>983</v>
-      </c>
-      <c r="B203" s="1" t="s">
-        <v>984</v>
       </c>
     </row>
     <row r="204" spans="1:3">
       <c r="A204" s="1" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B204" s="1" t="s">
         <v>419</v>
@@ -5768,7 +5781,7 @@
     </row>
     <row r="205" spans="1:3">
       <c r="A205" s="1" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B205" s="1" t="s">
         <v>419</v>
@@ -5798,7 +5811,7 @@
         <v>435</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -5809,7 +5822,7 @@
         <v>427</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -5820,7 +5833,7 @@
         <v>422</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -5831,7 +5844,7 @@
         <v>423</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -5842,7 +5855,7 @@
         <v>429</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -5861,7 +5874,7 @@
         <v>421</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -5872,7 +5885,7 @@
         <v>433</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -5883,62 +5896,62 @@
         <v>432</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="217" spans="1:3">
       <c r="A217" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="B217" s="1" t="s">
         <v>705</v>
       </c>
-      <c r="B217" s="1" t="s">
-        <v>706</v>
-      </c>
       <c r="C217" s="1" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="218" spans="1:3">
       <c r="A218" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="219" spans="1:3">
       <c r="A219" s="1" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="220" spans="1:3">
       <c r="A220" s="1" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="221" spans="1:3">
       <c r="A221" s="1" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -5967,13 +5980,13 @@
     </row>
     <row r="225" spans="1:3">
       <c r="A225" s="1" t="s">
+        <v>986</v>
+      </c>
+      <c r="B225" s="1" t="s">
         <v>987</v>
       </c>
-      <c r="B225" s="1" t="s">
-        <v>988</v>
-      </c>
       <c r="C225" s="1" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -5994,7 +6007,7 @@
     </row>
     <row r="228" spans="1:3">
       <c r="A228" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B228" s="1" t="s">
         <v>436</v>
@@ -6032,7 +6045,7 @@
         <v>441</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -6043,7 +6056,7 @@
         <v>440</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -6054,7 +6067,7 @@
         <v>442</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -6065,7 +6078,7 @@
         <v>449</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -6076,7 +6089,7 @@
         <v>443</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -6087,7 +6100,7 @@
         <v>446</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -6098,7 +6111,7 @@
         <v>439</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -6109,7 +6122,7 @@
         <v>444</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -6120,67 +6133,67 @@
         <v>447</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="241" spans="1:3">
       <c r="A241" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="B241" s="1" t="s">
         <v>716</v>
       </c>
-      <c r="B241" s="1" t="s">
-        <v>717</v>
-      </c>
       <c r="C241" s="1" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="242" spans="1:3">
       <c r="A242" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="B242" s="1" t="s">
         <v>718</v>
       </c>
-      <c r="B242" s="1" t="s">
-        <v>719</v>
-      </c>
       <c r="C242" s="1" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="243" spans="1:3">
       <c r="A243" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="B243" s="1" t="s">
         <v>720</v>
       </c>
-      <c r="B243" s="1" t="s">
-        <v>721</v>
-      </c>
       <c r="C243" s="1" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="244" spans="1:3">
       <c r="A244" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="B244" s="1" t="s">
         <v>722</v>
       </c>
-      <c r="B244" s="1" t="s">
-        <v>723</v>
-      </c>
       <c r="C244" s="1" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="245" spans="1:3">
       <c r="A245" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="B245" s="1" t="s">
         <v>724</v>
-      </c>
-      <c r="B245" s="1" t="s">
-        <v>725</v>
       </c>
     </row>
     <row r="246" spans="1:3">
       <c r="A246" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="B246" s="1" t="s">
         <v>726</v>
-      </c>
-      <c r="B246" s="1" t="s">
-        <v>727</v>
       </c>
     </row>
     <row r="247" spans="1:3">
@@ -6225,7 +6238,7 @@
     </row>
     <row r="252" spans="1:3">
       <c r="A252" s="1" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B252" s="1" t="s">
         <v>453</v>
@@ -6257,13 +6270,13 @@
     </row>
     <row r="256" spans="1:3">
       <c r="A256" s="1" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="257" spans="1:3">
@@ -6274,7 +6287,7 @@
         <v>462</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="258" spans="1:3">
@@ -6285,7 +6298,7 @@
         <v>454</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="259" spans="1:3">
@@ -6296,7 +6309,7 @@
         <v>457</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="260" spans="1:3">
@@ -6307,52 +6320,52 @@
         <v>461</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="261" spans="1:3">
       <c r="A261" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="B261" s="1" t="s">
         <v>729</v>
-      </c>
-      <c r="B261" s="1" t="s">
-        <v>730</v>
       </c>
     </row>
     <row r="262" spans="1:3">
       <c r="A262" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="B262" s="1" t="s">
         <v>731</v>
-      </c>
-      <c r="B262" s="1" t="s">
-        <v>732</v>
       </c>
     </row>
     <row r="263" spans="1:3">
       <c r="A263" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="B263" s="1" t="s">
         <v>733</v>
-      </c>
-      <c r="B263" s="1" t="s">
-        <v>734</v>
       </c>
     </row>
     <row r="264" spans="1:3">
       <c r="A264" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="B264" s="1" t="s">
         <v>735</v>
-      </c>
-      <c r="B264" s="1" t="s">
-        <v>736</v>
       </c>
     </row>
     <row r="265" spans="1:3">
       <c r="A265" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="B265" s="1" t="s">
         <v>737</v>
-      </c>
-      <c r="B265" s="1" t="s">
-        <v>738</v>
       </c>
     </row>
     <row r="266" spans="1:3">
       <c r="A266" s="1" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B266" s="1" t="s">
         <v>453</v>
@@ -6376,13 +6389,13 @@
     </row>
     <row r="269" spans="1:3">
       <c r="A269" s="1" t="s">
+        <v>917</v>
+      </c>
+      <c r="B269" s="1" t="s">
         <v>918</v>
       </c>
-      <c r="B269" s="1" t="s">
-        <v>919</v>
-      </c>
       <c r="C269" s="1" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -6403,68 +6416,68 @@
     </row>
     <row r="272" spans="1:3">
       <c r="A272" s="1" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="273" spans="1:3">
       <c r="A273" s="1" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="274" spans="1:3">
       <c r="A274" s="1" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="275" spans="1:3">
       <c r="A275" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="B275" s="1" t="s">
         <v>952</v>
       </c>
-      <c r="B275" s="1" t="s">
-        <v>953</v>
-      </c>
       <c r="C275" s="1" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="276" spans="1:3">
       <c r="A276" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="277" spans="1:3">
       <c r="A277" s="1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B277" s="1" t="s">
         <v>464</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="278" spans="1:3">
@@ -6525,7 +6538,7 @@
     </row>
     <row r="285" spans="1:3">
       <c r="A285" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B285" s="1" t="s">
         <v>476</v>
@@ -6533,57 +6546,57 @@
     </row>
     <row r="286" spans="1:3">
       <c r="A286" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="B286" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="B286" s="1" t="s">
-        <v>743</v>
-      </c>
       <c r="C286" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="287" spans="1:3">
       <c r="A287" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="B287" s="1" t="s">
         <v>744</v>
       </c>
-      <c r="B287" s="1" t="s">
-        <v>745</v>
-      </c>
       <c r="C287" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="288" spans="1:3">
       <c r="A288" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="B288" s="1" t="s">
         <v>746</v>
       </c>
-      <c r="B288" s="1" t="s">
-        <v>747</v>
-      </c>
       <c r="C288" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="289" spans="1:3">
       <c r="A289" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="B289" s="1" t="s">
         <v>748</v>
       </c>
-      <c r="B289" s="1" t="s">
-        <v>749</v>
-      </c>
       <c r="C289" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="290" spans="1:3">
       <c r="A290" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="B290" s="1" t="s">
         <v>750</v>
       </c>
-      <c r="B290" s="1" t="s">
-        <v>751</v>
-      </c>
       <c r="C290" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="291" spans="1:3">
@@ -6596,13 +6609,13 @@
     </row>
     <row r="292" spans="1:3">
       <c r="A292" s="1" t="s">
+        <v>959</v>
+      </c>
+      <c r="B292" s="1" t="s">
         <v>960</v>
       </c>
-      <c r="B292" s="1" t="s">
-        <v>961</v>
-      </c>
       <c r="C292" s="1" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="293" spans="1:3">
@@ -6615,10 +6628,10 @@
     </row>
     <row r="294" spans="1:3">
       <c r="A294" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="B294" s="1" t="s">
         <v>958</v>
-      </c>
-      <c r="B294" s="1" t="s">
-        <v>959</v>
       </c>
     </row>
     <row r="295" spans="1:3">
@@ -6655,15 +6668,18 @@
     </row>
     <row r="299" spans="1:3">
       <c r="A299" s="1" t="s">
-        <v>752</v>
+        <v>990</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>478</v>
+        <v>991</v>
+      </c>
+      <c r="C299" s="1" t="s">
+        <v>992</v>
       </c>
     </row>
     <row r="300" spans="1:3">
       <c r="A300" s="1" t="s">
-        <v>174</v>
+        <v>751</v>
       </c>
       <c r="B300" s="1" t="s">
         <v>478</v>
@@ -6671,203 +6687,203 @@
     </row>
     <row r="301" spans="1:3">
       <c r="A301" s="1" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>493</v>
+        <v>478</v>
       </c>
     </row>
     <row r="302" spans="1:3">
       <c r="A302" s="1" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>479</v>
+        <v>493</v>
       </c>
     </row>
     <row r="303" spans="1:3">
       <c r="A303" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="304" spans="1:3">
       <c r="A304" s="1" t="s">
-        <v>753</v>
+        <v>176</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>754</v>
-      </c>
-      <c r="C304" s="1" t="s">
-        <v>741</v>
+        <v>480</v>
       </c>
     </row>
     <row r="305" spans="1:3">
       <c r="A305" s="1" t="s">
-        <v>178</v>
+        <v>752</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>482</v>
+        <v>753</v>
+      </c>
+      <c r="C305" s="1" t="s">
+        <v>740</v>
       </c>
     </row>
     <row r="306" spans="1:3">
       <c r="A306" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="307" spans="1:3">
       <c r="A307" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="308" spans="1:3">
       <c r="A308" s="1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
     </row>
     <row r="309" spans="1:3">
       <c r="A309" s="1" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
     </row>
     <row r="310" spans="1:3">
       <c r="A310" s="1" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>483</v>
+        <v>496</v>
       </c>
     </row>
     <row r="311" spans="1:3">
       <c r="A311" s="1" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
     </row>
     <row r="312" spans="1:3">
       <c r="A312" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
     </row>
     <row r="313" spans="1:3">
       <c r="A313" s="1" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>488</v>
+        <v>494</v>
       </c>
     </row>
     <row r="314" spans="1:3">
       <c r="A314" s="1" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
     </row>
     <row r="315" spans="1:3">
       <c r="A315" s="1" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
     </row>
     <row r="316" spans="1:3">
       <c r="A316" s="1" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>481</v>
+        <v>492</v>
       </c>
     </row>
     <row r="317" spans="1:3">
       <c r="A317" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
     </row>
     <row r="318" spans="1:3">
       <c r="A318" s="1" t="s">
-        <v>926</v>
+        <v>181</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>927</v>
-      </c>
-      <c r="C318" s="1" t="s">
-        <v>917</v>
+        <v>485</v>
       </c>
     </row>
     <row r="319" spans="1:3">
       <c r="A319" s="1" t="s">
-        <v>974</v>
+        <v>925</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>975</v>
+        <v>926</v>
       </c>
       <c r="C319" s="1" t="s">
-        <v>966</v>
+        <v>916</v>
       </c>
     </row>
     <row r="320" spans="1:3">
       <c r="A320" s="1" t="s">
-        <v>183</v>
+        <v>973</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>487</v>
+        <v>974</v>
+      </c>
+      <c r="C320" s="1" t="s">
+        <v>965</v>
       </c>
     </row>
     <row r="321" spans="1:3">
       <c r="A321" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="322" spans="1:3">
       <c r="A322" s="1" t="s">
-        <v>755</v>
+        <v>185</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>756</v>
-      </c>
-      <c r="C322" s="1" t="s">
-        <v>741</v>
+        <v>489</v>
       </c>
     </row>
     <row r="323" spans="1:3">
       <c r="A323" s="1" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>497</v>
+        <v>755</v>
+      </c>
+      <c r="C323" s="1" t="s">
+        <v>740</v>
       </c>
     </row>
     <row r="324" spans="1:3">
       <c r="A324" s="1" t="s">
-        <v>193</v>
+        <v>756</v>
       </c>
       <c r="B324" s="1" t="s">
         <v>497</v>
@@ -6875,888 +6891,888 @@
     </row>
     <row r="325" spans="1:3">
       <c r="A325" s="1" t="s">
-        <v>758</v>
+        <v>193</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
     </row>
     <row r="326" spans="1:3">
       <c r="A326" s="1" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>760</v>
-      </c>
-      <c r="C326" s="1" t="s">
-        <v>741</v>
+        <v>501</v>
       </c>
     </row>
     <row r="327" spans="1:3">
       <c r="A327" s="1" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>773</v>
+        <v>759</v>
+      </c>
+      <c r="C327" s="1" t="s">
+        <v>740</v>
       </c>
     </row>
     <row r="328" spans="1:3">
       <c r="A328" s="1" t="s">
-        <v>194</v>
+        <v>760</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>498</v>
+        <v>772</v>
       </c>
     </row>
     <row r="329" spans="1:3">
       <c r="A329" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="330" spans="1:3">
       <c r="A330" s="1" t="s">
-        <v>762</v>
+        <v>195</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>763</v>
-      </c>
-      <c r="C330" s="1" t="s">
-        <v>741</v>
+        <v>499</v>
       </c>
     </row>
     <row r="331" spans="1:3">
       <c r="A331" s="1" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>773</v>
+        <v>762</v>
       </c>
       <c r="C331" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="332" spans="1:3">
       <c r="A332" s="1" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="C332" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="333" spans="1:3">
       <c r="A333" s="1" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>767</v>
+        <v>772</v>
       </c>
       <c r="C333" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="334" spans="1:3">
       <c r="A334" s="1" t="s">
-        <v>600</v>
+        <v>765</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>884</v>
+        <v>766</v>
       </c>
       <c r="C334" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="335" spans="1:3">
       <c r="A335" s="1" t="s">
-        <v>768</v>
+        <v>599</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>769</v>
+        <v>883</v>
       </c>
       <c r="C335" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="336" spans="1:3">
       <c r="A336" s="1" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="C336" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="337" spans="1:3">
       <c r="A337" s="1" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="C337" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="338" spans="1:3">
       <c r="A338" s="1" t="s">
-        <v>197</v>
+        <v>771</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>881</v>
+        <v>772</v>
+      </c>
+      <c r="C338" s="1" t="s">
+        <v>740</v>
       </c>
     </row>
     <row r="339" spans="1:3">
       <c r="A339" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
     </row>
     <row r="340" spans="1:3">
       <c r="A340" s="1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>500</v>
+        <v>881</v>
       </c>
     </row>
     <row r="341" spans="1:3">
       <c r="A341" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>883</v>
+        <v>500</v>
       </c>
     </row>
     <row r="342" spans="1:3">
       <c r="A342" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>502</v>
+        <v>882</v>
       </c>
     </row>
     <row r="343" spans="1:3">
       <c r="A343" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>913</v>
+        <v>502</v>
       </c>
     </row>
     <row r="344" spans="1:3">
       <c r="A344" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>504</v>
+        <v>912</v>
       </c>
     </row>
     <row r="345" spans="1:3">
       <c r="A345" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="346" spans="1:3">
       <c r="A346" s="1" t="s">
-        <v>774</v>
+        <v>202</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>775</v>
+        <v>503</v>
       </c>
     </row>
     <row r="347" spans="1:3">
       <c r="A347" s="1" t="s">
-        <v>204</v>
+        <v>773</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>505</v>
+        <v>774</v>
       </c>
     </row>
     <row r="348" spans="1:3">
       <c r="A348" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="349" spans="1:3">
       <c r="A349" s="1" t="s">
-        <v>776</v>
+        <v>205</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>777</v>
+        <v>506</v>
       </c>
     </row>
     <row r="350" spans="1:3">
       <c r="A350" s="1" t="s">
-        <v>601</v>
+        <v>775</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="C350" s="1" t="s">
-        <v>741</v>
+        <v>776</v>
       </c>
     </row>
     <row r="351" spans="1:3">
       <c r="A351" s="1" t="s">
-        <v>778</v>
+        <v>600</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>779</v>
+        <v>507</v>
       </c>
       <c r="C351" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="352" spans="1:3">
       <c r="A352" s="1" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C352" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="353" spans="1:3">
       <c r="A353" s="1" t="s">
-        <v>942</v>
+        <v>779</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>943</v>
+        <v>778</v>
       </c>
       <c r="C353" s="1" t="s">
-        <v>917</v>
+        <v>740</v>
       </c>
     </row>
     <row r="354" spans="1:3">
       <c r="A354" s="1" t="s">
-        <v>781</v>
+        <v>941</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>508</v>
+        <v>942</v>
       </c>
       <c r="C354" s="1" t="s">
-        <v>741</v>
+        <v>916</v>
       </c>
     </row>
     <row r="355" spans="1:3">
       <c r="A355" s="1" t="s">
-        <v>206</v>
+        <v>780</v>
       </c>
       <c r="B355" s="1" t="s">
         <v>508</v>
       </c>
+      <c r="C355" s="1" t="s">
+        <v>740</v>
+      </c>
     </row>
     <row r="356" spans="1:3">
       <c r="A356" s="1" t="s">
-        <v>914</v>
+        <v>206</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>907</v>
-      </c>
-      <c r="C356" s="1" t="s">
-        <v>904</v>
+        <v>508</v>
       </c>
     </row>
     <row r="357" spans="1:3">
       <c r="A357" s="1" t="s">
-        <v>219</v>
+        <v>913</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>518</v>
+        <v>906</v>
       </c>
       <c r="C357" s="1" t="s">
-        <v>741</v>
+        <v>903</v>
       </c>
     </row>
     <row r="358" spans="1:3">
       <c r="A358" s="1" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="C358" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="359" spans="1:3">
       <c r="A359" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C359" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="360" spans="1:3">
       <c r="A360" s="1" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="C360" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="361" spans="1:3">
       <c r="A361" s="1" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="C361" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="362" spans="1:3">
       <c r="A362" s="1" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="C362" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="363" spans="1:3">
       <c r="A363" s="1" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>516</v>
+        <v>512</v>
+      </c>
+      <c r="C363" s="1" t="s">
+        <v>740</v>
       </c>
     </row>
     <row r="364" spans="1:3">
       <c r="A364" s="1" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>885</v>
+        <v>516</v>
       </c>
     </row>
     <row r="365" spans="1:3">
       <c r="A365" s="1" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>513</v>
+        <v>884</v>
       </c>
     </row>
     <row r="366" spans="1:3">
       <c r="A366" s="1" t="s">
-        <v>944</v>
+        <v>213</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>943</v>
-      </c>
-      <c r="C366" s="1" t="s">
-        <v>917</v>
+        <v>513</v>
       </c>
     </row>
     <row r="367" spans="1:3">
       <c r="A367" s="1" t="s">
-        <v>782</v>
+        <v>943</v>
       </c>
       <c r="B367" s="1" t="s">
-        <v>783</v>
+        <v>942</v>
+      </c>
+      <c r="C367" s="1" t="s">
+        <v>916</v>
       </c>
     </row>
     <row r="368" spans="1:3">
       <c r="A368" s="1" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>785</v>
-      </c>
-      <c r="C368" s="1" t="s">
-        <v>741</v>
+        <v>782</v>
       </c>
     </row>
     <row r="369" spans="1:3">
       <c r="A369" s="1" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="C369" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="370" spans="1:3">
       <c r="A370" s="1" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="C370" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="371" spans="1:3">
       <c r="A371" s="1" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="B371" s="1" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="C371" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="372" spans="1:3">
       <c r="A372" s="1" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="C372" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="373" spans="1:3">
       <c r="A373" s="1" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="B373" s="1" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="C373" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="374" spans="1:3">
       <c r="A374" s="1" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>785</v>
+        <v>794</v>
       </c>
       <c r="C374" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="375" spans="1:3">
       <c r="A375" s="1" t="s">
-        <v>910</v>
+        <v>795</v>
       </c>
       <c r="B375" s="1" t="s">
-        <v>907</v>
+        <v>784</v>
       </c>
       <c r="C375" s="1" t="s">
-        <v>904</v>
+        <v>740</v>
       </c>
     </row>
     <row r="376" spans="1:3">
       <c r="A376" s="1" t="s">
-        <v>920</v>
+        <v>909</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>921</v>
+        <v>906</v>
       </c>
       <c r="C376" s="1" t="s">
-        <v>917</v>
+        <v>903</v>
       </c>
     </row>
     <row r="377" spans="1:3">
       <c r="A377" s="1" t="s">
-        <v>924</v>
+        <v>919</v>
       </c>
       <c r="B377" s="1" t="s">
-        <v>925</v>
+        <v>920</v>
       </c>
       <c r="C377" s="1" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="378" spans="1:3">
       <c r="A378" s="1" t="s">
-        <v>897</v>
+        <v>923</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>898</v>
+        <v>924</v>
       </c>
       <c r="C378" s="1" t="s">
-        <v>896</v>
+        <v>916</v>
       </c>
     </row>
     <row r="379" spans="1:3">
       <c r="A379" s="1" t="s">
-        <v>797</v>
+        <v>896</v>
       </c>
       <c r="B379" s="1" t="s">
-        <v>798</v>
+        <v>897</v>
       </c>
       <c r="C379" s="1" t="s">
-        <v>741</v>
+        <v>895</v>
       </c>
     </row>
     <row r="380" spans="1:3">
       <c r="A380" s="1" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="C380" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="381" spans="1:3">
       <c r="A381" s="1" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="B381" s="1" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="C381" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="382" spans="1:3">
       <c r="A382" s="1" t="s">
-        <v>217</v>
+        <v>800</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>787</v>
+        <v>801</v>
+      </c>
+      <c r="C382" s="1" t="s">
+        <v>740</v>
       </c>
     </row>
     <row r="383" spans="1:3">
       <c r="A383" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B383" s="1" t="s">
-        <v>517</v>
+        <v>786</v>
       </c>
     </row>
     <row r="384" spans="1:3">
       <c r="A384" s="1" t="s">
-        <v>962</v>
+        <v>218</v>
       </c>
       <c r="B384" s="1" t="s">
-        <v>921</v>
-      </c>
-      <c r="C384" s="1" t="s">
-        <v>917</v>
+        <v>517</v>
       </c>
     </row>
     <row r="385" spans="1:3">
       <c r="A385" s="1" t="s">
-        <v>211</v>
+        <v>961</v>
       </c>
       <c r="B385" s="1" t="s">
-        <v>963</v>
+        <v>920</v>
+      </c>
+      <c r="C385" s="1" t="s">
+        <v>916</v>
       </c>
     </row>
     <row r="386" spans="1:3">
       <c r="A386" s="1" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B386" s="1" t="s">
-        <v>510</v>
+        <v>962</v>
       </c>
     </row>
     <row r="387" spans="1:3">
       <c r="A387" s="1" t="s">
-        <v>915</v>
+        <v>209</v>
       </c>
       <c r="B387" s="1" t="s">
-        <v>916</v>
-      </c>
-      <c r="C387" s="1" t="s">
-        <v>917</v>
+        <v>510</v>
       </c>
     </row>
     <row r="388" spans="1:3">
       <c r="A388" s="1" t="s">
-        <v>906</v>
+        <v>914</v>
       </c>
       <c r="B388" s="1" t="s">
-        <v>907</v>
+        <v>915</v>
+      </c>
+      <c r="C388" s="1" t="s">
+        <v>916</v>
       </c>
     </row>
     <row r="389" spans="1:3">
       <c r="A389" s="1" t="s">
-        <v>803</v>
+        <v>905</v>
       </c>
       <c r="B389" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="C389" s="1" t="s">
-        <v>741</v>
+        <v>906</v>
       </c>
     </row>
     <row r="390" spans="1:3">
       <c r="A390" s="1" t="s">
-        <v>220</v>
+        <v>802</v>
       </c>
       <c r="B390" s="1" t="s">
         <v>519</v>
       </c>
       <c r="C390" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="391" spans="1:3">
       <c r="A391" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B391" s="1" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C391" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="392" spans="1:3">
       <c r="A392" s="1" t="s">
-        <v>804</v>
+        <v>223</v>
       </c>
       <c r="B392" s="1" t="s">
-        <v>806</v>
+        <v>521</v>
       </c>
       <c r="C392" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="393" spans="1:3">
       <c r="A393" s="1" t="s">
+        <v>803</v>
+      </c>
+      <c r="B393" s="1" t="s">
         <v>805</v>
       </c>
-      <c r="B393" s="1" t="s">
-        <v>807</v>
-      </c>
       <c r="C393" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="394" spans="1:3">
       <c r="A394" s="1" t="s">
-        <v>222</v>
+        <v>804</v>
       </c>
       <c r="B394" s="1" t="s">
-        <v>886</v>
+        <v>806</v>
+      </c>
+      <c r="C394" s="1" t="s">
+        <v>740</v>
       </c>
     </row>
     <row r="395" spans="1:3">
       <c r="A395" s="1" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="B395" s="1" t="s">
-        <v>526</v>
+        <v>885</v>
       </c>
     </row>
     <row r="396" spans="1:3">
       <c r="A396" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B396" s="1" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
     </row>
     <row r="397" spans="1:3">
       <c r="A397" s="1" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B397" s="1" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
     </row>
     <row r="398" spans="1:3">
       <c r="A398" s="1" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="B398" s="1" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
     </row>
     <row r="399" spans="1:3">
       <c r="A399" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B399" s="1" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
     </row>
     <row r="400" spans="1:3">
       <c r="A400" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B400" s="1" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="401" spans="1:3">
       <c r="A401" s="1" t="s">
-        <v>808</v>
+        <v>227</v>
       </c>
       <c r="B401" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="C401" s="1" t="s">
-        <v>741</v>
+        <v>525</v>
       </c>
     </row>
     <row r="402" spans="1:3">
       <c r="A402" s="1" t="s">
-        <v>229</v>
+        <v>807</v>
       </c>
       <c r="B402" s="1" t="s">
         <v>527</v>
       </c>
+      <c r="C402" s="1" t="s">
+        <v>740</v>
+      </c>
     </row>
     <row r="403" spans="1:3">
       <c r="A403" s="1" t="s">
-        <v>809</v>
+        <v>229</v>
       </c>
       <c r="B403" s="1" t="s">
-        <v>810</v>
-      </c>
-      <c r="C403" s="1" t="s">
-        <v>741</v>
+        <v>527</v>
       </c>
     </row>
     <row r="404" spans="1:3">
       <c r="A404" s="1" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="B404" s="1" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="C404" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="405" spans="1:3">
       <c r="A405" s="1" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="B405" s="1" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="C405" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="406" spans="1:3">
       <c r="A406" s="1" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="B406" s="1" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="C406" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="407" spans="1:3">
       <c r="A407" s="1" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="B407" s="1" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="C407" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="408" spans="1:3">
       <c r="A408" s="1" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="B408" s="1" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="C408" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="409" spans="1:3">
       <c r="A409" s="1" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="B409" s="1" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="C409" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="410" spans="1:3">
       <c r="A410" s="1" t="s">
-        <v>236</v>
+        <v>821</v>
       </c>
       <c r="B410" s="1" t="s">
-        <v>534</v>
+        <v>820</v>
+      </c>
+      <c r="C410" s="1" t="s">
+        <v>740</v>
       </c>
     </row>
     <row r="411" spans="1:3">
       <c r="A411" s="1" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B411" s="1" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
     </row>
     <row r="412" spans="1:3">
       <c r="A412" s="1" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="B412" s="1" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
     </row>
     <row r="413" spans="1:3">
       <c r="A413" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B413" s="1" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="414" spans="1:3">
       <c r="A414" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B414" s="1" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
     </row>
     <row r="415" spans="1:3">
       <c r="A415" s="1" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="B415" s="1" t="s">
-        <v>542</v>
+        <v>531</v>
       </c>
     </row>
     <row r="416" spans="1:3">
       <c r="A416" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B416" s="1" t="s">
         <v>541</v>
@@ -7764,437 +7780,440 @@
     </row>
     <row r="417" spans="1:3">
       <c r="A417" s="1" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="B417" s="1" t="s">
-        <v>533</v>
+        <v>540</v>
       </c>
     </row>
     <row r="418" spans="1:3">
       <c r="A418" s="1" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="B418" s="1" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
     </row>
     <row r="419" spans="1:3">
       <c r="A419" s="1" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="B419" s="1" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
     </row>
     <row r="420" spans="1:3">
       <c r="A420" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B420" s="1" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="421" spans="1:3">
       <c r="A421" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B421" s="1" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="422" spans="1:3">
       <c r="A422" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B422" s="1" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="423" spans="1:3">
       <c r="A423" s="1" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="B423" s="1" t="s">
-        <v>537</v>
+        <v>993</v>
+      </c>
+      <c r="C423" s="1" t="s">
+        <v>992</v>
       </c>
     </row>
     <row r="424" spans="1:3">
       <c r="A424" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B424" s="1" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="425" spans="1:3">
       <c r="A425" s="1" t="s">
-        <v>823</v>
+        <v>241</v>
       </c>
       <c r="B425" s="1" t="s">
-        <v>543</v>
-      </c>
-      <c r="C425" s="1" t="s">
-        <v>741</v>
+        <v>539</v>
       </c>
     </row>
     <row r="426" spans="1:3">
       <c r="A426" s="1" t="s">
-        <v>245</v>
+        <v>822</v>
       </c>
       <c r="B426" s="1" t="s">
-        <v>543</v>
+        <v>542</v>
+      </c>
+      <c r="C426" s="1" t="s">
+        <v>740</v>
       </c>
     </row>
     <row r="427" spans="1:3">
       <c r="A427" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B427" s="1" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="428" spans="1:3">
       <c r="A428" s="1" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B428" s="1" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
     </row>
     <row r="429" spans="1:3">
       <c r="A429" s="1" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="B429" s="1" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="430" spans="1:3">
       <c r="A430" s="1" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B430" s="1" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
     </row>
     <row r="431" spans="1:3">
       <c r="A431" s="1" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="B431" s="1" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
     </row>
     <row r="432" spans="1:3">
       <c r="A432" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B432" s="1" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="433" spans="1:3">
       <c r="A433" s="1" t="s">
-        <v>824</v>
+        <v>249</v>
       </c>
       <c r="B433" s="1" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
     </row>
     <row r="434" spans="1:3">
       <c r="A434" s="1" t="s">
-        <v>252</v>
+        <v>823</v>
       </c>
       <c r="B434" s="1" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="435" spans="1:3">
       <c r="A435" s="1" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="B435" s="1" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
     </row>
     <row r="436" spans="1:3">
       <c r="A436" s="1" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="B436" s="1" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
     </row>
     <row r="437" spans="1:3">
       <c r="A437" s="1" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="B437" s="1" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
     </row>
     <row r="438" spans="1:3">
       <c r="A438" s="1" t="s">
-        <v>825</v>
+        <v>259</v>
       </c>
       <c r="B438" s="1" t="s">
-        <v>826</v>
-      </c>
-      <c r="C438" s="1" t="s">
-        <v>741</v>
+        <v>556</v>
       </c>
     </row>
     <row r="439" spans="1:3">
       <c r="A439" s="1" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="B439" s="1" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="C439" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="440" spans="1:3">
       <c r="A440" s="1" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="B440" s="1" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="C440" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="441" spans="1:3">
       <c r="A441" s="1" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="B441" s="1" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="C441" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="442" spans="1:3">
       <c r="A442" s="1" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="B442" s="1" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="C442" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="443" spans="1:3">
       <c r="A443" s="1" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="B443" s="1" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="C443" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="444" spans="1:3">
       <c r="A444" s="1" t="s">
-        <v>258</v>
+        <v>834</v>
       </c>
       <c r="B444" s="1" t="s">
-        <v>556</v>
+        <v>835</v>
+      </c>
+      <c r="C444" s="1" t="s">
+        <v>740</v>
       </c>
     </row>
     <row r="445" spans="1:3">
       <c r="A445" s="1" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="B445" s="1" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
     </row>
     <row r="446" spans="1:3">
       <c r="A446" s="1" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B446" s="1" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="447" spans="1:3">
       <c r="A447" s="1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B447" s="1" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
     </row>
     <row r="448" spans="1:3">
       <c r="A448" s="1" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="B448" s="1" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
     </row>
     <row r="449" spans="1:3">
       <c r="A449" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B449" s="1" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="450" spans="1:3">
       <c r="A450" s="1" t="s">
-        <v>837</v>
+        <v>261</v>
       </c>
       <c r="B450" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="C450" s="1" t="s">
-        <v>741</v>
+        <v>558</v>
       </c>
     </row>
     <row r="451" spans="1:3">
       <c r="A451" s="1" t="s">
-        <v>262</v>
+        <v>836</v>
       </c>
       <c r="B451" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
+      </c>
+      <c r="C451" s="1" t="s">
+        <v>740</v>
       </c>
     </row>
     <row r="452" spans="1:3">
       <c r="A452" s="1" t="s">
-        <v>838</v>
+        <v>262</v>
       </c>
       <c r="B452" s="1" t="s">
-        <v>839</v>
-      </c>
-      <c r="C452" s="1" t="s">
-        <v>741</v>
+        <v>559</v>
       </c>
     </row>
     <row r="453" spans="1:3">
       <c r="A453" s="1" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="B453" s="1" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="C453" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="454" spans="1:3">
       <c r="A454" s="1" t="s">
-        <v>263</v>
+        <v>839</v>
       </c>
       <c r="B454" s="1" t="s">
-        <v>561</v>
+        <v>840</v>
       </c>
       <c r="C454" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="455" spans="1:3">
       <c r="A455" s="1" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="B455" s="1" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="C455" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="456" spans="1:3">
       <c r="A456" s="1" t="s">
-        <v>842</v>
+        <v>269</v>
       </c>
       <c r="B456" s="1" t="s">
-        <v>841</v>
+        <v>565</v>
       </c>
       <c r="C456" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="457" spans="1:3">
       <c r="A457" s="1" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="B457" s="1" t="s">
-        <v>844</v>
+        <v>840</v>
       </c>
       <c r="C457" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="458" spans="1:3">
       <c r="A458" s="1" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
       <c r="B458" s="1" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="C458" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="459" spans="1:3">
       <c r="A459" s="1" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="B459" s="1" t="s">
-        <v>839</v>
+        <v>844</v>
       </c>
       <c r="C459" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="460" spans="1:3">
       <c r="A460" s="1" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="B460" s="1" t="s">
-        <v>849</v>
+        <v>838</v>
       </c>
       <c r="C460" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="461" spans="1:3">
       <c r="A461" s="1" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="B461" s="1" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="C461" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="462" spans="1:3">
       <c r="A462" s="1" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
       <c r="B462" s="1" t="s">
-        <v>852</v>
+        <v>850</v>
+      </c>
+      <c r="C462" s="1" t="s">
+        <v>740</v>
       </c>
     </row>
     <row r="463" spans="1:3">
       <c r="A463" s="1" t="s">
-        <v>272</v>
+        <v>852</v>
       </c>
       <c r="B463" s="1" t="s">
-        <v>569</v>
+        <v>851</v>
       </c>
     </row>
     <row r="464" spans="1:3">
       <c r="A464" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B464" s="1" t="s">
         <v>568</v>
@@ -8202,15 +8221,15 @@
     </row>
     <row r="465" spans="1:3">
       <c r="A465" s="1" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="B465" s="1" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
     </row>
     <row r="466" spans="1:3">
       <c r="A466" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B466" s="1" t="s">
         <v>562</v>
@@ -8218,199 +8237,199 @@
     </row>
     <row r="467" spans="1:3">
       <c r="A467" s="1" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="B467" s="1" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
     </row>
     <row r="468" spans="1:3">
       <c r="A468" s="1" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="B468" s="1" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
     </row>
     <row r="469" spans="1:3">
       <c r="A469" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B469" s="1" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="470" spans="1:3">
       <c r="A470" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B470" s="1" t="s">
-        <v>887</v>
+        <v>564</v>
       </c>
     </row>
     <row r="471" spans="1:3">
       <c r="A471" s="1" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="B471" s="1" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
     </row>
     <row r="472" spans="1:3">
       <c r="A472" s="1" t="s">
-        <v>854</v>
+        <v>273</v>
       </c>
       <c r="B472" s="1" t="s">
-        <v>570</v>
+        <v>887</v>
       </c>
     </row>
     <row r="473" spans="1:3">
       <c r="A473" s="1" t="s">
-        <v>274</v>
+        <v>853</v>
       </c>
       <c r="B473" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="474" spans="1:3">
       <c r="A474" s="1" t="s">
-        <v>855</v>
+        <v>274</v>
       </c>
       <c r="B474" s="1" t="s">
-        <v>856</v>
-      </c>
-      <c r="C474" s="1" t="s">
-        <v>878</v>
+        <v>569</v>
       </c>
     </row>
     <row r="475" spans="1:3">
       <c r="A475" s="1" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="B475" s="1" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="C475" s="1" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="476" spans="1:3">
       <c r="A476" s="1" t="s">
-        <v>275</v>
+        <v>856</v>
       </c>
       <c r="B476" s="1" t="s">
-        <v>571</v>
+        <v>857</v>
       </c>
       <c r="C476" s="1" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="477" spans="1:3">
       <c r="A477" s="1" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="B477" s="1" t="s">
-        <v>575</v>
+        <v>570</v>
+      </c>
+      <c r="C477" s="1" t="s">
+        <v>877</v>
       </c>
     </row>
     <row r="478" spans="1:3">
       <c r="A478" s="1" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B478" s="1" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="479" spans="1:3">
       <c r="A479" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B479" s="1" t="s">
         <v>572</v>
       </c>
-      <c r="C479" s="1" t="s">
-        <v>878</v>
-      </c>
     </row>
     <row r="480" spans="1:3">
       <c r="A480" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B480" s="1" t="s">
-        <v>574</v>
+        <v>571</v>
+      </c>
+      <c r="C480" s="1" t="s">
+        <v>877</v>
       </c>
     </row>
     <row r="481" spans="1:3">
       <c r="A481" s="1" t="s">
-        <v>859</v>
+        <v>278</v>
       </c>
       <c r="B481" s="1" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
     </row>
     <row r="482" spans="1:3">
       <c r="A482" s="1" t="s">
-        <v>280</v>
+        <v>858</v>
       </c>
       <c r="B482" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="483" spans="1:3">
       <c r="A483" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B483" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="C483" s="1" t="s">
-        <v>878</v>
+        <v>575</v>
       </c>
     </row>
     <row r="484" spans="1:3">
       <c r="A484" s="1" t="s">
-        <v>860</v>
+        <v>281</v>
       </c>
       <c r="B484" s="1" t="s">
-        <v>861</v>
+        <v>576</v>
       </c>
       <c r="C484" s="1" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="485" spans="1:3">
       <c r="A485" s="1" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="B485" s="1" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="C485" s="1" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="486" spans="1:3">
       <c r="A486" s="1" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="B486" s="1" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="C486" s="1" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="487" spans="1:3">
       <c r="A487" s="1" t="s">
-        <v>283</v>
+        <v>863</v>
       </c>
       <c r="B487" s="1" t="s">
-        <v>579</v>
+        <v>864</v>
+      </c>
+      <c r="C487" s="1" t="s">
+        <v>877</v>
       </c>
     </row>
     <row r="488" spans="1:3">
       <c r="A488" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B488" s="1" t="s">
         <v>578</v>
@@ -8418,154 +8437,154 @@
     </row>
     <row r="489" spans="1:3">
       <c r="A489" s="1" t="s">
-        <v>866</v>
+        <v>282</v>
       </c>
       <c r="B489" s="1" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
     </row>
     <row r="490" spans="1:3">
       <c r="A490" s="1" t="s">
-        <v>284</v>
+        <v>865</v>
       </c>
       <c r="B490" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="491" spans="1:3">
       <c r="A491" s="1" t="s">
-        <v>867</v>
+        <v>284</v>
       </c>
       <c r="B491" s="1" t="s">
-        <v>868</v>
+        <v>579</v>
       </c>
     </row>
     <row r="492" spans="1:3">
       <c r="A492" s="1" t="s">
-        <v>947</v>
+        <v>866</v>
       </c>
       <c r="B492" s="1" t="s">
-        <v>948</v>
-      </c>
-      <c r="C492" s="1" t="s">
-        <v>917</v>
+        <v>867</v>
       </c>
     </row>
     <row r="493" spans="1:3">
       <c r="A493" s="1" t="s">
-        <v>971</v>
+        <v>946</v>
       </c>
       <c r="B493" s="1" t="s">
-        <v>968</v>
+        <v>947</v>
       </c>
       <c r="C493" s="1" t="s">
-        <v>966</v>
+        <v>916</v>
       </c>
     </row>
     <row r="494" spans="1:3">
       <c r="A494" s="1" t="s">
-        <v>869</v>
+        <v>970</v>
       </c>
       <c r="B494" s="1" t="s">
-        <v>582</v>
+        <v>967</v>
       </c>
       <c r="C494" s="1" t="s">
-        <v>878</v>
+        <v>965</v>
       </c>
     </row>
     <row r="495" spans="1:3">
       <c r="A495" s="1" t="s">
-        <v>290</v>
+        <v>868</v>
       </c>
       <c r="B495" s="1" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
       <c r="C495" s="1" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="496" spans="1:3">
       <c r="A496" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B496" s="1" t="s">
         <v>587</v>
       </c>
       <c r="C496" s="1" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="497" spans="1:3">
       <c r="A497" s="1" t="s">
-        <v>969</v>
+        <v>289</v>
       </c>
       <c r="B497" s="1" t="s">
-        <v>968</v>
+        <v>586</v>
       </c>
       <c r="C497" s="1" t="s">
-        <v>966</v>
+        <v>877</v>
       </c>
     </row>
     <row r="498" spans="1:3">
       <c r="A498" s="1" t="s">
+        <v>968</v>
+      </c>
+      <c r="B498" s="1" t="s">
         <v>967</v>
       </c>
-      <c r="B498" s="1" t="s">
-        <v>968</v>
-      </c>
       <c r="C498" s="1" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="499" spans="1:3">
       <c r="A499" s="1" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
       <c r="B499" s="1" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="C499" s="1" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="500" spans="1:3">
       <c r="A500" s="1" t="s">
-        <v>288</v>
+        <v>969</v>
       </c>
       <c r="B500" s="1" t="s">
-        <v>586</v>
+        <v>967</v>
       </c>
       <c r="C500" s="1" t="s">
-        <v>878</v>
+        <v>965</v>
       </c>
     </row>
     <row r="501" spans="1:3">
       <c r="A501" s="1" t="s">
-        <v>870</v>
+        <v>288</v>
       </c>
       <c r="B501" s="1" t="s">
-        <v>900</v>
+        <v>585</v>
+      </c>
+      <c r="C501" s="1" t="s">
+        <v>877</v>
       </c>
     </row>
     <row r="502" spans="1:3">
       <c r="A502" s="1" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="B502" s="1" t="s">
-        <v>584</v>
+        <v>899</v>
       </c>
     </row>
     <row r="503" spans="1:3">
       <c r="A503" s="1" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="B503" s="1" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
     </row>
     <row r="504" spans="1:3">
       <c r="A504" s="1" t="s">
-        <v>291</v>
+        <v>871</v>
       </c>
       <c r="B504" s="1" t="s">
         <v>590</v>
@@ -8573,7 +8592,7 @@
     </row>
     <row r="505" spans="1:3">
       <c r="A505" s="1" t="s">
-        <v>873</v>
+        <v>291</v>
       </c>
       <c r="B505" s="1" t="s">
         <v>589</v>
@@ -8581,70 +8600,78 @@
     </row>
     <row r="506" spans="1:3">
       <c r="A506" s="1" t="s">
-        <v>286</v>
+        <v>872</v>
       </c>
       <c r="B506" s="1" t="s">
-        <v>583</v>
+        <v>588</v>
       </c>
     </row>
     <row r="507" spans="1:3">
       <c r="A507" s="1" t="s">
-        <v>899</v>
+        <v>286</v>
       </c>
       <c r="B507" s="1" t="s">
-        <v>900</v>
+        <v>582</v>
       </c>
     </row>
     <row r="508" spans="1:3">
       <c r="A508" s="1" t="s">
-        <v>874</v>
+        <v>898</v>
       </c>
       <c r="B508" s="1" t="s">
-        <v>875</v>
-      </c>
-      <c r="C508" s="1" t="s">
-        <v>878</v>
+        <v>899</v>
       </c>
     </row>
     <row r="509" spans="1:3">
       <c r="A509" s="1" t="s">
-        <v>287</v>
+        <v>873</v>
       </c>
       <c r="B509" s="1" t="s">
-        <v>585</v>
+        <v>874</v>
       </c>
       <c r="C509" s="1" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="510" spans="1:3">
       <c r="A510" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B510" s="1" t="s">
-        <v>581</v>
+        <v>584</v>
+      </c>
+      <c r="C510" s="1" t="s">
+        <v>877</v>
       </c>
     </row>
     <row r="511" spans="1:3">
       <c r="A511" s="1" t="s">
-        <v>602</v>
+        <v>285</v>
       </c>
       <c r="B511" s="1" t="s">
-        <v>876</v>
-      </c>
-      <c r="C511" s="1" t="s">
-        <v>878</v>
+        <v>580</v>
       </c>
     </row>
     <row r="512" spans="1:3">
       <c r="A512" s="1" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="B512" s="1" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="C512" s="1" t="s">
-        <v>878</v>
+        <v>877</v>
+      </c>
+    </row>
+    <row r="513" spans="1:3">
+      <c r="A513" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="B513" s="1" t="s">
+        <v>876</v>
+      </c>
+      <c r="C513" s="1" t="s">
+        <v>877</v>
       </c>
     </row>
   </sheetData>

--- a/data/card.xlsx
+++ b/data/card.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1259" uniqueCount="994">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1259" uniqueCount="993">
   <si>
     <t>card_code</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2759,10 +2759,6 @@
   </si>
   <si>
     <t>5204</t>
-  </si>
-  <si>
-    <t>0852</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>0853</t>
@@ -3861,8 +3857,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C513"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A401" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C425" sqref="C425"/>
+    <sheetView tabSelected="1" topLeftCell="A372" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C395" sqref="C395"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3919,7 +3915,7 @@
         <v>607</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3930,7 +3926,7 @@
         <v>607</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3965,7 +3961,7 @@
         <v>300</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3976,7 +3972,7 @@
         <v>298</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3987,7 +3983,7 @@
         <v>303</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -3998,7 +3994,7 @@
         <v>296</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -4009,7 +4005,7 @@
         <v>304</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -4046,18 +4042,18 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>303</v>
@@ -4065,73 +4061,73 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
+        <v>890</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>891</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>892</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
+        <v>906</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>907</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>908</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
+        <v>909</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>910</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>911</v>
-      </c>
       <c r="C26" s="1" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
+        <v>926</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>927</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>928</v>
-      </c>
       <c r="C27" s="1" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1" t="s">
+        <v>928</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>929</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>930</v>
-      </c>
       <c r="C28" s="1" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -4166,7 +4162,7 @@
         <v>315</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -4177,7 +4173,7 @@
         <v>306</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -4188,7 +4184,7 @@
         <v>308</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -4199,7 +4195,7 @@
         <v>312</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -4210,7 +4206,7 @@
         <v>616</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -4221,7 +4217,7 @@
         <v>618</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -4290,13 +4286,13 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="1" t="s">
+        <v>962</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>963</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="C46" s="1" t="s">
         <v>964</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>965</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -4355,7 +4351,7 @@
         <v>319</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -4366,7 +4362,7 @@
         <v>629</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -4377,7 +4373,7 @@
         <v>631</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -4388,7 +4384,7 @@
         <v>633</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -4495,7 +4491,7 @@
         <v>332</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -4506,7 +4502,7 @@
         <v>335</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -4517,7 +4513,7 @@
         <v>331</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -4528,7 +4524,7 @@
         <v>333</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -4539,7 +4535,7 @@
         <v>334</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -4550,7 +4546,7 @@
         <v>337</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -4561,7 +4557,7 @@
         <v>339</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -4572,7 +4568,7 @@
         <v>340</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -4583,7 +4579,7 @@
         <v>341</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -4634,7 +4630,7 @@
         <v>347</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -4645,7 +4641,7 @@
         <v>346</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -4656,7 +4652,7 @@
         <v>349</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -4667,7 +4663,7 @@
         <v>345</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -4678,7 +4674,7 @@
         <v>348</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -4689,18 +4685,18 @@
         <v>344</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="1" t="s">
+        <v>970</v>
+      </c>
+      <c r="B89" s="1" t="s">
         <v>971</v>
       </c>
-      <c r="B89" s="1" t="s">
-        <v>972</v>
-      </c>
       <c r="C89" s="1" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -4708,18 +4704,18 @@
         <v>46</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="1" t="s">
+        <v>979</v>
+      </c>
+      <c r="B91" s="1" t="s">
         <v>980</v>
       </c>
-      <c r="B91" s="1" t="s">
-        <v>981</v>
-      </c>
       <c r="C91" s="1" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -4770,7 +4766,7 @@
         <v>361</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -4781,7 +4777,7 @@
         <v>351</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -4792,7 +4788,7 @@
         <v>362</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -4803,7 +4799,7 @@
         <v>353</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -4814,7 +4810,7 @@
         <v>359</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -4825,7 +4821,7 @@
         <v>358</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -4838,35 +4834,35 @@
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="1" t="s">
+        <v>935</v>
+      </c>
+      <c r="B104" s="1" t="s">
         <v>936</v>
       </c>
-      <c r="B104" s="1" t="s">
-        <v>937</v>
-      </c>
       <c r="C104" s="1" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="B105" s="1" t="s">
         <v>984</v>
       </c>
-      <c r="B105" s="1" t="s">
-        <v>985</v>
-      </c>
       <c r="C105" s="1" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="1" t="s">
+        <v>900</v>
+      </c>
+      <c r="B106" s="1" t="s">
         <v>901</v>
       </c>
-      <c r="B106" s="1" t="s">
+      <c r="C106" s="1" t="s">
         <v>902</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>903</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -4879,13 +4875,13 @@
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="1" t="s">
+        <v>937</v>
+      </c>
+      <c r="B108" s="1" t="s">
         <v>938</v>
       </c>
-      <c r="B108" s="1" t="s">
-        <v>939</v>
-      </c>
       <c r="C108" s="1" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -4898,13 +4894,13 @@
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="1" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -4933,13 +4929,13 @@
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="1" t="s">
+        <v>987</v>
+      </c>
+      <c r="B114" s="1" t="s">
         <v>988</v>
       </c>
-      <c r="B114" s="1" t="s">
-        <v>989</v>
-      </c>
       <c r="C114" s="1" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -4982,7 +4978,7 @@
         <v>366</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -4993,7 +4989,7 @@
         <v>365</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -5004,7 +5000,7 @@
         <v>372</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -5015,7 +5011,7 @@
         <v>367</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -5026,7 +5022,7 @@
         <v>371</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -5037,7 +5033,7 @@
         <v>373</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -5048,7 +5044,7 @@
         <v>646</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -5059,7 +5055,7 @@
         <v>370</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -5126,7 +5122,7 @@
         <v>380</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -5137,7 +5133,7 @@
         <v>377</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -5148,7 +5144,7 @@
         <v>381</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -5159,7 +5155,7 @@
         <v>655</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -5170,7 +5166,7 @@
         <v>379</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -5207,13 +5203,13 @@
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="1" t="s">
+        <v>943</v>
+      </c>
+      <c r="B143" s="1" t="s">
         <v>944</v>
       </c>
-      <c r="B143" s="1" t="s">
-        <v>945</v>
-      </c>
       <c r="C143" s="1" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -5264,7 +5260,7 @@
         <v>395</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -5275,7 +5271,7 @@
         <v>392</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -5286,7 +5282,7 @@
         <v>397</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -5297,18 +5293,18 @@
         <v>386</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" s="1" t="s">
+        <v>974</v>
+      </c>
+      <c r="B153" s="1" t="s">
         <v>975</v>
       </c>
-      <c r="B153" s="1" t="s">
-        <v>976</v>
-      </c>
       <c r="C153" s="1" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -5319,7 +5315,7 @@
         <v>391</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -5367,7 +5363,7 @@
         <v>667</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -5391,7 +5387,7 @@
         <v>87</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -5404,13 +5400,13 @@
     </row>
     <row r="165" spans="1:3">
       <c r="A165" s="1" t="s">
+        <v>887</v>
+      </c>
+      <c r="B165" s="1" t="s">
         <v>888</v>
       </c>
-      <c r="B165" s="1" t="s">
+      <c r="C165" s="1" t="s">
         <v>889</v>
-      </c>
-      <c r="C165" s="1" t="s">
-        <v>890</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -5439,24 +5435,24 @@
     </row>
     <row r="169" spans="1:3">
       <c r="A169" s="1" t="s">
+        <v>920</v>
+      </c>
+      <c r="B169" s="1" t="s">
         <v>921</v>
       </c>
-      <c r="B169" s="1" t="s">
-        <v>922</v>
-      </c>
       <c r="C169" s="1" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170" s="1" t="s">
+        <v>893</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>892</v>
+      </c>
+      <c r="C170" s="1" t="s">
         <v>894</v>
-      </c>
-      <c r="B170" s="1" t="s">
-        <v>893</v>
-      </c>
-      <c r="C170" s="1" t="s">
-        <v>895</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -5491,7 +5487,7 @@
         <v>400</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -5502,7 +5498,7 @@
         <v>405</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -5513,7 +5509,7 @@
         <v>406</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -5524,7 +5520,7 @@
         <v>401</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -5535,7 +5531,7 @@
         <v>407</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -5546,7 +5542,7 @@
         <v>684</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -5557,7 +5553,7 @@
         <v>686</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -5594,13 +5590,13 @@
     </row>
     <row r="185" spans="1:3">
       <c r="A185" s="1" t="s">
+        <v>976</v>
+      </c>
+      <c r="B185" s="1" t="s">
         <v>977</v>
       </c>
-      <c r="B185" s="1" t="s">
+      <c r="C185" s="1" t="s">
         <v>978</v>
-      </c>
-      <c r="C185" s="1" t="s">
-        <v>979</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -5643,7 +5639,7 @@
         <v>410</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -5654,7 +5650,7 @@
         <v>415</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -5665,7 +5661,7 @@
         <v>417</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -5676,7 +5672,7 @@
         <v>693</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -5687,7 +5683,7 @@
         <v>695</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -5698,7 +5694,7 @@
         <v>697</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -5709,7 +5705,7 @@
         <v>699</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -5760,15 +5756,15 @@
         <v>418</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="203" spans="1:3">
       <c r="A203" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="B203" s="1" t="s">
         <v>982</v>
-      </c>
-      <c r="B203" s="1" t="s">
-        <v>983</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -5811,7 +5807,7 @@
         <v>435</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -5822,7 +5818,7 @@
         <v>427</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -5833,7 +5829,7 @@
         <v>422</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -5844,7 +5840,7 @@
         <v>423</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -5855,7 +5851,7 @@
         <v>429</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -5874,7 +5870,7 @@
         <v>421</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -5885,7 +5881,7 @@
         <v>433</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -5896,7 +5892,7 @@
         <v>432</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -5907,7 +5903,7 @@
         <v>705</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -5918,7 +5914,7 @@
         <v>710</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -5929,7 +5925,7 @@
         <v>711</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -5940,7 +5936,7 @@
         <v>712</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -5951,7 +5947,7 @@
         <v>713</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -5980,13 +5976,13 @@
     </row>
     <row r="225" spans="1:3">
       <c r="A225" s="1" t="s">
+        <v>985</v>
+      </c>
+      <c r="B225" s="1" t="s">
         <v>986</v>
       </c>
-      <c r="B225" s="1" t="s">
-        <v>987</v>
-      </c>
       <c r="C225" s="1" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -6045,7 +6041,7 @@
         <v>441</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -6056,7 +6052,7 @@
         <v>440</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -6067,7 +6063,7 @@
         <v>442</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -6078,7 +6074,7 @@
         <v>449</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -6089,7 +6085,7 @@
         <v>443</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -6100,7 +6096,7 @@
         <v>446</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -6111,7 +6107,7 @@
         <v>439</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -6122,7 +6118,7 @@
         <v>444</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -6133,7 +6129,7 @@
         <v>447</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -6144,7 +6140,7 @@
         <v>716</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="242" spans="1:3">
@@ -6155,7 +6151,7 @@
         <v>718</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -6166,7 +6162,7 @@
         <v>720</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="244" spans="1:3">
@@ -6177,7 +6173,7 @@
         <v>722</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="245" spans="1:3">
@@ -6270,13 +6266,13 @@
     </row>
     <row r="256" spans="1:3">
       <c r="A256" s="1" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="257" spans="1:3">
@@ -6287,7 +6283,7 @@
         <v>462</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="258" spans="1:3">
@@ -6298,7 +6294,7 @@
         <v>454</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="259" spans="1:3">
@@ -6309,7 +6305,7 @@
         <v>457</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="260" spans="1:3">
@@ -6320,7 +6316,7 @@
         <v>461</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="261" spans="1:3">
@@ -6389,13 +6385,13 @@
     </row>
     <row r="269" spans="1:3">
       <c r="A269" s="1" t="s">
+        <v>916</v>
+      </c>
+      <c r="B269" s="1" t="s">
         <v>917</v>
       </c>
-      <c r="B269" s="1" t="s">
-        <v>918</v>
-      </c>
       <c r="C269" s="1" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -6416,57 +6412,57 @@
     </row>
     <row r="272" spans="1:3">
       <c r="A272" s="1" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="273" spans="1:3">
       <c r="A273" s="1" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="274" spans="1:3">
       <c r="A274" s="1" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="275" spans="1:3">
       <c r="A275" s="1" t="s">
+        <v>950</v>
+      </c>
+      <c r="B275" s="1" t="s">
         <v>951</v>
       </c>
-      <c r="B275" s="1" t="s">
-        <v>952</v>
-      </c>
       <c r="C275" s="1" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="276" spans="1:3">
       <c r="A276" s="1" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="277" spans="1:3">
@@ -6609,13 +6605,13 @@
     </row>
     <row r="292" spans="1:3">
       <c r="A292" s="1" t="s">
+        <v>958</v>
+      </c>
+      <c r="B292" s="1" t="s">
         <v>959</v>
       </c>
-      <c r="B292" s="1" t="s">
-        <v>960</v>
-      </c>
       <c r="C292" s="1" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="293" spans="1:3">
@@ -6628,10 +6624,10 @@
     </row>
     <row r="294" spans="1:3">
       <c r="A294" s="1" t="s">
+        <v>956</v>
+      </c>
+      <c r="B294" s="1" t="s">
         <v>957</v>
-      </c>
-      <c r="B294" s="1" t="s">
-        <v>958</v>
       </c>
     </row>
     <row r="295" spans="1:3">
@@ -6668,13 +6664,13 @@
     </row>
     <row r="299" spans="1:3">
       <c r="A299" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="B299" s="1" t="s">
         <v>990</v>
       </c>
-      <c r="B299" s="1" t="s">
+      <c r="C299" s="1" t="s">
         <v>991</v>
-      </c>
-      <c r="C299" s="1" t="s">
-        <v>992</v>
       </c>
     </row>
     <row r="300" spans="1:3">
@@ -6834,24 +6830,24 @@
     </row>
     <row r="319" spans="1:3">
       <c r="A319" s="1" t="s">
+        <v>924</v>
+      </c>
+      <c r="B319" s="1" t="s">
         <v>925</v>
       </c>
-      <c r="B319" s="1" t="s">
-        <v>926</v>
-      </c>
       <c r="C319" s="1" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="320" spans="1:3">
       <c r="A320" s="1" t="s">
+        <v>972</v>
+      </c>
+      <c r="B320" s="1" t="s">
         <v>973</v>
       </c>
-      <c r="B320" s="1" t="s">
-        <v>974</v>
-      </c>
       <c r="C320" s="1" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="321" spans="1:3">
@@ -6989,7 +6985,7 @@
         <v>599</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="C335" s="1" t="s">
         <v>740</v>
@@ -7033,7 +7029,7 @@
         <v>197</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="340" spans="1:3">
@@ -7041,7 +7037,7 @@
         <v>198</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="341" spans="1:3">
@@ -7057,7 +7053,7 @@
         <v>199</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="343" spans="1:3">
@@ -7073,7 +7069,7 @@
         <v>201</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="345" spans="1:3">
@@ -7159,13 +7155,13 @@
     </row>
     <row r="354" spans="1:3">
       <c r="A354" s="1" t="s">
+        <v>940</v>
+      </c>
+      <c r="B354" s="1" t="s">
         <v>941</v>
       </c>
-      <c r="B354" s="1" t="s">
-        <v>942</v>
-      </c>
       <c r="C354" s="1" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="355" spans="1:3">
@@ -7189,13 +7185,13 @@
     </row>
     <row r="357" spans="1:3">
       <c r="A357" s="1" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C357" s="1" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="358" spans="1:3">
@@ -7277,7 +7273,7 @@
         <v>208</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="366" spans="1:3">
@@ -7290,13 +7286,13 @@
     </row>
     <row r="367" spans="1:3">
       <c r="A367" s="1" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="B367" s="1" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="C367" s="1" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="368" spans="1:3">
@@ -7386,46 +7382,46 @@
     </row>
     <row r="376" spans="1:3">
       <c r="A376" s="1" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C376" s="1" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="377" spans="1:3">
       <c r="A377" s="1" t="s">
+        <v>918</v>
+      </c>
+      <c r="B377" s="1" t="s">
         <v>919</v>
       </c>
-      <c r="B377" s="1" t="s">
-        <v>920</v>
-      </c>
       <c r="C377" s="1" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="378" spans="1:3">
       <c r="A378" s="1" t="s">
+        <v>922</v>
+      </c>
+      <c r="B378" s="1" t="s">
         <v>923</v>
       </c>
-      <c r="B378" s="1" t="s">
-        <v>924</v>
-      </c>
       <c r="C378" s="1" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="379" spans="1:3">
       <c r="A379" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="B379" s="1" t="s">
         <v>896</v>
       </c>
-      <c r="B379" s="1" t="s">
-        <v>897</v>
-      </c>
       <c r="C379" s="1" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="380" spans="1:3">
@@ -7479,13 +7475,13 @@
     </row>
     <row r="385" spans="1:3">
       <c r="A385" s="1" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="B385" s="1" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="C385" s="1" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="386" spans="1:3">
@@ -7493,7 +7489,7 @@
         <v>211</v>
       </c>
       <c r="B386" s="1" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="387" spans="1:3">
@@ -7506,21 +7502,21 @@
     </row>
     <row r="388" spans="1:3">
       <c r="A388" s="1" t="s">
+        <v>913</v>
+      </c>
+      <c r="B388" s="1" t="s">
         <v>914</v>
       </c>
-      <c r="B388" s="1" t="s">
+      <c r="C388" s="1" t="s">
         <v>915</v>
-      </c>
-      <c r="C388" s="1" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="389" spans="1:3">
       <c r="A389" s="1" t="s">
+        <v>904</v>
+      </c>
+      <c r="B389" s="1" t="s">
         <v>905</v>
-      </c>
-      <c r="B389" s="1" t="s">
-        <v>906</v>
       </c>
     </row>
     <row r="390" spans="1:3">
@@ -7561,7 +7557,7 @@
         <v>803</v>
       </c>
       <c r="B393" s="1" t="s">
-        <v>805</v>
+        <v>884</v>
       </c>
       <c r="C393" s="1" t="s">
         <v>740</v>
@@ -7572,7 +7568,7 @@
         <v>804</v>
       </c>
       <c r="B394" s="1" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="C394" s="1" t="s">
         <v>740</v>
@@ -7583,7 +7579,7 @@
         <v>222</v>
       </c>
       <c r="B395" s="1" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="396" spans="1:3">
@@ -7636,7 +7632,7 @@
     </row>
     <row r="402" spans="1:3">
       <c r="A402" s="1" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B402" s="1" t="s">
         <v>527</v>
@@ -7655,10 +7651,10 @@
     </row>
     <row r="404" spans="1:3">
       <c r="A404" s="1" t="s">
+        <v>807</v>
+      </c>
+      <c r="B404" s="1" t="s">
         <v>808</v>
-      </c>
-      <c r="B404" s="1" t="s">
-        <v>809</v>
       </c>
       <c r="C404" s="1" t="s">
         <v>740</v>
@@ -7666,10 +7662,10 @@
     </row>
     <row r="405" spans="1:3">
       <c r="A405" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="B405" s="1" t="s">
         <v>810</v>
-      </c>
-      <c r="B405" s="1" t="s">
-        <v>811</v>
       </c>
       <c r="C405" s="1" t="s">
         <v>740</v>
@@ -7677,10 +7673,10 @@
     </row>
     <row r="406" spans="1:3">
       <c r="A406" s="1" t="s">
+        <v>811</v>
+      </c>
+      <c r="B406" s="1" t="s">
         <v>812</v>
-      </c>
-      <c r="B406" s="1" t="s">
-        <v>813</v>
       </c>
       <c r="C406" s="1" t="s">
         <v>740</v>
@@ -7688,10 +7684,10 @@
     </row>
     <row r="407" spans="1:3">
       <c r="A407" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="B407" s="1" t="s">
         <v>814</v>
-      </c>
-      <c r="B407" s="1" t="s">
-        <v>815</v>
       </c>
       <c r="C407" s="1" t="s">
         <v>740</v>
@@ -7699,10 +7695,10 @@
     </row>
     <row r="408" spans="1:3">
       <c r="A408" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="B408" s="1" t="s">
         <v>816</v>
-      </c>
-      <c r="B408" s="1" t="s">
-        <v>817</v>
       </c>
       <c r="C408" s="1" t="s">
         <v>740</v>
@@ -7710,10 +7706,10 @@
     </row>
     <row r="409" spans="1:3">
       <c r="A409" s="1" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B409" s="1" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="C409" s="1" t="s">
         <v>740</v>
@@ -7721,10 +7717,10 @@
     </row>
     <row r="410" spans="1:3">
       <c r="A410" s="1" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="B410" s="1" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="C410" s="1" t="s">
         <v>740</v>
@@ -7831,10 +7827,10 @@
         <v>242</v>
       </c>
       <c r="B423" s="1" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="C423" s="1" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="424" spans="1:3">
@@ -7855,7 +7851,7 @@
     </row>
     <row r="426" spans="1:3">
       <c r="A426" s="1" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="B426" s="1" t="s">
         <v>542</v>
@@ -7922,7 +7918,7 @@
     </row>
     <row r="434" spans="1:3">
       <c r="A434" s="1" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B434" s="1" t="s">
         <v>549</v>
@@ -7962,10 +7958,10 @@
     </row>
     <row r="439" spans="1:3">
       <c r="A439" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="B439" s="1" t="s">
         <v>824</v>
-      </c>
-      <c r="B439" s="1" t="s">
-        <v>825</v>
       </c>
       <c r="C439" s="1" t="s">
         <v>740</v>
@@ -7973,10 +7969,10 @@
     </row>
     <row r="440" spans="1:3">
       <c r="A440" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="B440" s="1" t="s">
         <v>826</v>
-      </c>
-      <c r="B440" s="1" t="s">
-        <v>827</v>
       </c>
       <c r="C440" s="1" t="s">
         <v>740</v>
@@ -7984,10 +7980,10 @@
     </row>
     <row r="441" spans="1:3">
       <c r="A441" s="1" t="s">
+        <v>827</v>
+      </c>
+      <c r="B441" s="1" t="s">
         <v>828</v>
-      </c>
-      <c r="B441" s="1" t="s">
-        <v>829</v>
       </c>
       <c r="C441" s="1" t="s">
         <v>740</v>
@@ -7995,10 +7991,10 @@
     </row>
     <row r="442" spans="1:3">
       <c r="A442" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="B442" s="1" t="s">
         <v>830</v>
-      </c>
-      <c r="B442" s="1" t="s">
-        <v>831</v>
       </c>
       <c r="C442" s="1" t="s">
         <v>740</v>
@@ -8006,10 +8002,10 @@
     </row>
     <row r="443" spans="1:3">
       <c r="A443" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="B443" s="1" t="s">
         <v>832</v>
-      </c>
-      <c r="B443" s="1" t="s">
-        <v>833</v>
       </c>
       <c r="C443" s="1" t="s">
         <v>740</v>
@@ -8017,10 +8013,10 @@
     </row>
     <row r="444" spans="1:3">
       <c r="A444" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="B444" s="1" t="s">
         <v>834</v>
-      </c>
-      <c r="B444" s="1" t="s">
-        <v>835</v>
       </c>
       <c r="C444" s="1" t="s">
         <v>740</v>
@@ -8076,7 +8072,7 @@
     </row>
     <row r="451" spans="1:3">
       <c r="A451" s="1" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B451" s="1" t="s">
         <v>559</v>
@@ -8095,10 +8091,10 @@
     </row>
     <row r="453" spans="1:3">
       <c r="A453" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="B453" s="1" t="s">
         <v>837</v>
-      </c>
-      <c r="B453" s="1" t="s">
-        <v>838</v>
       </c>
       <c r="C453" s="1" t="s">
         <v>740</v>
@@ -8106,10 +8102,10 @@
     </row>
     <row r="454" spans="1:3">
       <c r="A454" s="1" t="s">
+        <v>838</v>
+      </c>
+      <c r="B454" s="1" t="s">
         <v>839</v>
-      </c>
-      <c r="B454" s="1" t="s">
-        <v>840</v>
       </c>
       <c r="C454" s="1" t="s">
         <v>740</v>
@@ -8139,10 +8135,10 @@
     </row>
     <row r="457" spans="1:3">
       <c r="A457" s="1" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="B457" s="1" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="C457" s="1" t="s">
         <v>740</v>
@@ -8150,10 +8146,10 @@
     </row>
     <row r="458" spans="1:3">
       <c r="A458" s="1" t="s">
+        <v>841</v>
+      </c>
+      <c r="B458" s="1" t="s">
         <v>842</v>
-      </c>
-      <c r="B458" s="1" t="s">
-        <v>843</v>
       </c>
       <c r="C458" s="1" t="s">
         <v>740</v>
@@ -8161,10 +8157,10 @@
     </row>
     <row r="459" spans="1:3">
       <c r="A459" s="1" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="B459" s="1" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="C459" s="1" t="s">
         <v>740</v>
@@ -8172,10 +8168,10 @@
     </row>
     <row r="460" spans="1:3">
       <c r="A460" s="1" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B460" s="1" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="C460" s="1" t="s">
         <v>740</v>
@@ -8183,10 +8179,10 @@
     </row>
     <row r="461" spans="1:3">
       <c r="A461" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="B461" s="1" t="s">
         <v>847</v>
-      </c>
-      <c r="B461" s="1" t="s">
-        <v>848</v>
       </c>
       <c r="C461" s="1" t="s">
         <v>740</v>
@@ -8194,10 +8190,10 @@
     </row>
     <row r="462" spans="1:3">
       <c r="A462" s="1" t="s">
+        <v>848</v>
+      </c>
+      <c r="B462" s="1" t="s">
         <v>849</v>
-      </c>
-      <c r="B462" s="1" t="s">
-        <v>850</v>
       </c>
       <c r="C462" s="1" t="s">
         <v>740</v>
@@ -8205,10 +8201,10 @@
     </row>
     <row r="463" spans="1:3">
       <c r="A463" s="1" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B463" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="464" spans="1:3">
@@ -8272,7 +8268,7 @@
         <v>268</v>
       </c>
       <c r="B471" s="1" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="472" spans="1:3">
@@ -8280,12 +8276,12 @@
         <v>273</v>
       </c>
       <c r="B472" s="1" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="473" spans="1:3">
       <c r="A473" s="1" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="B473" s="1" t="s">
         <v>569</v>
@@ -8301,24 +8297,24 @@
     </row>
     <row r="475" spans="1:3">
       <c r="A475" s="1" t="s">
+        <v>853</v>
+      </c>
+      <c r="B475" s="1" t="s">
         <v>854</v>
       </c>
-      <c r="B475" s="1" t="s">
-        <v>855</v>
-      </c>
       <c r="C475" s="1" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="476" spans="1:3">
       <c r="A476" s="1" t="s">
+        <v>855</v>
+      </c>
+      <c r="B476" s="1" t="s">
         <v>856</v>
       </c>
-      <c r="B476" s="1" t="s">
-        <v>857</v>
-      </c>
       <c r="C476" s="1" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="477" spans="1:3">
@@ -8329,7 +8325,7 @@
         <v>570</v>
       </c>
       <c r="C477" s="1" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="478" spans="1:3">
@@ -8356,7 +8352,7 @@
         <v>571</v>
       </c>
       <c r="C480" s="1" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="481" spans="1:3">
@@ -8369,7 +8365,7 @@
     </row>
     <row r="482" spans="1:3">
       <c r="A482" s="1" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B482" s="1" t="s">
         <v>575</v>
@@ -8391,40 +8387,40 @@
         <v>576</v>
       </c>
       <c r="C484" s="1" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="485" spans="1:3">
       <c r="A485" s="1" t="s">
+        <v>858</v>
+      </c>
+      <c r="B485" s="1" t="s">
         <v>859</v>
       </c>
-      <c r="B485" s="1" t="s">
-        <v>860</v>
-      </c>
       <c r="C485" s="1" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="486" spans="1:3">
       <c r="A486" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="B486" s="1" t="s">
         <v>861</v>
       </c>
-      <c r="B486" s="1" t="s">
-        <v>862</v>
-      </c>
       <c r="C486" s="1" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="487" spans="1:3">
       <c r="A487" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="B487" s="1" t="s">
         <v>863</v>
       </c>
-      <c r="B487" s="1" t="s">
-        <v>864</v>
-      </c>
       <c r="C487" s="1" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="488" spans="1:3">
@@ -8445,7 +8441,7 @@
     </row>
     <row r="490" spans="1:3">
       <c r="A490" s="1" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="B490" s="1" t="s">
         <v>579</v>
@@ -8461,43 +8457,43 @@
     </row>
     <row r="492" spans="1:3">
       <c r="A492" s="1" t="s">
+        <v>865</v>
+      </c>
+      <c r="B492" s="1" t="s">
         <v>866</v>
-      </c>
-      <c r="B492" s="1" t="s">
-        <v>867</v>
       </c>
     </row>
     <row r="493" spans="1:3">
       <c r="A493" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="B493" s="1" t="s">
         <v>946</v>
       </c>
-      <c r="B493" s="1" t="s">
-        <v>947</v>
-      </c>
       <c r="C493" s="1" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="494" spans="1:3">
       <c r="A494" s="1" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="B494" s="1" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="C494" s="1" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="495" spans="1:3">
       <c r="A495" s="1" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="B495" s="1" t="s">
         <v>581</v>
       </c>
       <c r="C495" s="1" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="496" spans="1:3">
@@ -8508,7 +8504,7 @@
         <v>587</v>
       </c>
       <c r="C496" s="1" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="497" spans="1:3">
@@ -8519,40 +8515,40 @@
         <v>586</v>
       </c>
       <c r="C497" s="1" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="498" spans="1:3">
       <c r="A498" s="1" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="B498" s="1" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="C498" s="1" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="499" spans="1:3">
       <c r="A499" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="B499" s="1" t="s">
         <v>966</v>
       </c>
-      <c r="B499" s="1" t="s">
-        <v>967</v>
-      </c>
       <c r="C499" s="1" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="500" spans="1:3">
       <c r="A500" s="1" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="B500" s="1" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="C500" s="1" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="501" spans="1:3">
@@ -8563,20 +8559,20 @@
         <v>585</v>
       </c>
       <c r="C501" s="1" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="502" spans="1:3">
       <c r="A502" s="1" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B502" s="1" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="503" spans="1:3">
       <c r="A503" s="1" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="B503" s="1" t="s">
         <v>583</v>
@@ -8584,7 +8580,7 @@
     </row>
     <row r="504" spans="1:3">
       <c r="A504" s="1" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="B504" s="1" t="s">
         <v>590</v>
@@ -8600,7 +8596,7 @@
     </row>
     <row r="506" spans="1:3">
       <c r="A506" s="1" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="B506" s="1" t="s">
         <v>588</v>
@@ -8616,21 +8612,21 @@
     </row>
     <row r="508" spans="1:3">
       <c r="A508" s="1" t="s">
+        <v>897</v>
+      </c>
+      <c r="B508" s="1" t="s">
         <v>898</v>
-      </c>
-      <c r="B508" s="1" t="s">
-        <v>899</v>
       </c>
     </row>
     <row r="509" spans="1:3">
       <c r="A509" s="1" t="s">
+        <v>872</v>
+      </c>
+      <c r="B509" s="1" t="s">
         <v>873</v>
       </c>
-      <c r="B509" s="1" t="s">
-        <v>874</v>
-      </c>
       <c r="C509" s="1" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="510" spans="1:3">
@@ -8641,7 +8637,7 @@
         <v>584</v>
       </c>
       <c r="C510" s="1" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="511" spans="1:3">
@@ -8657,10 +8653,10 @@
         <v>601</v>
       </c>
       <c r="B512" s="1" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="C512" s="1" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="513" spans="1:3">
@@ -8668,10 +8664,10 @@
         <v>602</v>
       </c>
       <c r="B513" s="1" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="C513" s="1" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
   </sheetData>

--- a/data/card.xlsx
+++ b/data/card.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1259" uniqueCount="993">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1274" uniqueCount="1004">
   <si>
     <t>card_code</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3510,6 +3510,50 @@
   </si>
   <si>
     <t>0871</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1112</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3790</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0531</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1421</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0351</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5190</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>028</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4373</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0731</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3855,10 +3899,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C513"/>
+  <dimension ref="A1:C518"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A372" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C395" sqref="C395"/>
+    <sheetView tabSelected="1" topLeftCell="A278" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C303" sqref="C303"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3901,26 +3945,26 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>592</v>
+        <v>993</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>294</v>
+        <v>994</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>995</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>606</v>
+        <v>592</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>607</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>876</v>
+        <v>294</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>607</v>
@@ -3931,45 +3975,45 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>610</v>
+        <v>607</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>876</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>1</v>
+        <v>609</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>295</v>
+        <v>610</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>876</v>
+        <v>299</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>876</v>
@@ -3977,10 +4021,10 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>876</v>
@@ -3988,10 +4032,10 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>613</v>
+        <v>7</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>876</v>
@@ -3999,10 +4043,10 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>8</v>
+        <v>613</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>876</v>
@@ -4010,72 +4054,72 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>297</v>
+        <v>304</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>876</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>611</v>
+        <v>2</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>6</v>
+        <v>611</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>612</v>
+        <v>6</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>614</v>
+        <v>302</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
-        <v>934</v>
+        <v>612</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>932</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>915</v>
+        <v>614</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
-        <v>899</v>
+        <v>934</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>303</v>
+        <v>932</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>915</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
-        <v>930</v>
+        <v>899</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>932</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>915</v>
+        <v>303</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>915</v>
@@ -4083,48 +4127,48 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
-        <v>890</v>
+        <v>931</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>891</v>
+        <v>933</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>915</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
-        <v>906</v>
+        <v>890</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>907</v>
+        <v>891</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>910</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>902</v>
+        <v>907</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
-        <v>926</v>
+        <v>909</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>927</v>
+        <v>910</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>915</v>
+        <v>902</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>915</v>
@@ -4132,45 +4176,45 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1" t="s">
-        <v>636</v>
+        <v>928</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>637</v>
+        <v>929</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>915</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1" t="s">
-        <v>9</v>
+        <v>636</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>305</v>
+        <v>637</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>876</v>
+        <v>307</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>876</v>
@@ -4178,10 +4222,10 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>876</v>
@@ -4189,10 +4233,10 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>876</v>
@@ -4200,10 +4244,10 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="1" t="s">
-        <v>615</v>
+        <v>16</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>616</v>
+        <v>312</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>876</v>
@@ -4211,10 +4255,10 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="1" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>876</v>
@@ -4222,155 +4266,155 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="1" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>620</v>
+        <v>618</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>876</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="1" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="1" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="1" t="s">
-        <v>17</v>
+        <v>623</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>313</v>
+        <v>624</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="1" t="s">
-        <v>15</v>
+        <v>998</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>311</v>
+        <v>999</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>995</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>314</v>
+        <v>13</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="1" t="s">
-        <v>962</v>
+        <v>14</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>963</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>964</v>
+        <v>310</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="1" t="s">
-        <v>638</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>639</v>
+        <v>18</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="1" t="s">
-        <v>20</v>
+        <v>962</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>316</v>
+        <v>963</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>964</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="1" t="s">
-        <v>21</v>
+        <v>638</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>317</v>
+        <v>639</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="1" t="s">
-        <v>626</v>
+        <v>24</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>627</v>
+        <v>321</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="1" t="s">
-        <v>593</v>
+        <v>22</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>876</v>
+        <v>318</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="1" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>629</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>876</v>
+        <v>627</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="1" t="s">
-        <v>630</v>
+        <v>593</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>631</v>
+        <v>319</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>876</v>
@@ -4378,10 +4422,10 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="1" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>876</v>
@@ -4389,128 +4433,128 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="1" t="s">
-        <v>25</v>
+        <v>630</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>323</v>
+        <v>631</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>876</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="1" t="s">
-        <v>625</v>
+        <v>632</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>322</v>
+        <v>633</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>876</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="1" t="s">
-        <v>29</v>
+        <v>625</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="1" t="s">
-        <v>634</v>
+        <v>29</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>635</v>
+        <v>327</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="1" t="s">
-        <v>27</v>
+        <v>634</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>325</v>
+        <v>635</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="1" t="s">
-        <v>640</v>
+        <v>28</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>641</v>
+        <v>326</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="1" t="s">
-        <v>31</v>
+        <v>640</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>329</v>
+        <v>641</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>876</v>
+        <v>329</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>876</v>
+        <v>330</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>876</v>
@@ -4518,10 +4562,10 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>876</v>
@@ -4529,10 +4573,10 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>876</v>
@@ -4540,10 +4584,10 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>876</v>
@@ -4551,10 +4595,10 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>876</v>
@@ -4562,10 +4606,10 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>876</v>
@@ -4573,10 +4617,10 @@
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>876</v>
@@ -4584,72 +4628,72 @@
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>336</v>
+        <v>340</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>876</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>338</v>
+        <v>341</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>876</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="1" t="s">
-        <v>642</v>
+        <v>38</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>643</v>
+        <v>336</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="1" t="s">
-        <v>45</v>
+        <v>642</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>343</v>
+        <v>643</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>876</v>
+        <v>342</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>876</v>
+        <v>343</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>876</v>
@@ -4657,10 +4701,10 @@
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="1" t="s">
-        <v>594</v>
+        <v>48</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>876</v>
@@ -4668,10 +4712,10 @@
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>876</v>
@@ -4679,10 +4723,10 @@
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="1" t="s">
-        <v>47</v>
+        <v>594</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>876</v>
@@ -4690,102 +4734,102 @@
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="1" t="s">
-        <v>970</v>
+        <v>50</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>971</v>
+        <v>348</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>964</v>
+        <v>876</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>903</v>
+        <v>344</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>876</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="1" t="s">
-        <v>979</v>
+        <v>970</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>980</v>
+        <v>971</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>978</v>
+        <v>964</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="1" t="s">
-        <v>644</v>
+        <v>46</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>645</v>
+        <v>903</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="1" t="s">
-        <v>52</v>
+        <v>979</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>350</v>
+        <v>980</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>978</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="1" t="s">
-        <v>54</v>
+        <v>644</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>352</v>
+        <v>645</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>876</v>
+        <v>357</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>876</v>
+        <v>356</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>876</v>
@@ -4793,10 +4837,10 @@
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>876</v>
@@ -4804,10 +4848,10 @@
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>876</v>
@@ -4815,10 +4859,10 @@
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>876</v>
@@ -4826,75 +4870,78 @@
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>355</v>
+        <v>359</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>876</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="1" t="s">
-        <v>935</v>
+        <v>60</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>936</v>
+        <v>358</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>915</v>
+        <v>876</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="1" t="s">
-        <v>983</v>
+        <v>57</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>984</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>978</v>
+        <v>355</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="1" t="s">
-        <v>900</v>
+        <v>935</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>901</v>
+        <v>936</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>902</v>
+        <v>915</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="1" t="s">
-        <v>62</v>
+        <v>983</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>360</v>
+        <v>984</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>978</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="1" t="s">
-        <v>937</v>
+        <v>900</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>938</v>
+        <v>901</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>915</v>
+        <v>902</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="1" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>938</v>
@@ -4905,99 +4952,96 @@
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="1" t="s">
-        <v>595</v>
+        <v>56</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="1" t="s">
-        <v>674</v>
+        <v>939</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>676</v>
+        <v>938</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>915</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="1" t="s">
-        <v>675</v>
+        <v>595</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>677</v>
+        <v>363</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="1" t="s">
-        <v>987</v>
+        <v>674</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>988</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>964</v>
+        <v>676</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="1" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="1" t="s">
-        <v>65</v>
+        <v>987</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>364</v>
+        <v>988</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>964</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="1" t="s">
-        <v>70</v>
+        <v>678</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>368</v>
+        <v>679</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="C119" s="1" t="s">
-        <v>876</v>
+        <v>368</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>876</v>
+        <v>369</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="1" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>876</v>
@@ -5005,10 +5049,10 @@
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>876</v>
@@ -5016,10 +5060,10 @@
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>876</v>
@@ -5027,10 +5071,10 @@
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="1" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>876</v>
@@ -5038,10 +5082,10 @@
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>646</v>
+        <v>371</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>876</v>
@@ -5049,10 +5093,10 @@
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>876</v>
@@ -5060,88 +5104,88 @@
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="1" t="s">
-        <v>647</v>
+        <v>69</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>648</v>
+        <v>646</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>876</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="1" t="s">
-        <v>649</v>
+        <v>72</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>650</v>
+        <v>370</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>876</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="1" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="1" t="s">
-        <v>76</v>
+        <v>649</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>374</v>
+        <v>650</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="1" t="s">
-        <v>77</v>
+        <v>651</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>375</v>
+        <v>652</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" s="1" t="s">
-        <v>596</v>
+        <v>80</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="C134" s="1" t="s">
-        <v>876</v>
+        <v>378</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="C135" s="1" t="s">
-        <v>876</v>
+        <v>376</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="1" t="s">
-        <v>653</v>
+        <v>596</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>876</v>
@@ -5149,10 +5193,10 @@
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="1" t="s">
-        <v>654</v>
+        <v>79</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>655</v>
+        <v>377</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>876</v>
@@ -5160,10 +5204,10 @@
     </row>
     <row r="138" spans="1:3">
       <c r="A138" s="1" t="s">
-        <v>81</v>
+        <v>653</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>876</v>
@@ -5171,115 +5215,115 @@
     </row>
     <row r="139" spans="1:3">
       <c r="A139" s="1" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>657</v>
+        <v>655</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>876</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="1" t="s">
-        <v>658</v>
+        <v>81</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>659</v>
+        <v>379</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>876</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="1" t="s">
-        <v>597</v>
+        <v>656</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>382</v>
+        <v>657</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="1" t="s">
-        <v>82</v>
+        <v>658</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>383</v>
+        <v>659</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="1" t="s">
-        <v>943</v>
+        <v>597</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>944</v>
-      </c>
-      <c r="C143" s="1" t="s">
-        <v>915</v>
+        <v>382</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="1" t="s">
-        <v>672</v>
+        <v>82</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>673</v>
+        <v>383</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" s="1" t="s">
-        <v>83</v>
+        <v>943</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>384</v>
+        <v>944</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>915</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" s="1" t="s">
-        <v>84</v>
+        <v>672</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>385</v>
+        <v>673</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" s="1" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" s="1" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="C149" s="1" t="s">
-        <v>876</v>
+        <v>387</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="C150" s="1" t="s">
-        <v>876</v>
+        <v>393</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>876</v>
@@ -5287,10 +5331,10 @@
     </row>
     <row r="152" spans="1:3">
       <c r="A152" s="1" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>876</v>
@@ -5298,21 +5342,21 @@
     </row>
     <row r="153" spans="1:3">
       <c r="A153" s="1" t="s">
-        <v>974</v>
+        <v>97</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>975</v>
+        <v>397</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>964</v>
+        <v>876</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="C154" s="1" t="s">
         <v>876</v>
@@ -5320,193 +5364,193 @@
     </row>
     <row r="155" spans="1:3">
       <c r="A155" s="1" t="s">
-        <v>90</v>
+        <v>974</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>390</v>
+        <v>975</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>964</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" s="1" t="s">
-        <v>660</v>
+        <v>91</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>673</v>
+        <v>391</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>876</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" s="1" t="s">
-        <v>661</v>
+        <v>90</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>662</v>
+        <v>390</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" s="1" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>664</v>
+        <v>673</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" s="1" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" s="1" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>877</v>
+        <v>664</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" s="1" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" s="1" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>671</v>
+        <v>877</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" s="1" t="s">
-        <v>87</v>
+        <v>668</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>878</v>
+        <v>670</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" s="1" t="s">
-        <v>96</v>
+        <v>669</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>396</v>
+        <v>671</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" s="1" t="s">
-        <v>887</v>
+        <v>87</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>888</v>
-      </c>
-      <c r="C165" s="1" t="s">
-        <v>889</v>
+        <v>878</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" s="1" t="s">
-        <v>98</v>
+        <v>887</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>398</v>
+        <v>888</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>889</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" s="1" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169" s="1" t="s">
-        <v>920</v>
+        <v>98</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>921</v>
-      </c>
-      <c r="C169" s="1" t="s">
-        <v>915</v>
+        <v>398</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170" s="1" t="s">
-        <v>893</v>
+        <v>88</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>892</v>
-      </c>
-      <c r="C170" s="1" t="s">
-        <v>894</v>
+        <v>388</v>
       </c>
     </row>
     <row r="171" spans="1:3">
       <c r="A171" s="1" t="s">
-        <v>89</v>
+        <v>920</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>389</v>
+        <v>921</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>915</v>
       </c>
     </row>
     <row r="172" spans="1:3">
       <c r="A172" s="1" t="s">
-        <v>680</v>
+        <v>893</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>681</v>
+        <v>892</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>894</v>
       </c>
     </row>
     <row r="173" spans="1:3">
       <c r="A173" s="1" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
     </row>
     <row r="174" spans="1:3">
       <c r="A174" s="1" t="s">
-        <v>100</v>
+        <v>680</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="C174" s="1" t="s">
-        <v>876</v>
+        <v>681</v>
       </c>
     </row>
     <row r="175" spans="1:3">
       <c r="A175" s="1" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="C175" s="1" t="s">
-        <v>876</v>
+        <v>399</v>
       </c>
     </row>
     <row r="176" spans="1:3">
       <c r="A176" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="C176" s="1" t="s">
         <v>876</v>
@@ -5514,10 +5558,10 @@
     </row>
     <row r="177" spans="1:3">
       <c r="A177" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="C177" s="1" t="s">
         <v>876</v>
@@ -5525,10 +5569,10 @@
     </row>
     <row r="178" spans="1:3">
       <c r="A178" s="1" t="s">
-        <v>682</v>
+        <v>106</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C178" s="1" t="s">
         <v>876</v>
@@ -5536,10 +5580,10 @@
     </row>
     <row r="179" spans="1:3">
       <c r="A179" s="1" t="s">
-        <v>683</v>
+        <v>101</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>684</v>
+        <v>401</v>
       </c>
       <c r="C179" s="1" t="s">
         <v>876</v>
@@ -5547,10 +5591,10 @@
     </row>
     <row r="180" spans="1:3">
       <c r="A180" s="1" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>686</v>
+        <v>407</v>
       </c>
       <c r="C180" s="1" t="s">
         <v>876</v>
@@ -5558,107 +5602,107 @@
     </row>
     <row r="181" spans="1:3">
       <c r="A181" s="1" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>688</v>
+        <v>684</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>876</v>
       </c>
     </row>
     <row r="182" spans="1:3">
       <c r="A182" s="1" t="s">
-        <v>104</v>
+        <v>685</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>404</v>
+        <v>686</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>876</v>
       </c>
     </row>
     <row r="183" spans="1:3">
       <c r="A183" s="1" t="s">
-        <v>103</v>
+        <v>687</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>403</v>
+        <v>688</v>
       </c>
     </row>
     <row r="184" spans="1:3">
       <c r="A184" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
     </row>
     <row r="185" spans="1:3">
       <c r="A185" s="1" t="s">
-        <v>976</v>
+        <v>103</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>977</v>
-      </c>
-      <c r="C185" s="1" t="s">
-        <v>978</v>
+        <v>403</v>
       </c>
     </row>
     <row r="186" spans="1:3">
       <c r="A186" s="1" t="s">
-        <v>689</v>
+        <v>102</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>690</v>
+        <v>402</v>
       </c>
     </row>
     <row r="187" spans="1:3">
       <c r="A187" s="1" t="s">
-        <v>107</v>
+        <v>976</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>408</v>
+        <v>977</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>978</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="A188" s="1" t="s">
-        <v>110</v>
+        <v>689</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>411</v>
+        <v>690</v>
       </c>
     </row>
     <row r="189" spans="1:3">
       <c r="A189" s="1" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
     </row>
     <row r="190" spans="1:3">
       <c r="A190" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="C190" s="1" t="s">
-        <v>876</v>
+        <v>411</v>
       </c>
     </row>
     <row r="191" spans="1:3">
       <c r="A191" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="C191" s="1" t="s">
-        <v>876</v>
+        <v>413</v>
       </c>
     </row>
     <row r="192" spans="1:3">
       <c r="A192" s="1" t="s">
-        <v>691</v>
+        <v>109</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="C192" s="1" t="s">
         <v>876</v>
@@ -5666,10 +5710,10 @@
     </row>
     <row r="193" spans="1:3">
       <c r="A193" s="1" t="s">
-        <v>692</v>
+        <v>114</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>693</v>
+        <v>415</v>
       </c>
       <c r="C193" s="1" t="s">
         <v>876</v>
@@ -5677,10 +5721,10 @@
     </row>
     <row r="194" spans="1:3">
       <c r="A194" s="1" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>695</v>
+        <v>417</v>
       </c>
       <c r="C194" s="1" t="s">
         <v>876</v>
@@ -5688,10 +5732,10 @@
     </row>
     <row r="195" spans="1:3">
       <c r="A195" s="1" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="C195" s="1" t="s">
         <v>876</v>
@@ -5699,10 +5743,10 @@
     </row>
     <row r="196" spans="1:3">
       <c r="A196" s="1" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="C196" s="1" t="s">
         <v>876</v>
@@ -5710,123 +5754,123 @@
     </row>
     <row r="197" spans="1:3">
       <c r="A197" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>876</v>
       </c>
     </row>
     <row r="198" spans="1:3">
       <c r="A198" s="1" t="s">
-        <v>108</v>
+        <v>698</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>409</v>
+        <v>699</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>876</v>
       </c>
     </row>
     <row r="199" spans="1:3">
       <c r="A199" s="1" t="s">
-        <v>115</v>
+        <v>700</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>416</v>
+        <v>701</v>
       </c>
     </row>
     <row r="200" spans="1:3">
       <c r="A200" s="1" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
     </row>
     <row r="201" spans="1:3">
       <c r="A201" s="1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
     </row>
     <row r="202" spans="1:3">
       <c r="A202" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="C202" s="1" t="s">
-        <v>978</v>
+        <v>414</v>
       </c>
     </row>
     <row r="203" spans="1:3">
       <c r="A203" s="1" t="s">
-        <v>981</v>
+        <v>111</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>982</v>
+        <v>412</v>
       </c>
     </row>
     <row r="204" spans="1:3">
       <c r="A204" s="1" t="s">
-        <v>703</v>
+        <v>116</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
+      </c>
+      <c r="C204" s="1" t="s">
+        <v>978</v>
       </c>
     </row>
     <row r="205" spans="1:3">
       <c r="A205" s="1" t="s">
-        <v>702</v>
+        <v>981</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>419</v>
+        <v>982</v>
       </c>
     </row>
     <row r="206" spans="1:3">
       <c r="A206" s="1" t="s">
-        <v>117</v>
+        <v>703</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="207" spans="1:3">
       <c r="A207" s="1" t="s">
-        <v>131</v>
+        <v>702</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>434</v>
+        <v>419</v>
       </c>
     </row>
     <row r="208" spans="1:3">
       <c r="A208" s="1" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="C208" s="1" t="s">
-        <v>876</v>
+        <v>420</v>
       </c>
     </row>
     <row r="209" spans="1:3">
       <c r="A209" s="1" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="C209" s="1" t="s">
-        <v>876</v>
+        <v>434</v>
       </c>
     </row>
     <row r="210" spans="1:3">
       <c r="A210" s="1" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>422</v>
+        <v>435</v>
       </c>
       <c r="C210" s="1" t="s">
         <v>876</v>
@@ -5834,10 +5878,10 @@
     </row>
     <row r="211" spans="1:3">
       <c r="A211" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="C211" s="1" t="s">
         <v>876</v>
@@ -5845,10 +5889,10 @@
     </row>
     <row r="212" spans="1:3">
       <c r="A212" s="1" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="C212" s="1" t="s">
         <v>876</v>
@@ -5856,18 +5900,21 @@
     </row>
     <row r="213" spans="1:3">
       <c r="A213" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>876</v>
       </c>
     </row>
     <row r="214" spans="1:3">
       <c r="A214" s="1" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>421</v>
+        <v>429</v>
       </c>
       <c r="C214" s="1" t="s">
         <v>876</v>
@@ -5875,21 +5922,18 @@
     </row>
     <row r="215" spans="1:3">
       <c r="A215" s="1" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="C215" s="1" t="s">
-        <v>876</v>
+        <v>424</v>
       </c>
     </row>
     <row r="216" spans="1:3">
       <c r="A216" s="1" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
       <c r="C216" s="1" t="s">
         <v>876</v>
@@ -5897,10 +5941,10 @@
     </row>
     <row r="217" spans="1:3">
       <c r="A217" s="1" t="s">
-        <v>704</v>
+        <v>130</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>705</v>
+        <v>433</v>
       </c>
       <c r="C217" s="1" t="s">
         <v>876</v>
@@ -5908,10 +5952,10 @@
     </row>
     <row r="218" spans="1:3">
       <c r="A218" s="1" t="s">
-        <v>706</v>
+        <v>129</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>710</v>
+        <v>432</v>
       </c>
       <c r="C218" s="1" t="s">
         <v>876</v>
@@ -5919,10 +5963,10 @@
     </row>
     <row r="219" spans="1:3">
       <c r="A219" s="1" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
       <c r="C219" s="1" t="s">
         <v>876</v>
@@ -5930,10 +5974,10 @@
     </row>
     <row r="220" spans="1:3">
       <c r="A220" s="1" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="C220" s="1" t="s">
         <v>876</v>
@@ -5941,10 +5985,10 @@
     </row>
     <row r="221" spans="1:3">
       <c r="A221" s="1" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C221" s="1" t="s">
         <v>876</v>
@@ -5952,126 +5996,126 @@
     </row>
     <row r="222" spans="1:3">
       <c r="A222" s="1" t="s">
-        <v>122</v>
+        <v>708</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>425</v>
+        <v>712</v>
+      </c>
+      <c r="C222" s="1" t="s">
+        <v>876</v>
       </c>
     </row>
     <row r="223" spans="1:3">
       <c r="A223" s="1" t="s">
-        <v>123</v>
+        <v>709</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>426</v>
+        <v>713</v>
+      </c>
+      <c r="C223" s="1" t="s">
+        <v>876</v>
       </c>
     </row>
     <row r="224" spans="1:3">
       <c r="A224" s="1" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="225" spans="1:3">
       <c r="A225" s="1" t="s">
-        <v>985</v>
+        <v>123</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>986</v>
-      </c>
-      <c r="C225" s="1" t="s">
-        <v>978</v>
+        <v>426</v>
       </c>
     </row>
     <row r="226" spans="1:3">
       <c r="A226" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="227" spans="1:3">
       <c r="A227" s="1" t="s">
-        <v>125</v>
+        <v>985</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>428</v>
+        <v>986</v>
+      </c>
+      <c r="C227" s="1" t="s">
+        <v>978</v>
       </c>
     </row>
     <row r="228" spans="1:3">
       <c r="A228" s="1" t="s">
-        <v>714</v>
+        <v>128</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
     </row>
     <row r="229" spans="1:3">
       <c r="A229" s="1" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
     </row>
     <row r="230" spans="1:3">
       <c r="A230" s="1" t="s">
-        <v>135</v>
+        <v>996</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>438</v>
+        <v>997</v>
+      </c>
+      <c r="C230" s="1" t="s">
+        <v>995</v>
       </c>
     </row>
     <row r="231" spans="1:3">
       <c r="A231" s="1" t="s">
-        <v>134</v>
+        <v>714</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="232" spans="1:3">
       <c r="A232" s="1" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="C232" s="1" t="s">
-        <v>876</v>
+        <v>436</v>
       </c>
     </row>
     <row r="233" spans="1:3">
       <c r="A233" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="C233" s="1" t="s">
-        <v>876</v>
+        <v>438</v>
       </c>
     </row>
     <row r="234" spans="1:3">
       <c r="A234" s="1" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="C234" s="1" t="s">
-        <v>876</v>
+        <v>437</v>
       </c>
     </row>
     <row r="235" spans="1:3">
       <c r="A235" s="1" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="C235" s="1" t="s">
         <v>876</v>
@@ -6079,10 +6123,10 @@
     </row>
     <row r="236" spans="1:3">
       <c r="A236" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="C236" s="1" t="s">
         <v>876</v>
@@ -6090,10 +6134,10 @@
     </row>
     <row r="237" spans="1:3">
       <c r="A237" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="C237" s="1" t="s">
         <v>876</v>
@@ -6101,10 +6145,10 @@
     </row>
     <row r="238" spans="1:3">
       <c r="A238" s="1" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>439</v>
+        <v>449</v>
       </c>
       <c r="C238" s="1" t="s">
         <v>876</v>
@@ -6112,10 +6156,10 @@
     </row>
     <row r="239" spans="1:3">
       <c r="A239" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C239" s="1" t="s">
         <v>876</v>
@@ -6123,10 +6167,10 @@
     </row>
     <row r="240" spans="1:3">
       <c r="A240" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C240" s="1" t="s">
         <v>876</v>
@@ -6134,10 +6178,10 @@
     </row>
     <row r="241" spans="1:3">
       <c r="A241" s="1" t="s">
-        <v>715</v>
+        <v>136</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>716</v>
+        <v>439</v>
       </c>
       <c r="C241" s="1" t="s">
         <v>876</v>
@@ -6145,10 +6189,10 @@
     </row>
     <row r="242" spans="1:3">
       <c r="A242" s="1" t="s">
-        <v>717</v>
+        <v>141</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>718</v>
+        <v>444</v>
       </c>
       <c r="C242" s="1" t="s">
         <v>876</v>
@@ -6156,10 +6200,10 @@
     </row>
     <row r="243" spans="1:3">
       <c r="A243" s="1" t="s">
-        <v>719</v>
+        <v>144</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>720</v>
+        <v>447</v>
       </c>
       <c r="C243" s="1" t="s">
         <v>876</v>
@@ -6167,10 +6211,10 @@
     </row>
     <row r="244" spans="1:3">
       <c r="A244" s="1" t="s">
-        <v>721</v>
+        <v>715</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
       <c r="C244" s="1" t="s">
         <v>876</v>
@@ -6178,142 +6222,142 @@
     </row>
     <row r="245" spans="1:3">
       <c r="A245" s="1" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>724</v>
+        <v>718</v>
+      </c>
+      <c r="C245" s="1" t="s">
+        <v>876</v>
       </c>
     </row>
     <row r="246" spans="1:3">
       <c r="A246" s="1" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>726</v>
+        <v>720</v>
+      </c>
+      <c r="C246" s="1" t="s">
+        <v>876</v>
       </c>
     </row>
     <row r="247" spans="1:3">
       <c r="A247" s="1" t="s">
-        <v>145</v>
+        <v>721</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>448</v>
+        <v>722</v>
+      </c>
+      <c r="C247" s="1" t="s">
+        <v>876</v>
       </c>
     </row>
     <row r="248" spans="1:3">
       <c r="A248" s="1" t="s">
-        <v>149</v>
+        <v>723</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>452</v>
+        <v>724</v>
       </c>
     </row>
     <row r="249" spans="1:3">
       <c r="A249" s="1" t="s">
-        <v>148</v>
+        <v>725</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>451</v>
+        <v>726</v>
       </c>
     </row>
     <row r="250" spans="1:3">
       <c r="A250" s="1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
     </row>
     <row r="251" spans="1:3">
       <c r="A251" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
     </row>
     <row r="252" spans="1:3">
       <c r="A252" s="1" t="s">
-        <v>727</v>
+        <v>148</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="253" spans="1:3">
       <c r="A253" s="1" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
     </row>
     <row r="254" spans="1:3">
       <c r="A254" s="1" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
     </row>
     <row r="255" spans="1:3">
       <c r="A255" s="1" t="s">
-        <v>152</v>
+        <v>727</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="256" spans="1:3">
       <c r="A256" s="1" t="s">
-        <v>954</v>
+        <v>150</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>951</v>
-      </c>
-      <c r="C256" s="1" t="s">
-        <v>915</v>
+        <v>453</v>
       </c>
     </row>
     <row r="257" spans="1:3">
       <c r="A257" s="1" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="C257" s="1" t="s">
-        <v>876</v>
+        <v>456</v>
       </c>
     </row>
     <row r="258" spans="1:3">
       <c r="A258" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="C258" s="1" t="s">
-        <v>876</v>
+        <v>455</v>
       </c>
     </row>
     <row r="259" spans="1:3">
       <c r="A259" s="1" t="s">
-        <v>154</v>
+        <v>954</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>457</v>
+        <v>951</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>876</v>
+        <v>915</v>
       </c>
     </row>
     <row r="260" spans="1:3">
       <c r="A260" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C260" s="1" t="s">
         <v>876</v>
@@ -6321,101 +6365,107 @@
     </row>
     <row r="261" spans="1:3">
       <c r="A261" s="1" t="s">
-        <v>728</v>
+        <v>151</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>729</v>
+        <v>454</v>
+      </c>
+      <c r="C261" s="1" t="s">
+        <v>876</v>
       </c>
     </row>
     <row r="262" spans="1:3">
       <c r="A262" s="1" t="s">
-        <v>730</v>
+        <v>154</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>731</v>
+        <v>457</v>
+      </c>
+      <c r="C262" s="1" t="s">
+        <v>876</v>
       </c>
     </row>
     <row r="263" spans="1:3">
       <c r="A263" s="1" t="s">
-        <v>732</v>
+        <v>158</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>733</v>
+        <v>461</v>
+      </c>
+      <c r="C263" s="1" t="s">
+        <v>876</v>
       </c>
     </row>
     <row r="264" spans="1:3">
       <c r="A264" s="1" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
     </row>
     <row r="265" spans="1:3">
       <c r="A265" s="1" t="s">
-        <v>736</v>
+        <v>730</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
     </row>
     <row r="266" spans="1:3">
       <c r="A266" s="1" t="s">
-        <v>738</v>
+        <v>732</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>453</v>
+        <v>733</v>
       </c>
     </row>
     <row r="267" spans="1:3">
       <c r="A267" s="1" t="s">
-        <v>155</v>
+        <v>734</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>458</v>
+        <v>735</v>
       </c>
     </row>
     <row r="268" spans="1:3">
       <c r="A268" s="1" t="s">
-        <v>156</v>
+        <v>736</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>459</v>
+        <v>737</v>
       </c>
     </row>
     <row r="269" spans="1:3">
       <c r="A269" s="1" t="s">
-        <v>916</v>
+        <v>738</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>917</v>
-      </c>
-      <c r="C269" s="1" t="s">
-        <v>915</v>
+        <v>453</v>
       </c>
     </row>
     <row r="270" spans="1:3">
       <c r="A270" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
     </row>
     <row r="271" spans="1:3">
       <c r="A271" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="272" spans="1:3">
       <c r="A272" s="1" t="s">
-        <v>947</v>
+        <v>916</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>951</v>
+        <v>917</v>
       </c>
       <c r="C272" s="1" t="s">
         <v>915</v>
@@ -6423,29 +6473,23 @@
     </row>
     <row r="273" spans="1:3">
       <c r="A273" s="1" t="s">
-        <v>948</v>
+        <v>160</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>952</v>
-      </c>
-      <c r="C273" s="1" t="s">
-        <v>915</v>
+        <v>463</v>
       </c>
     </row>
     <row r="274" spans="1:3">
       <c r="A274" s="1" t="s">
-        <v>949</v>
+        <v>157</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>953</v>
-      </c>
-      <c r="C274" s="1" t="s">
-        <v>915</v>
+        <v>460</v>
       </c>
     </row>
     <row r="275" spans="1:3">
       <c r="A275" s="1" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="B275" s="1" t="s">
         <v>951</v>
@@ -6456,10 +6500,10 @@
     </row>
     <row r="276" spans="1:3">
       <c r="A276" s="1" t="s">
-        <v>955</v>
+        <v>948</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="C276" s="1" t="s">
         <v>915</v>
@@ -6467,118 +6511,118 @@
     </row>
     <row r="277" spans="1:3">
       <c r="A277" s="1" t="s">
-        <v>739</v>
+        <v>949</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>464</v>
+        <v>953</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>740</v>
+        <v>915</v>
       </c>
     </row>
     <row r="278" spans="1:3">
       <c r="A278" s="1" t="s">
-        <v>161</v>
+        <v>950</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>464</v>
+        <v>951</v>
+      </c>
+      <c r="C278" s="1" t="s">
+        <v>915</v>
       </c>
     </row>
     <row r="279" spans="1:3">
       <c r="A279" s="1" t="s">
-        <v>172</v>
+        <v>955</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>475</v>
+        <v>951</v>
+      </c>
+      <c r="C279" s="1" t="s">
+        <v>915</v>
       </c>
     </row>
     <row r="280" spans="1:3">
       <c r="A280" s="1" t="s">
-        <v>163</v>
+        <v>739</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>466</v>
+        <v>464</v>
+      </c>
+      <c r="C280" s="1" t="s">
+        <v>740</v>
       </c>
     </row>
     <row r="281" spans="1:3">
       <c r="A281" s="1" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
     </row>
     <row r="282" spans="1:3">
       <c r="A282" s="1" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
     </row>
     <row r="283" spans="1:3">
       <c r="A283" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="284" spans="1:3">
       <c r="A284" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
     </row>
     <row r="285" spans="1:3">
       <c r="A285" s="1" t="s">
-        <v>598</v>
+        <v>169</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
     </row>
     <row r="286" spans="1:3">
       <c r="A286" s="1" t="s">
-        <v>741</v>
+        <v>162</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>742</v>
-      </c>
-      <c r="C286" s="1" t="s">
-        <v>740</v>
+        <v>465</v>
       </c>
     </row>
     <row r="287" spans="1:3">
       <c r="A287" s="1" t="s">
-        <v>743</v>
+        <v>164</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>744</v>
-      </c>
-      <c r="C287" s="1" t="s">
-        <v>740</v>
+        <v>467</v>
       </c>
     </row>
     <row r="288" spans="1:3">
       <c r="A288" s="1" t="s">
-        <v>745</v>
+        <v>598</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>746</v>
-      </c>
-      <c r="C288" s="1" t="s">
-        <v>740</v>
+        <v>476</v>
       </c>
     </row>
     <row r="289" spans="1:3">
       <c r="A289" s="1" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>748</v>
+        <v>742</v>
       </c>
       <c r="C289" s="1" t="s">
         <v>740</v>
@@ -6586,10 +6630,10 @@
     </row>
     <row r="290" spans="1:3">
       <c r="A290" s="1" t="s">
-        <v>749</v>
+        <v>743</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>750</v>
+        <v>744</v>
       </c>
       <c r="C290" s="1" t="s">
         <v>740</v>
@@ -6597,316 +6641,325 @@
     </row>
     <row r="291" spans="1:3">
       <c r="A291" s="1" t="s">
-        <v>170</v>
+        <v>745</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>473</v>
+        <v>746</v>
+      </c>
+      <c r="C291" s="1" t="s">
+        <v>740</v>
       </c>
     </row>
     <row r="292" spans="1:3">
       <c r="A292" s="1" t="s">
-        <v>958</v>
+        <v>747</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>959</v>
+        <v>748</v>
       </c>
       <c r="C292" s="1" t="s">
-        <v>915</v>
+        <v>740</v>
       </c>
     </row>
     <row r="293" spans="1:3">
       <c r="A293" s="1" t="s">
-        <v>168</v>
+        <v>749</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>471</v>
+        <v>750</v>
+      </c>
+      <c r="C293" s="1" t="s">
+        <v>740</v>
       </c>
     </row>
     <row r="294" spans="1:3">
       <c r="A294" s="1" t="s">
-        <v>956</v>
+        <v>170</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>957</v>
+        <v>473</v>
       </c>
     </row>
     <row r="295" spans="1:3">
       <c r="A295" s="1" t="s">
-        <v>165</v>
+        <v>958</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>468</v>
+        <v>959</v>
+      </c>
+      <c r="C295" s="1" t="s">
+        <v>915</v>
       </c>
     </row>
     <row r="296" spans="1:3">
       <c r="A296" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
     </row>
     <row r="297" spans="1:3">
       <c r="A297" s="1" t="s">
-        <v>167</v>
+        <v>956</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>470</v>
+        <v>957</v>
       </c>
     </row>
     <row r="298" spans="1:3">
       <c r="A298" s="1" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
     </row>
     <row r="299" spans="1:3">
       <c r="A299" s="1" t="s">
-        <v>989</v>
+        <v>171</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>990</v>
-      </c>
-      <c r="C299" s="1" t="s">
-        <v>991</v>
+        <v>474</v>
       </c>
     </row>
     <row r="300" spans="1:3">
       <c r="A300" s="1" t="s">
-        <v>751</v>
+        <v>167</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
     </row>
     <row r="301" spans="1:3">
       <c r="A301" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="302" spans="1:3">
       <c r="A302" s="1" t="s">
-        <v>189</v>
+        <v>1002</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>493</v>
+        <v>1003</v>
+      </c>
+      <c r="C302" s="1" t="s">
+        <v>995</v>
       </c>
     </row>
     <row r="303" spans="1:3">
       <c r="A303" s="1" t="s">
-        <v>175</v>
+        <v>989</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>479</v>
+        <v>990</v>
+      </c>
+      <c r="C303" s="1" t="s">
+        <v>991</v>
       </c>
     </row>
     <row r="304" spans="1:3">
       <c r="A304" s="1" t="s">
-        <v>176</v>
+        <v>751</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="305" spans="1:3">
       <c r="A305" s="1" t="s">
-        <v>752</v>
+        <v>174</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>753</v>
-      </c>
-      <c r="C305" s="1" t="s">
-        <v>740</v>
+        <v>478</v>
       </c>
     </row>
     <row r="306" spans="1:3">
       <c r="A306" s="1" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>482</v>
+        <v>493</v>
       </c>
     </row>
     <row r="307" spans="1:3">
       <c r="A307" s="1" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
     </row>
     <row r="308" spans="1:3">
       <c r="A308" s="1" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
     </row>
     <row r="309" spans="1:3">
       <c r="A309" s="1" t="s">
-        <v>186</v>
+        <v>752</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>490</v>
+        <v>753</v>
+      </c>
+      <c r="C309" s="1" t="s">
+        <v>740</v>
       </c>
     </row>
     <row r="310" spans="1:3">
       <c r="A310" s="1" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>496</v>
+        <v>482</v>
       </c>
     </row>
     <row r="311" spans="1:3">
       <c r="A311" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="312" spans="1:3">
       <c r="A312" s="1" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
     </row>
     <row r="313" spans="1:3">
       <c r="A313" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
     </row>
     <row r="314" spans="1:3">
       <c r="A314" s="1" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>488</v>
+        <v>496</v>
       </c>
     </row>
     <row r="315" spans="1:3">
       <c r="A315" s="1" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>495</v>
+        <v>483</v>
       </c>
     </row>
     <row r="316" spans="1:3">
       <c r="A316" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="317" spans="1:3">
       <c r="A317" s="1" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>481</v>
+        <v>494</v>
       </c>
     </row>
     <row r="318" spans="1:3">
       <c r="A318" s="1" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
     </row>
     <row r="319" spans="1:3">
       <c r="A319" s="1" t="s">
-        <v>924</v>
+        <v>191</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>925</v>
-      </c>
-      <c r="C319" s="1" t="s">
-        <v>915</v>
+        <v>495</v>
       </c>
     </row>
     <row r="320" spans="1:3">
       <c r="A320" s="1" t="s">
-        <v>972</v>
+        <v>188</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>973</v>
-      </c>
-      <c r="C320" s="1" t="s">
-        <v>964</v>
+        <v>492</v>
       </c>
     </row>
     <row r="321" spans="1:3">
       <c r="A321" s="1" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
     </row>
     <row r="322" spans="1:3">
       <c r="A322" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
     </row>
     <row r="323" spans="1:3">
       <c r="A323" s="1" t="s">
-        <v>754</v>
+        <v>924</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>755</v>
+        <v>925</v>
       </c>
       <c r="C323" s="1" t="s">
-        <v>740</v>
+        <v>915</v>
       </c>
     </row>
     <row r="324" spans="1:3">
       <c r="A324" s="1" t="s">
-        <v>756</v>
+        <v>972</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>497</v>
+        <v>973</v>
+      </c>
+      <c r="C324" s="1" t="s">
+        <v>964</v>
       </c>
     </row>
     <row r="325" spans="1:3">
       <c r="A325" s="1" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
     </row>
     <row r="326" spans="1:3">
       <c r="A326" s="1" t="s">
-        <v>757</v>
+        <v>185</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>501</v>
+        <v>489</v>
       </c>
     </row>
     <row r="327" spans="1:3">
       <c r="A327" s="1" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="C327" s="1" t="s">
         <v>740</v>
@@ -6914,34 +6967,34 @@
     </row>
     <row r="328" spans="1:3">
       <c r="A328" s="1" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>772</v>
+        <v>497</v>
       </c>
     </row>
     <row r="329" spans="1:3">
       <c r="A329" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="330" spans="1:3">
       <c r="A330" s="1" t="s">
-        <v>195</v>
+        <v>757</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
     </row>
     <row r="331" spans="1:3">
       <c r="A331" s="1" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="C331" s="1" t="s">
         <v>740</v>
@@ -6949,43 +7002,34 @@
     </row>
     <row r="332" spans="1:3">
       <c r="A332" s="1" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="B332" s="1" t="s">
         <v>772</v>
       </c>
-      <c r="C332" s="1" t="s">
-        <v>740</v>
-      </c>
     </row>
     <row r="333" spans="1:3">
       <c r="A333" s="1" t="s">
-        <v>764</v>
+        <v>194</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>772</v>
-      </c>
-      <c r="C333" s="1" t="s">
-        <v>740</v>
+        <v>498</v>
       </c>
     </row>
     <row r="334" spans="1:3">
       <c r="A334" s="1" t="s">
-        <v>765</v>
+        <v>195</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>766</v>
-      </c>
-      <c r="C334" s="1" t="s">
-        <v>740</v>
+        <v>499</v>
       </c>
     </row>
     <row r="335" spans="1:3">
       <c r="A335" s="1" t="s">
-        <v>599</v>
+        <v>761</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>882</v>
+        <v>762</v>
       </c>
       <c r="C335" s="1" t="s">
         <v>740</v>
@@ -6993,10 +7037,10 @@
     </row>
     <row r="336" spans="1:3">
       <c r="A336" s="1" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>768</v>
+        <v>772</v>
       </c>
       <c r="C336" s="1" t="s">
         <v>740</v>
@@ -7004,10 +7048,10 @@
     </row>
     <row r="337" spans="1:3">
       <c r="A337" s="1" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="C337" s="1" t="s">
         <v>740</v>
@@ -7015,10 +7059,10 @@
     </row>
     <row r="338" spans="1:3">
       <c r="A338" s="1" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
       <c r="C338" s="1" t="s">
         <v>740</v>
@@ -7026,150 +7070,150 @@
     </row>
     <row r="339" spans="1:3">
       <c r="A339" s="1" t="s">
-        <v>197</v>
+        <v>599</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>879</v>
+        <v>882</v>
+      </c>
+      <c r="C339" s="1" t="s">
+        <v>740</v>
       </c>
     </row>
     <row r="340" spans="1:3">
       <c r="A340" s="1" t="s">
-        <v>198</v>
+        <v>767</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>880</v>
+        <v>768</v>
+      </c>
+      <c r="C340" s="1" t="s">
+        <v>740</v>
       </c>
     </row>
     <row r="341" spans="1:3">
       <c r="A341" s="1" t="s">
-        <v>196</v>
+        <v>769</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>500</v>
+        <v>770</v>
+      </c>
+      <c r="C341" s="1" t="s">
+        <v>740</v>
       </c>
     </row>
     <row r="342" spans="1:3">
       <c r="A342" s="1" t="s">
-        <v>199</v>
+        <v>771</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>881</v>
+        <v>772</v>
+      </c>
+      <c r="C342" s="1" t="s">
+        <v>740</v>
       </c>
     </row>
     <row r="343" spans="1:3">
       <c r="A343" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>502</v>
+        <v>879</v>
       </c>
     </row>
     <row r="344" spans="1:3">
       <c r="A344" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>911</v>
+        <v>880</v>
       </c>
     </row>
     <row r="345" spans="1:3">
       <c r="A345" s="1" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
     </row>
     <row r="346" spans="1:3">
       <c r="A346" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>503</v>
+        <v>881</v>
       </c>
     </row>
     <row r="347" spans="1:3">
       <c r="A347" s="1" t="s">
-        <v>773</v>
+        <v>200</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>774</v>
+        <v>502</v>
       </c>
     </row>
     <row r="348" spans="1:3">
       <c r="A348" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>505</v>
+        <v>911</v>
       </c>
     </row>
     <row r="349" spans="1:3">
       <c r="A349" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="350" spans="1:3">
       <c r="A350" s="1" t="s">
-        <v>775</v>
+        <v>202</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>776</v>
+        <v>503</v>
       </c>
     </row>
     <row r="351" spans="1:3">
       <c r="A351" s="1" t="s">
-        <v>600</v>
+        <v>773</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="C351" s="1" t="s">
-        <v>740</v>
+        <v>774</v>
       </c>
     </row>
     <row r="352" spans="1:3">
       <c r="A352" s="1" t="s">
-        <v>777</v>
+        <v>204</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>778</v>
-      </c>
-      <c r="C352" s="1" t="s">
-        <v>740</v>
+        <v>505</v>
       </c>
     </row>
     <row r="353" spans="1:3">
       <c r="A353" s="1" t="s">
-        <v>779</v>
+        <v>205</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>778</v>
-      </c>
-      <c r="C353" s="1" t="s">
-        <v>740</v>
+        <v>506</v>
       </c>
     </row>
     <row r="354" spans="1:3">
       <c r="A354" s="1" t="s">
-        <v>940</v>
+        <v>775</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>941</v>
-      </c>
-      <c r="C354" s="1" t="s">
-        <v>915</v>
+        <v>776</v>
       </c>
     </row>
     <row r="355" spans="1:3">
       <c r="A355" s="1" t="s">
-        <v>780</v>
+        <v>600</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C355" s="1" t="s">
         <v>740</v>
@@ -7177,40 +7221,43 @@
     </row>
     <row r="356" spans="1:3">
       <c r="A356" s="1" t="s">
-        <v>206</v>
+        <v>777</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>508</v>
+        <v>778</v>
+      </c>
+      <c r="C356" s="1" t="s">
+        <v>740</v>
       </c>
     </row>
     <row r="357" spans="1:3">
       <c r="A357" s="1" t="s">
-        <v>912</v>
+        <v>779</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>905</v>
+        <v>778</v>
       </c>
       <c r="C357" s="1" t="s">
-        <v>902</v>
+        <v>740</v>
       </c>
     </row>
     <row r="358" spans="1:3">
       <c r="A358" s="1" t="s">
-        <v>219</v>
+        <v>940</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>518</v>
+        <v>941</v>
       </c>
       <c r="C358" s="1" t="s">
-        <v>740</v>
+        <v>915</v>
       </c>
     </row>
     <row r="359" spans="1:3">
       <c r="A359" s="1" t="s">
-        <v>215</v>
+        <v>780</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="C359" s="1" t="s">
         <v>740</v>
@@ -7218,32 +7265,29 @@
     </row>
     <row r="360" spans="1:3">
       <c r="A360" s="1" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="C360" s="1" t="s">
-        <v>740</v>
+        <v>508</v>
       </c>
     </row>
     <row r="361" spans="1:3">
       <c r="A361" s="1" t="s">
-        <v>210</v>
+        <v>912</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>511</v>
+        <v>905</v>
       </c>
       <c r="C361" s="1" t="s">
-        <v>740</v>
+        <v>902</v>
       </c>
     </row>
     <row r="362" spans="1:3">
       <c r="A362" s="1" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>509</v>
+        <v>518</v>
       </c>
       <c r="C362" s="1" t="s">
         <v>740</v>
@@ -7251,10 +7295,10 @@
     </row>
     <row r="363" spans="1:3">
       <c r="A363" s="1" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="C363" s="1" t="s">
         <v>740</v>
@@ -7262,97 +7306,97 @@
     </row>
     <row r="364" spans="1:3">
       <c r="A364" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>516</v>
+        <v>514</v>
+      </c>
+      <c r="C364" s="1" t="s">
+        <v>740</v>
       </c>
     </row>
     <row r="365" spans="1:3">
       <c r="A365" s="1" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>883</v>
+        <v>511</v>
+      </c>
+      <c r="C365" s="1" t="s">
+        <v>740</v>
       </c>
     </row>
     <row r="366" spans="1:3">
       <c r="A366" s="1" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>513</v>
+        <v>509</v>
+      </c>
+      <c r="C366" s="1" t="s">
+        <v>740</v>
       </c>
     </row>
     <row r="367" spans="1:3">
       <c r="A367" s="1" t="s">
-        <v>942</v>
+        <v>212</v>
       </c>
       <c r="B367" s="1" t="s">
-        <v>941</v>
+        <v>512</v>
       </c>
       <c r="C367" s="1" t="s">
-        <v>915</v>
+        <v>740</v>
       </c>
     </row>
     <row r="368" spans="1:3">
       <c r="A368" s="1" t="s">
-        <v>781</v>
+        <v>216</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>782</v>
+        <v>516</v>
       </c>
     </row>
     <row r="369" spans="1:3">
       <c r="A369" s="1" t="s">
-        <v>783</v>
+        <v>208</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>784</v>
-      </c>
-      <c r="C369" s="1" t="s">
-        <v>740</v>
+        <v>883</v>
       </c>
     </row>
     <row r="370" spans="1:3">
       <c r="A370" s="1" t="s">
-        <v>785</v>
+        <v>213</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>786</v>
-      </c>
-      <c r="C370" s="1" t="s">
-        <v>740</v>
+        <v>513</v>
       </c>
     </row>
     <row r="371" spans="1:3">
       <c r="A371" s="1" t="s">
-        <v>787</v>
+        <v>942</v>
       </c>
       <c r="B371" s="1" t="s">
-        <v>788</v>
+        <v>941</v>
       </c>
       <c r="C371" s="1" t="s">
-        <v>740</v>
+        <v>915</v>
       </c>
     </row>
     <row r="372" spans="1:3">
       <c r="A372" s="1" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>790</v>
-      </c>
-      <c r="C372" s="1" t="s">
-        <v>740</v>
+        <v>782</v>
       </c>
     </row>
     <row r="373" spans="1:3">
       <c r="A373" s="1" t="s">
-        <v>791</v>
+        <v>783</v>
       </c>
       <c r="B373" s="1" t="s">
-        <v>792</v>
+        <v>784</v>
       </c>
       <c r="C373" s="1" t="s">
         <v>740</v>
@@ -7360,10 +7404,10 @@
     </row>
     <row r="374" spans="1:3">
       <c r="A374" s="1" t="s">
-        <v>793</v>
+        <v>785</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>794</v>
+        <v>786</v>
       </c>
       <c r="C374" s="1" t="s">
         <v>740</v>
@@ -7371,10 +7415,10 @@
     </row>
     <row r="375" spans="1:3">
       <c r="A375" s="1" t="s">
-        <v>795</v>
+        <v>787</v>
       </c>
       <c r="B375" s="1" t="s">
-        <v>784</v>
+        <v>788</v>
       </c>
       <c r="C375" s="1" t="s">
         <v>740</v>
@@ -7382,312 +7426,315 @@
     </row>
     <row r="376" spans="1:3">
       <c r="A376" s="1" t="s">
-        <v>908</v>
+        <v>789</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>905</v>
+        <v>790</v>
       </c>
       <c r="C376" s="1" t="s">
-        <v>902</v>
+        <v>740</v>
       </c>
     </row>
     <row r="377" spans="1:3">
       <c r="A377" s="1" t="s">
-        <v>918</v>
+        <v>791</v>
       </c>
       <c r="B377" s="1" t="s">
-        <v>919</v>
+        <v>792</v>
       </c>
       <c r="C377" s="1" t="s">
-        <v>915</v>
+        <v>740</v>
       </c>
     </row>
     <row r="378" spans="1:3">
       <c r="A378" s="1" t="s">
-        <v>922</v>
+        <v>793</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>923</v>
+        <v>794</v>
       </c>
       <c r="C378" s="1" t="s">
-        <v>915</v>
+        <v>740</v>
       </c>
     </row>
     <row r="379" spans="1:3">
       <c r="A379" s="1" t="s">
-        <v>895</v>
+        <v>795</v>
       </c>
       <c r="B379" s="1" t="s">
-        <v>896</v>
+        <v>784</v>
       </c>
       <c r="C379" s="1" t="s">
-        <v>894</v>
+        <v>740</v>
       </c>
     </row>
     <row r="380" spans="1:3">
       <c r="A380" s="1" t="s">
-        <v>796</v>
+        <v>908</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>797</v>
+        <v>905</v>
       </c>
       <c r="C380" s="1" t="s">
-        <v>740</v>
+        <v>902</v>
       </c>
     </row>
     <row r="381" spans="1:3">
       <c r="A381" s="1" t="s">
-        <v>798</v>
+        <v>918</v>
       </c>
       <c r="B381" s="1" t="s">
-        <v>799</v>
+        <v>919</v>
       </c>
       <c r="C381" s="1" t="s">
-        <v>740</v>
+        <v>915</v>
       </c>
     </row>
     <row r="382" spans="1:3">
       <c r="A382" s="1" t="s">
-        <v>800</v>
+        <v>922</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>801</v>
+        <v>923</v>
       </c>
       <c r="C382" s="1" t="s">
-        <v>740</v>
+        <v>915</v>
       </c>
     </row>
     <row r="383" spans="1:3">
       <c r="A383" s="1" t="s">
-        <v>217</v>
+        <v>895</v>
       </c>
       <c r="B383" s="1" t="s">
-        <v>786</v>
+        <v>896</v>
+      </c>
+      <c r="C383" s="1" t="s">
+        <v>894</v>
       </c>
     </row>
     <row r="384" spans="1:3">
       <c r="A384" s="1" t="s">
-        <v>218</v>
+        <v>796</v>
       </c>
       <c r="B384" s="1" t="s">
-        <v>517</v>
+        <v>797</v>
+      </c>
+      <c r="C384" s="1" t="s">
+        <v>740</v>
       </c>
     </row>
     <row r="385" spans="1:3">
       <c r="A385" s="1" t="s">
-        <v>960</v>
+        <v>798</v>
       </c>
       <c r="B385" s="1" t="s">
-        <v>919</v>
+        <v>799</v>
       </c>
       <c r="C385" s="1" t="s">
-        <v>915</v>
+        <v>740</v>
       </c>
     </row>
     <row r="386" spans="1:3">
       <c r="A386" s="1" t="s">
-        <v>211</v>
+        <v>800</v>
       </c>
       <c r="B386" s="1" t="s">
-        <v>961</v>
+        <v>801</v>
+      </c>
+      <c r="C386" s="1" t="s">
+        <v>740</v>
       </c>
     </row>
     <row r="387" spans="1:3">
       <c r="A387" s="1" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="B387" s="1" t="s">
-        <v>510</v>
+        <v>786</v>
       </c>
     </row>
     <row r="388" spans="1:3">
       <c r="A388" s="1" t="s">
-        <v>913</v>
+        <v>218</v>
       </c>
       <c r="B388" s="1" t="s">
-        <v>914</v>
-      </c>
-      <c r="C388" s="1" t="s">
-        <v>915</v>
+        <v>517</v>
       </c>
     </row>
     <row r="389" spans="1:3">
       <c r="A389" s="1" t="s">
-        <v>904</v>
+        <v>960</v>
       </c>
       <c r="B389" s="1" t="s">
-        <v>905</v>
+        <v>919</v>
+      </c>
+      <c r="C389" s="1" t="s">
+        <v>915</v>
       </c>
     </row>
     <row r="390" spans="1:3">
       <c r="A390" s="1" t="s">
-        <v>802</v>
+        <v>211</v>
       </c>
       <c r="B390" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="C390" s="1" t="s">
-        <v>740</v>
+        <v>961</v>
       </c>
     </row>
     <row r="391" spans="1:3">
       <c r="A391" s="1" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="B391" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="C391" s="1" t="s">
-        <v>740</v>
+        <v>510</v>
       </c>
     </row>
     <row r="392" spans="1:3">
       <c r="A392" s="1" t="s">
-        <v>223</v>
+        <v>913</v>
       </c>
       <c r="B392" s="1" t="s">
-        <v>521</v>
+        <v>914</v>
       </c>
       <c r="C392" s="1" t="s">
-        <v>740</v>
+        <v>915</v>
       </c>
     </row>
     <row r="393" spans="1:3">
       <c r="A393" s="1" t="s">
-        <v>803</v>
+        <v>904</v>
       </c>
       <c r="B393" s="1" t="s">
-        <v>884</v>
-      </c>
-      <c r="C393" s="1" t="s">
-        <v>740</v>
+        <v>905</v>
       </c>
     </row>
     <row r="394" spans="1:3">
       <c r="A394" s="1" t="s">
-        <v>804</v>
+        <v>1000</v>
       </c>
       <c r="B394" s="1" t="s">
-        <v>805</v>
+        <v>1001</v>
       </c>
       <c r="C394" s="1" t="s">
-        <v>740</v>
+        <v>995</v>
       </c>
     </row>
     <row r="395" spans="1:3">
       <c r="A395" s="1" t="s">
-        <v>222</v>
+        <v>802</v>
       </c>
       <c r="B395" s="1" t="s">
-        <v>884</v>
+        <v>519</v>
+      </c>
+      <c r="C395" s="1" t="s">
+        <v>740</v>
       </c>
     </row>
     <row r="396" spans="1:3">
       <c r="A396" s="1" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="B396" s="1" t="s">
-        <v>526</v>
+        <v>519</v>
+      </c>
+      <c r="C396" s="1" t="s">
+        <v>740</v>
       </c>
     </row>
     <row r="397" spans="1:3">
       <c r="A397" s="1" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B397" s="1" t="s">
-        <v>524</v>
+        <v>521</v>
+      </c>
+      <c r="C397" s="1" t="s">
+        <v>740</v>
       </c>
     </row>
     <row r="398" spans="1:3">
       <c r="A398" s="1" t="s">
-        <v>224</v>
+        <v>803</v>
       </c>
       <c r="B398" s="1" t="s">
-        <v>522</v>
+        <v>884</v>
+      </c>
+      <c r="C398" s="1" t="s">
+        <v>740</v>
       </c>
     </row>
     <row r="399" spans="1:3">
       <c r="A399" s="1" t="s">
-        <v>221</v>
+        <v>804</v>
       </c>
       <c r="B399" s="1" t="s">
-        <v>520</v>
+        <v>805</v>
+      </c>
+      <c r="C399" s="1" t="s">
+        <v>740</v>
       </c>
     </row>
     <row r="400" spans="1:3">
       <c r="A400" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B400" s="1" t="s">
-        <v>523</v>
+        <v>884</v>
       </c>
     </row>
     <row r="401" spans="1:3">
       <c r="A401" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B401" s="1" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="402" spans="1:3">
       <c r="A402" s="1" t="s">
-        <v>806</v>
+        <v>226</v>
       </c>
       <c r="B402" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="C402" s="1" t="s">
-        <v>740</v>
+        <v>524</v>
       </c>
     </row>
     <row r="403" spans="1:3">
       <c r="A403" s="1" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="B403" s="1" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
     </row>
     <row r="404" spans="1:3">
       <c r="A404" s="1" t="s">
-        <v>807</v>
+        <v>221</v>
       </c>
       <c r="B404" s="1" t="s">
-        <v>808</v>
-      </c>
-      <c r="C404" s="1" t="s">
-        <v>740</v>
+        <v>520</v>
       </c>
     </row>
     <row r="405" spans="1:3">
       <c r="A405" s="1" t="s">
-        <v>809</v>
+        <v>225</v>
       </c>
       <c r="B405" s="1" t="s">
-        <v>810</v>
-      </c>
-      <c r="C405" s="1" t="s">
-        <v>740</v>
+        <v>523</v>
       </c>
     </row>
     <row r="406" spans="1:3">
       <c r="A406" s="1" t="s">
-        <v>811</v>
+        <v>227</v>
       </c>
       <c r="B406" s="1" t="s">
-        <v>812</v>
-      </c>
-      <c r="C406" s="1" t="s">
-        <v>740</v>
+        <v>525</v>
       </c>
     </row>
     <row r="407" spans="1:3">
       <c r="A407" s="1" t="s">
-        <v>813</v>
+        <v>806</v>
       </c>
       <c r="B407" s="1" t="s">
-        <v>814</v>
+        <v>527</v>
       </c>
       <c r="C407" s="1" t="s">
         <v>740</v>
@@ -7695,21 +7742,18 @@
     </row>
     <row r="408" spans="1:3">
       <c r="A408" s="1" t="s">
-        <v>815</v>
+        <v>229</v>
       </c>
       <c r="B408" s="1" t="s">
-        <v>816</v>
-      </c>
-      <c r="C408" s="1" t="s">
-        <v>740</v>
+        <v>527</v>
       </c>
     </row>
     <row r="409" spans="1:3">
       <c r="A409" s="1" t="s">
-        <v>818</v>
+        <v>807</v>
       </c>
       <c r="B409" s="1" t="s">
-        <v>817</v>
+        <v>808</v>
       </c>
       <c r="C409" s="1" t="s">
         <v>740</v>
@@ -7717,10 +7761,10 @@
     </row>
     <row r="410" spans="1:3">
       <c r="A410" s="1" t="s">
-        <v>820</v>
+        <v>809</v>
       </c>
       <c r="B410" s="1" t="s">
-        <v>819</v>
+        <v>810</v>
       </c>
       <c r="C410" s="1" t="s">
         <v>740</v>
@@ -7728,295 +7772,295 @@
     </row>
     <row r="411" spans="1:3">
       <c r="A411" s="1" t="s">
-        <v>236</v>
+        <v>811</v>
       </c>
       <c r="B411" s="1" t="s">
-        <v>534</v>
+        <v>812</v>
+      </c>
+      <c r="C411" s="1" t="s">
+        <v>740</v>
       </c>
     </row>
     <row r="412" spans="1:3">
       <c r="A412" s="1" t="s">
-        <v>234</v>
+        <v>813</v>
       </c>
       <c r="B412" s="1" t="s">
-        <v>532</v>
+        <v>814</v>
+      </c>
+      <c r="C412" s="1" t="s">
+        <v>740</v>
       </c>
     </row>
     <row r="413" spans="1:3">
       <c r="A413" s="1" t="s">
-        <v>231</v>
+        <v>815</v>
       </c>
       <c r="B413" s="1" t="s">
-        <v>529</v>
+        <v>816</v>
+      </c>
+      <c r="C413" s="1" t="s">
+        <v>740</v>
       </c>
     </row>
     <row r="414" spans="1:3">
       <c r="A414" s="1" t="s">
-        <v>230</v>
+        <v>818</v>
       </c>
       <c r="B414" s="1" t="s">
-        <v>528</v>
+        <v>817</v>
+      </c>
+      <c r="C414" s="1" t="s">
+        <v>740</v>
       </c>
     </row>
     <row r="415" spans="1:3">
       <c r="A415" s="1" t="s">
-        <v>233</v>
+        <v>820</v>
       </c>
       <c r="B415" s="1" t="s">
-        <v>531</v>
+        <v>819</v>
+      </c>
+      <c r="C415" s="1" t="s">
+        <v>740</v>
       </c>
     </row>
     <row r="416" spans="1:3">
       <c r="A416" s="1" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="B416" s="1" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
     </row>
     <row r="417" spans="1:3">
       <c r="A417" s="1" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="B417" s="1" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
     </row>
     <row r="418" spans="1:3">
       <c r="A418" s="1" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B418" s="1" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
     </row>
     <row r="419" spans="1:3">
       <c r="A419" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B419" s="1" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="420" spans="1:3">
       <c r="A420" s="1" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B420" s="1" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
     </row>
     <row r="421" spans="1:3">
       <c r="A421" s="1" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="B421" s="1" t="s">
-        <v>536</v>
+        <v>541</v>
       </c>
     </row>
     <row r="422" spans="1:3">
       <c r="A422" s="1" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="B422" s="1" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
     </row>
     <row r="423" spans="1:3">
       <c r="A423" s="1" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="B423" s="1" t="s">
-        <v>992</v>
-      </c>
-      <c r="C423" s="1" t="s">
-        <v>991</v>
+        <v>533</v>
       </c>
     </row>
     <row r="424" spans="1:3">
       <c r="A424" s="1" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="B424" s="1" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
     </row>
     <row r="425" spans="1:3">
       <c r="A425" s="1" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B425" s="1" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="426" spans="1:3">
       <c r="A426" s="1" t="s">
-        <v>821</v>
+        <v>238</v>
       </c>
       <c r="B426" s="1" t="s">
-        <v>542</v>
-      </c>
-      <c r="C426" s="1" t="s">
-        <v>740</v>
+        <v>536</v>
       </c>
     </row>
     <row r="427" spans="1:3">
       <c r="A427" s="1" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="B427" s="1" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
     </row>
     <row r="428" spans="1:3">
       <c r="A428" s="1" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="B428" s="1" t="s">
-        <v>545</v>
+        <v>992</v>
+      </c>
+      <c r="C428" s="1" t="s">
+        <v>991</v>
       </c>
     </row>
     <row r="429" spans="1:3">
       <c r="A429" s="1" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="B429" s="1" t="s">
-        <v>548</v>
+        <v>537</v>
       </c>
     </row>
     <row r="430" spans="1:3">
       <c r="A430" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="B430" s="1" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
     </row>
     <row r="431" spans="1:3">
       <c r="A431" s="1" t="s">
-        <v>250</v>
+        <v>821</v>
       </c>
       <c r="B431" s="1" t="s">
-        <v>547</v>
+        <v>542</v>
+      </c>
+      <c r="C431" s="1" t="s">
+        <v>740</v>
       </c>
     </row>
     <row r="432" spans="1:3">
       <c r="A432" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B432" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="433" spans="1:3">
       <c r="A433" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B433" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="434" spans="1:3">
       <c r="A434" s="1" t="s">
-        <v>822</v>
+        <v>251</v>
       </c>
       <c r="B434" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="435" spans="1:3">
       <c r="A435" s="1" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="B435" s="1" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
     </row>
     <row r="436" spans="1:3">
       <c r="A436" s="1" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="B436" s="1" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
     </row>
     <row r="437" spans="1:3">
       <c r="A437" s="1" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="B437" s="1" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
     </row>
     <row r="438" spans="1:3">
       <c r="A438" s="1" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="B438" s="1" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
     </row>
     <row r="439" spans="1:3">
       <c r="A439" s="1" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B439" s="1" t="s">
-        <v>824</v>
-      </c>
-      <c r="C439" s="1" t="s">
-        <v>740</v>
+        <v>549</v>
       </c>
     </row>
     <row r="440" spans="1:3">
       <c r="A440" s="1" t="s">
-        <v>825</v>
+        <v>252</v>
       </c>
       <c r="B440" s="1" t="s">
-        <v>826</v>
-      </c>
-      <c r="C440" s="1" t="s">
-        <v>740</v>
+        <v>549</v>
       </c>
     </row>
     <row r="441" spans="1:3">
       <c r="A441" s="1" t="s">
-        <v>827</v>
+        <v>257</v>
       </c>
       <c r="B441" s="1" t="s">
-        <v>828</v>
-      </c>
-      <c r="C441" s="1" t="s">
-        <v>740</v>
+        <v>554</v>
       </c>
     </row>
     <row r="442" spans="1:3">
       <c r="A442" s="1" t="s">
-        <v>829</v>
+        <v>254</v>
       </c>
       <c r="B442" s="1" t="s">
-        <v>830</v>
-      </c>
-      <c r="C442" s="1" t="s">
-        <v>740</v>
+        <v>551</v>
       </c>
     </row>
     <row r="443" spans="1:3">
       <c r="A443" s="1" t="s">
-        <v>831</v>
+        <v>259</v>
       </c>
       <c r="B443" s="1" t="s">
-        <v>832</v>
-      </c>
-      <c r="C443" s="1" t="s">
-        <v>740</v>
+        <v>556</v>
       </c>
     </row>
     <row r="444" spans="1:3">
       <c r="A444" s="1" t="s">
-        <v>833</v>
+        <v>823</v>
       </c>
       <c r="B444" s="1" t="s">
-        <v>834</v>
+        <v>824</v>
       </c>
       <c r="C444" s="1" t="s">
         <v>740</v>
@@ -8024,110 +8068,113 @@
     </row>
     <row r="445" spans="1:3">
       <c r="A445" s="1" t="s">
-        <v>258</v>
+        <v>825</v>
       </c>
       <c r="B445" s="1" t="s">
-        <v>555</v>
+        <v>826</v>
+      </c>
+      <c r="C445" s="1" t="s">
+        <v>740</v>
       </c>
     </row>
     <row r="446" spans="1:3">
       <c r="A446" s="1" t="s">
-        <v>255</v>
+        <v>827</v>
       </c>
       <c r="B446" s="1" t="s">
-        <v>552</v>
+        <v>828</v>
+      </c>
+      <c r="C446" s="1" t="s">
+        <v>740</v>
       </c>
     </row>
     <row r="447" spans="1:3">
       <c r="A447" s="1" t="s">
-        <v>253</v>
+        <v>829</v>
       </c>
       <c r="B447" s="1" t="s">
-        <v>550</v>
+        <v>830</v>
+      </c>
+      <c r="C447" s="1" t="s">
+        <v>740</v>
       </c>
     </row>
     <row r="448" spans="1:3">
       <c r="A448" s="1" t="s">
-        <v>256</v>
+        <v>831</v>
       </c>
       <c r="B448" s="1" t="s">
-        <v>553</v>
+        <v>832</v>
+      </c>
+      <c r="C448" s="1" t="s">
+        <v>740</v>
       </c>
     </row>
     <row r="449" spans="1:3">
       <c r="A449" s="1" t="s">
-        <v>260</v>
+        <v>833</v>
       </c>
       <c r="B449" s="1" t="s">
-        <v>557</v>
+        <v>834</v>
+      </c>
+      <c r="C449" s="1" t="s">
+        <v>740</v>
       </c>
     </row>
     <row r="450" spans="1:3">
       <c r="A450" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B450" s="1" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
     </row>
     <row r="451" spans="1:3">
       <c r="A451" s="1" t="s">
-        <v>835</v>
+        <v>255</v>
       </c>
       <c r="B451" s="1" t="s">
-        <v>559</v>
-      </c>
-      <c r="C451" s="1" t="s">
-        <v>740</v>
+        <v>552</v>
       </c>
     </row>
     <row r="452" spans="1:3">
       <c r="A452" s="1" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="B452" s="1" t="s">
-        <v>559</v>
+        <v>550</v>
       </c>
     </row>
     <row r="453" spans="1:3">
       <c r="A453" s="1" t="s">
-        <v>836</v>
+        <v>256</v>
       </c>
       <c r="B453" s="1" t="s">
-        <v>837</v>
-      </c>
-      <c r="C453" s="1" t="s">
-        <v>740</v>
+        <v>553</v>
       </c>
     </row>
     <row r="454" spans="1:3">
       <c r="A454" s="1" t="s">
-        <v>838</v>
+        <v>260</v>
       </c>
       <c r="B454" s="1" t="s">
-        <v>839</v>
-      </c>
-      <c r="C454" s="1" t="s">
-        <v>740</v>
+        <v>557</v>
       </c>
     </row>
     <row r="455" spans="1:3">
       <c r="A455" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B455" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="C455" s="1" t="s">
-        <v>740</v>
+        <v>558</v>
       </c>
     </row>
     <row r="456" spans="1:3">
       <c r="A456" s="1" t="s">
-        <v>269</v>
+        <v>835</v>
       </c>
       <c r="B456" s="1" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="C456" s="1" t="s">
         <v>740</v>
@@ -8135,21 +8182,18 @@
     </row>
     <row r="457" spans="1:3">
       <c r="A457" s="1" t="s">
-        <v>840</v>
+        <v>262</v>
       </c>
       <c r="B457" s="1" t="s">
-        <v>839</v>
-      </c>
-      <c r="C457" s="1" t="s">
-        <v>740</v>
+        <v>559</v>
       </c>
     </row>
     <row r="458" spans="1:3">
       <c r="A458" s="1" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="B458" s="1" t="s">
-        <v>842</v>
+        <v>837</v>
       </c>
       <c r="C458" s="1" t="s">
         <v>740</v>
@@ -8157,10 +8201,10 @@
     </row>
     <row r="459" spans="1:3">
       <c r="A459" s="1" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="B459" s="1" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
       <c r="C459" s="1" t="s">
         <v>740</v>
@@ -8168,10 +8212,10 @@
     </row>
     <row r="460" spans="1:3">
       <c r="A460" s="1" t="s">
-        <v>845</v>
+        <v>263</v>
       </c>
       <c r="B460" s="1" t="s">
-        <v>837</v>
+        <v>560</v>
       </c>
       <c r="C460" s="1" t="s">
         <v>740</v>
@@ -8179,10 +8223,10 @@
     </row>
     <row r="461" spans="1:3">
       <c r="A461" s="1" t="s">
-        <v>846</v>
+        <v>269</v>
       </c>
       <c r="B461" s="1" t="s">
-        <v>847</v>
+        <v>565</v>
       </c>
       <c r="C461" s="1" t="s">
         <v>740</v>
@@ -8190,10 +8234,10 @@
     </row>
     <row r="462" spans="1:3">
       <c r="A462" s="1" t="s">
-        <v>848</v>
+        <v>840</v>
       </c>
       <c r="B462" s="1" t="s">
-        <v>849</v>
+        <v>839</v>
       </c>
       <c r="C462" s="1" t="s">
         <v>740</v>
@@ -8201,155 +8245,161 @@
     </row>
     <row r="463" spans="1:3">
       <c r="A463" s="1" t="s">
-        <v>851</v>
+        <v>841</v>
       </c>
       <c r="B463" s="1" t="s">
-        <v>850</v>
+        <v>842</v>
+      </c>
+      <c r="C463" s="1" t="s">
+        <v>740</v>
       </c>
     </row>
     <row r="464" spans="1:3">
       <c r="A464" s="1" t="s">
-        <v>272</v>
+        <v>844</v>
       </c>
       <c r="B464" s="1" t="s">
-        <v>568</v>
+        <v>843</v>
+      </c>
+      <c r="C464" s="1" t="s">
+        <v>740</v>
       </c>
     </row>
     <row r="465" spans="1:3">
       <c r="A465" s="1" t="s">
-        <v>271</v>
+        <v>845</v>
       </c>
       <c r="B465" s="1" t="s">
-        <v>567</v>
+        <v>837</v>
+      </c>
+      <c r="C465" s="1" t="s">
+        <v>740</v>
       </c>
     </row>
     <row r="466" spans="1:3">
       <c r="A466" s="1" t="s">
-        <v>265</v>
+        <v>846</v>
       </c>
       <c r="B466" s="1" t="s">
-        <v>562</v>
+        <v>847</v>
+      </c>
+      <c r="C466" s="1" t="s">
+        <v>740</v>
       </c>
     </row>
     <row r="467" spans="1:3">
       <c r="A467" s="1" t="s">
-        <v>264</v>
+        <v>848</v>
       </c>
       <c r="B467" s="1" t="s">
-        <v>561</v>
+        <v>849</v>
+      </c>
+      <c r="C467" s="1" t="s">
+        <v>740</v>
       </c>
     </row>
     <row r="468" spans="1:3">
       <c r="A468" s="1" t="s">
-        <v>270</v>
+        <v>851</v>
       </c>
       <c r="B468" s="1" t="s">
-        <v>566</v>
+        <v>850</v>
       </c>
     </row>
     <row r="469" spans="1:3">
       <c r="A469" s="1" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="B469" s="1" t="s">
-        <v>563</v>
+        <v>568</v>
       </c>
     </row>
     <row r="470" spans="1:3">
       <c r="A470" s="1" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="B470" s="1" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="471" spans="1:3">
       <c r="A471" s="1" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B471" s="1" t="s">
-        <v>885</v>
+        <v>562</v>
       </c>
     </row>
     <row r="472" spans="1:3">
       <c r="A472" s="1" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="B472" s="1" t="s">
-        <v>886</v>
+        <v>561</v>
       </c>
     </row>
     <row r="473" spans="1:3">
       <c r="A473" s="1" t="s">
-        <v>852</v>
+        <v>270</v>
       </c>
       <c r="B473" s="1" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
     </row>
     <row r="474" spans="1:3">
       <c r="A474" s="1" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="B474" s="1" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
     </row>
     <row r="475" spans="1:3">
       <c r="A475" s="1" t="s">
-        <v>853</v>
+        <v>267</v>
       </c>
       <c r="B475" s="1" t="s">
-        <v>854</v>
-      </c>
-      <c r="C475" s="1" t="s">
-        <v>876</v>
+        <v>564</v>
       </c>
     </row>
     <row r="476" spans="1:3">
       <c r="A476" s="1" t="s">
-        <v>855</v>
+        <v>268</v>
       </c>
       <c r="B476" s="1" t="s">
-        <v>856</v>
-      </c>
-      <c r="C476" s="1" t="s">
-        <v>876</v>
+        <v>885</v>
       </c>
     </row>
     <row r="477" spans="1:3">
       <c r="A477" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B477" s="1" t="s">
-        <v>570</v>
-      </c>
-      <c r="C477" s="1" t="s">
-        <v>876</v>
+        <v>886</v>
       </c>
     </row>
     <row r="478" spans="1:3">
       <c r="A478" s="1" t="s">
-        <v>279</v>
+        <v>852</v>
       </c>
       <c r="B478" s="1" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
     </row>
     <row r="479" spans="1:3">
       <c r="A479" s="1" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B479" s="1" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
     </row>
     <row r="480" spans="1:3">
       <c r="A480" s="1" t="s">
-        <v>276</v>
+        <v>853</v>
       </c>
       <c r="B480" s="1" t="s">
-        <v>571</v>
+        <v>854</v>
       </c>
       <c r="C480" s="1" t="s">
         <v>876</v>
@@ -8357,45 +8407,48 @@
     </row>
     <row r="481" spans="1:3">
       <c r="A481" s="1" t="s">
-        <v>278</v>
+        <v>855</v>
       </c>
       <c r="B481" s="1" t="s">
-        <v>573</v>
+        <v>856</v>
+      </c>
+      <c r="C481" s="1" t="s">
+        <v>876</v>
       </c>
     </row>
     <row r="482" spans="1:3">
       <c r="A482" s="1" t="s">
-        <v>857</v>
+        <v>275</v>
       </c>
       <c r="B482" s="1" t="s">
-        <v>575</v>
+        <v>570</v>
+      </c>
+      <c r="C482" s="1" t="s">
+        <v>876</v>
       </c>
     </row>
     <row r="483" spans="1:3">
       <c r="A483" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B483" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="484" spans="1:3">
       <c r="A484" s="1" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="B484" s="1" t="s">
-        <v>576</v>
-      </c>
-      <c r="C484" s="1" t="s">
-        <v>876</v>
+        <v>572</v>
       </c>
     </row>
     <row r="485" spans="1:3">
       <c r="A485" s="1" t="s">
-        <v>858</v>
+        <v>276</v>
       </c>
       <c r="B485" s="1" t="s">
-        <v>859</v>
+        <v>571</v>
       </c>
       <c r="C485" s="1" t="s">
         <v>876</v>
@@ -8403,135 +8456,126 @@
     </row>
     <row r="486" spans="1:3">
       <c r="A486" s="1" t="s">
-        <v>860</v>
+        <v>278</v>
       </c>
       <c r="B486" s="1" t="s">
-        <v>861</v>
-      </c>
-      <c r="C486" s="1" t="s">
-        <v>876</v>
+        <v>573</v>
       </c>
     </row>
     <row r="487" spans="1:3">
       <c r="A487" s="1" t="s">
-        <v>862</v>
+        <v>857</v>
       </c>
       <c r="B487" s="1" t="s">
-        <v>863</v>
-      </c>
-      <c r="C487" s="1" t="s">
-        <v>876</v>
+        <v>575</v>
       </c>
     </row>
     <row r="488" spans="1:3">
       <c r="A488" s="1" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B488" s="1" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
     </row>
     <row r="489" spans="1:3">
       <c r="A489" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B489" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
+      </c>
+      <c r="C489" s="1" t="s">
+        <v>876</v>
       </c>
     </row>
     <row r="490" spans="1:3">
       <c r="A490" s="1" t="s">
-        <v>864</v>
+        <v>858</v>
       </c>
       <c r="B490" s="1" t="s">
-        <v>579</v>
+        <v>859</v>
+      </c>
+      <c r="C490" s="1" t="s">
+        <v>876</v>
       </c>
     </row>
     <row r="491" spans="1:3">
       <c r="A491" s="1" t="s">
-        <v>284</v>
+        <v>860</v>
       </c>
       <c r="B491" s="1" t="s">
-        <v>579</v>
+        <v>861</v>
+      </c>
+      <c r="C491" s="1" t="s">
+        <v>876</v>
       </c>
     </row>
     <row r="492" spans="1:3">
       <c r="A492" s="1" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="B492" s="1" t="s">
-        <v>866</v>
+        <v>863</v>
+      </c>
+      <c r="C492" s="1" t="s">
+        <v>876</v>
       </c>
     </row>
     <row r="493" spans="1:3">
       <c r="A493" s="1" t="s">
-        <v>945</v>
+        <v>283</v>
       </c>
       <c r="B493" s="1" t="s">
-        <v>946</v>
-      </c>
-      <c r="C493" s="1" t="s">
-        <v>915</v>
+        <v>578</v>
       </c>
     </row>
     <row r="494" spans="1:3">
       <c r="A494" s="1" t="s">
-        <v>969</v>
+        <v>282</v>
       </c>
       <c r="B494" s="1" t="s">
-        <v>966</v>
-      </c>
-      <c r="C494" s="1" t="s">
-        <v>964</v>
+        <v>577</v>
       </c>
     </row>
     <row r="495" spans="1:3">
       <c r="A495" s="1" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="B495" s="1" t="s">
-        <v>581</v>
-      </c>
-      <c r="C495" s="1" t="s">
-        <v>876</v>
+        <v>579</v>
       </c>
     </row>
     <row r="496" spans="1:3">
       <c r="A496" s="1" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="B496" s="1" t="s">
-        <v>587</v>
-      </c>
-      <c r="C496" s="1" t="s">
-        <v>876</v>
+        <v>579</v>
       </c>
     </row>
     <row r="497" spans="1:3">
       <c r="A497" s="1" t="s">
-        <v>289</v>
+        <v>865</v>
       </c>
       <c r="B497" s="1" t="s">
-        <v>586</v>
-      </c>
-      <c r="C497" s="1" t="s">
-        <v>876</v>
+        <v>866</v>
       </c>
     </row>
     <row r="498" spans="1:3">
       <c r="A498" s="1" t="s">
-        <v>967</v>
+        <v>945</v>
       </c>
       <c r="B498" s="1" t="s">
-        <v>966</v>
+        <v>946</v>
       </c>
       <c r="C498" s="1" t="s">
-        <v>964</v>
+        <v>915</v>
       </c>
     </row>
     <row r="499" spans="1:3">
       <c r="A499" s="1" t="s">
-        <v>965</v>
+        <v>969</v>
       </c>
       <c r="B499" s="1" t="s">
         <v>966</v>
@@ -8542,21 +8586,21 @@
     </row>
     <row r="500" spans="1:3">
       <c r="A500" s="1" t="s">
-        <v>968</v>
+        <v>867</v>
       </c>
       <c r="B500" s="1" t="s">
-        <v>966</v>
+        <v>581</v>
       </c>
       <c r="C500" s="1" t="s">
-        <v>964</v>
+        <v>876</v>
       </c>
     </row>
     <row r="501" spans="1:3">
       <c r="A501" s="1" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B501" s="1" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="C501" s="1" t="s">
         <v>876</v>
@@ -8564,109 +8608,164 @@
     </row>
     <row r="502" spans="1:3">
       <c r="A502" s="1" t="s">
-        <v>868</v>
+        <v>289</v>
       </c>
       <c r="B502" s="1" t="s">
-        <v>898</v>
+        <v>586</v>
+      </c>
+      <c r="C502" s="1" t="s">
+        <v>876</v>
       </c>
     </row>
     <row r="503" spans="1:3">
       <c r="A503" s="1" t="s">
-        <v>869</v>
+        <v>967</v>
       </c>
       <c r="B503" s="1" t="s">
-        <v>583</v>
+        <v>966</v>
+      </c>
+      <c r="C503" s="1" t="s">
+        <v>964</v>
       </c>
     </row>
     <row r="504" spans="1:3">
       <c r="A504" s="1" t="s">
-        <v>870</v>
+        <v>965</v>
       </c>
       <c r="B504" s="1" t="s">
-        <v>590</v>
+        <v>966</v>
+      </c>
+      <c r="C504" s="1" t="s">
+        <v>964</v>
       </c>
     </row>
     <row r="505" spans="1:3">
       <c r="A505" s="1" t="s">
-        <v>291</v>
+        <v>968</v>
       </c>
       <c r="B505" s="1" t="s">
-        <v>589</v>
+        <v>966</v>
+      </c>
+      <c r="C505" s="1" t="s">
+        <v>964</v>
       </c>
     </row>
     <row r="506" spans="1:3">
       <c r="A506" s="1" t="s">
-        <v>871</v>
+        <v>288</v>
       </c>
       <c r="B506" s="1" t="s">
-        <v>588</v>
+        <v>585</v>
+      </c>
+      <c r="C506" s="1" t="s">
+        <v>876</v>
       </c>
     </row>
     <row r="507" spans="1:3">
       <c r="A507" s="1" t="s">
-        <v>286</v>
+        <v>868</v>
       </c>
       <c r="B507" s="1" t="s">
-        <v>582</v>
+        <v>898</v>
       </c>
     </row>
     <row r="508" spans="1:3">
       <c r="A508" s="1" t="s">
-        <v>897</v>
+        <v>869</v>
       </c>
       <c r="B508" s="1" t="s">
-        <v>898</v>
+        <v>583</v>
       </c>
     </row>
     <row r="509" spans="1:3">
       <c r="A509" s="1" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="B509" s="1" t="s">
-        <v>873</v>
-      </c>
-      <c r="C509" s="1" t="s">
-        <v>876</v>
+        <v>590</v>
       </c>
     </row>
     <row r="510" spans="1:3">
       <c r="A510" s="1" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="B510" s="1" t="s">
-        <v>584</v>
-      </c>
-      <c r="C510" s="1" t="s">
-        <v>876</v>
+        <v>589</v>
       </c>
     </row>
     <row r="511" spans="1:3">
       <c r="A511" s="1" t="s">
-        <v>285</v>
+        <v>871</v>
       </c>
       <c r="B511" s="1" t="s">
-        <v>580</v>
+        <v>588</v>
       </c>
     </row>
     <row r="512" spans="1:3">
       <c r="A512" s="1" t="s">
-        <v>601</v>
+        <v>286</v>
       </c>
       <c r="B512" s="1" t="s">
-        <v>874</v>
-      </c>
-      <c r="C512" s="1" t="s">
-        <v>876</v>
+        <v>582</v>
       </c>
     </row>
     <row r="513" spans="1:3">
       <c r="A513" s="1" t="s">
+        <v>897</v>
+      </c>
+      <c r="B513" s="1" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="514" spans="1:3">
+      <c r="A514" s="1" t="s">
+        <v>872</v>
+      </c>
+      <c r="B514" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="C514" s="1" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="515" spans="1:3">
+      <c r="A515" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B515" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="C515" s="1" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="516" spans="1:3">
+      <c r="A516" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B516" s="1" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="517" spans="1:3">
+      <c r="A517" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="B517" s="1" t="s">
+        <v>874</v>
+      </c>
+      <c r="C517" s="1" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="518" spans="1:3">
+      <c r="A518" s="1" t="s">
         <v>602</v>
       </c>
-      <c r="B513" s="1" t="s">
+      <c r="B518" s="1" t="s">
         <v>875</v>
       </c>
-      <c r="C513" s="1" t="s">
+      <c r="C518" s="1" t="s">
         <v>876</v>
       </c>
     </row>
